--- a/data input/Station_data.xlsx
+++ b/data input/Station_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casest\Documents\Postdoc_CASEST\Publies\Coexistence_landscapes\Data_Coexistence_landscapes\Occupancy_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casest\Documents\GitHub\Bodoquena-MSOM\data input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="15">
   <si>
     <t>Days</t>
   </si>
@@ -52,11 +52,32 @@
   <si>
     <t>189</t>
   </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Pheno_250</t>
+  </si>
+  <si>
+    <t>Produ_250</t>
+  </si>
+  <si>
+    <t>Struc_250</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -120,6 +141,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,9 +436,13 @@
     <col min="3" max="3" width="9.54296875" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -431,8 +458,20 @@
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -448,8 +487,17 @@
       <c r="E2" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" s="12">
+        <v>170.18181999999999</v>
+      </c>
+      <c r="H2" s="12">
+        <v>8027.1303699999999</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2134.0107400000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -465,8 +513,17 @@
       <c r="E3" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" s="12">
+        <v>260.36365000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6237.7392600000003</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1154.3112799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -482,8 +539,17 @@
       <c r="E4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" s="12">
+        <v>340</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7559.4780300000002</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2190.5729999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -499,8 +565,17 @@
       <c r="E5" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" s="12">
+        <v>381.63634999999999</v>
+      </c>
+      <c r="H5" s="12">
+        <v>7009.0434599999999</v>
+      </c>
+      <c r="I5" s="12">
+        <v>489.07204999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -516,8 +591,17 @@
       <c r="E6" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6" s="12">
+        <v>278</v>
+      </c>
+      <c r="H6" s="12">
+        <v>6118.9565400000001</v>
+      </c>
+      <c r="I6" s="12">
+        <v>80.637829999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -533,8 +617,17 @@
       <c r="E7" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G7" s="12">
+        <v>478.18182000000002</v>
+      </c>
+      <c r="H7" s="12">
+        <v>6173.4780300000002</v>
+      </c>
+      <c r="I7" s="12">
+        <v>351.38094999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -550,8 +643,17 @@
       <c r="E8" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G8" s="12">
+        <v>309.27274</v>
+      </c>
+      <c r="H8" s="12">
+        <v>6132.1738299999997</v>
+      </c>
+      <c r="I8" s="12">
+        <v>829.60668999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -567,8 +669,17 @@
       <c r="E9" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G9" s="12">
+        <v>325.27274</v>
+      </c>
+      <c r="H9" s="12">
+        <v>6684.6958000000004</v>
+      </c>
+      <c r="I9" s="12">
+        <v>268.62331999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -584,8 +695,17 @@
       <c r="E10" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G10" s="12">
+        <v>291.45456000000001</v>
+      </c>
+      <c r="H10" s="12">
+        <v>6765.0434599999999</v>
+      </c>
+      <c r="I10" s="12">
+        <v>605.81226000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -601,8 +721,17 @@
       <c r="E11" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G11" s="12">
+        <v>226.54545999999999</v>
+      </c>
+      <c r="H11" s="12">
+        <v>6645.91309</v>
+      </c>
+      <c r="I11" s="12">
+        <v>408.10888999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -618,8 +747,17 @@
       <c r="E12" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G12" s="12">
+        <v>281.81817999999998</v>
+      </c>
+      <c r="H12" s="12">
+        <v>6605.5654299999997</v>
+      </c>
+      <c r="I12" s="12">
+        <v>434.83575000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -635,8 +773,17 @@
       <c r="E13" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G13" s="12">
+        <v>291.09091000000001</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6554.2607399999997</v>
+      </c>
+      <c r="I13" s="12">
+        <v>731.82483000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -652,8 +799,17 @@
       <c r="E14" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G14" s="12">
+        <v>236</v>
+      </c>
+      <c r="H14" s="12">
+        <v>6020.3476600000004</v>
+      </c>
+      <c r="I14" s="12">
+        <v>498.87894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -669,8 +825,17 @@
       <c r="E15" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G15" s="12">
+        <v>226.18181999999999</v>
+      </c>
+      <c r="H15" s="12">
+        <v>6659.6523399999996</v>
+      </c>
+      <c r="I15" s="12">
+        <v>536.24359000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -686,8 +851,17 @@
       <c r="E16" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G16" s="12">
+        <v>298.54543999999999</v>
+      </c>
+      <c r="H16" s="12">
+        <v>6128</v>
+      </c>
+      <c r="I16" s="12">
+        <v>807.21564000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -703,8 +877,17 @@
       <c r="E17" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G17" s="12">
+        <v>367.63634999999999</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5882.4345700000003</v>
+      </c>
+      <c r="I17" s="12">
+        <v>297.77773999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -720,8 +903,17 @@
       <c r="E18" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G18" s="12">
+        <v>308.54543999999999</v>
+      </c>
+      <c r="H18" s="12">
+        <v>6065.7392600000003</v>
+      </c>
+      <c r="I18" s="12">
+        <v>230.33131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -737,8 +929,17 @@
       <c r="E19" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G19" s="12">
+        <v>256.54543999999999</v>
+      </c>
+      <c r="H19" s="12">
+        <v>6189.3911099999996</v>
+      </c>
+      <c r="I19" s="12">
+        <v>612.43651999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -754,8 +955,17 @@
       <c r="E20" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G20" s="12">
+        <v>271.27274</v>
+      </c>
+      <c r="H20" s="12">
+        <v>6663.4780300000002</v>
+      </c>
+      <c r="I20" s="12">
+        <v>592.95074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -771,8 +981,17 @@
       <c r="E21" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G21" s="12">
+        <v>287.09091000000001</v>
+      </c>
+      <c r="H21" s="12">
+        <v>6388.5219699999998</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1593.5798299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -788,8 +1007,17 @@
       <c r="E22" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G22" s="12">
+        <v>298.90908999999999</v>
+      </c>
+      <c r="H22" s="12">
+        <v>6352.5219699999998</v>
+      </c>
+      <c r="I22" s="12">
+        <v>816.30182000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -805,8 +1033,17 @@
       <c r="E23" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G23" s="12">
+        <v>331.81817999999998</v>
+      </c>
+      <c r="H23" s="12">
+        <v>5961.7392600000003</v>
+      </c>
+      <c r="I23" s="12">
+        <v>299.55765000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -822,8 +1059,17 @@
       <c r="E24" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G24" s="12">
+        <v>208.90908999999999</v>
+      </c>
+      <c r="H24" s="12">
+        <v>6504.5219699999998</v>
+      </c>
+      <c r="I24" s="12">
+        <v>774.5249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -839,8 +1085,17 @@
       <c r="E25" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G25" s="12">
+        <v>190.72728000000001</v>
+      </c>
+      <c r="H25" s="12">
+        <v>7154.9565400000001</v>
+      </c>
+      <c r="I25" s="12">
+        <v>978.65044999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -856,8 +1111,20 @@
       <c r="E26" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12">
+        <v>206.18181999999999</v>
+      </c>
+      <c r="H26" s="12">
+        <v>6614.9565400000001</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1172.66956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -873,8 +1140,17 @@
       <c r="E27" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G27" s="12">
+        <v>393.45456000000001</v>
+      </c>
+      <c r="H27" s="12">
+        <v>6632.1738299999997</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1265.15112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -890,8 +1166,17 @@
       <c r="E28" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G28" s="12">
+        <v>233.09091000000001</v>
+      </c>
+      <c r="H28" s="12">
+        <v>6847.4780300000002</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1236.7529300000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -907,8 +1192,17 @@
       <c r="E29" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G29" s="12">
+        <v>231.81818000000001</v>
+      </c>
+      <c r="H29" s="12">
+        <v>7819.8261700000003</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1157.7755099999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -924,8 +1218,17 @@
       <c r="E30" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G30" s="12">
+        <v>237.45454000000001</v>
+      </c>
+      <c r="H30" s="12">
+        <v>6653.0434599999999</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1172.5183099999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -941,8 +1244,17 @@
       <c r="E31" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G31" s="12">
+        <v>253.63637</v>
+      </c>
+      <c r="H31" s="12">
+        <v>5957.2172899999996</v>
+      </c>
+      <c r="I31" s="12">
+        <v>392.39224000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -958,8 +1270,17 @@
       <c r="E32" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G32" s="12">
+        <v>480.36365000000001</v>
+      </c>
+      <c r="H32" s="12">
+        <v>6295.4780300000002</v>
+      </c>
+      <c r="I32" s="12">
+        <v>864.53899999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -975,8 +1296,17 @@
       <c r="E33" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G33" s="12">
+        <v>212.18181999999999</v>
+      </c>
+      <c r="H33" s="12">
+        <v>7934.6088900000004</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1465.55664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -992,8 +1322,20 @@
       <c r="E34" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12">
+        <v>152.36363</v>
+      </c>
+      <c r="H34" s="12">
+        <v>8796.5214799999994</v>
+      </c>
+      <c r="I34" s="12">
+        <v>111.62654000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1009,8 +1351,17 @@
       <c r="E35" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G35" s="12">
+        <v>343.63634999999999</v>
+      </c>
+      <c r="H35" s="12">
+        <v>7775.8261700000003</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1514.6711399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1026,8 +1377,17 @@
       <c r="E36" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G36" s="12">
+        <v>218</v>
+      </c>
+      <c r="H36" s="12">
+        <v>7583.6523399999996</v>
+      </c>
+      <c r="I36" s="12">
+        <v>2001.5347899999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1043,8 +1403,17 @@
       <c r="E37" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G37" s="12">
+        <v>359.09091000000001</v>
+      </c>
+      <c r="H37" s="12">
+        <v>6455.1303699999999</v>
+      </c>
+      <c r="I37" s="12">
+        <v>196.78496000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1060,8 +1429,20 @@
       <c r="E38" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="12">
+        <v>186.18181999999999</v>
+      </c>
+      <c r="H38" s="12">
+        <v>8425.3916000000008</v>
+      </c>
+      <c r="I38" s="12">
+        <v>924.64837999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1077,8 +1458,17 @@
       <c r="E39" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G39" s="12">
+        <v>415.63634999999999</v>
+      </c>
+      <c r="H39" s="12">
+        <v>5740.5219699999998</v>
+      </c>
+      <c r="I39" s="12">
+        <v>255.47198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1094,8 +1484,20 @@
       <c r="E40" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="12">
+        <v>357.09091000000001</v>
+      </c>
+      <c r="H40" s="12">
+        <v>7131.8261700000003</v>
+      </c>
+      <c r="I40" s="12">
+        <v>960.24437999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1111,8 +1513,17 @@
       <c r="E41" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G41" s="12">
+        <v>347.63634999999999</v>
+      </c>
+      <c r="H41" s="12">
+        <v>6566.2607399999997</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1115.3449700000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1128,8 +1539,17 @@
       <c r="E42" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G42" s="12">
+        <v>333.81817999999998</v>
+      </c>
+      <c r="H42" s="12">
+        <v>6573.5654299999997</v>
+      </c>
+      <c r="I42" s="12">
+        <v>1144.9204099999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1145,8 +1565,17 @@
       <c r="E43" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G43" s="12">
+        <v>264.36365000000001</v>
+      </c>
+      <c r="H43" s="12">
+        <v>5618.08691</v>
+      </c>
+      <c r="I43" s="12">
+        <v>266.83983999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1162,8 +1591,20 @@
       <c r="E44" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="12">
+        <v>401.63634999999999</v>
+      </c>
+      <c r="H44" s="12">
+        <v>6676.5219699999998</v>
+      </c>
+      <c r="I44" s="12">
+        <v>1790.9188200000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1179,8 +1620,17 @@
       <c r="E45" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G45" s="12">
+        <v>340.90908999999999</v>
+      </c>
+      <c r="H45" s="12">
+        <v>6821.0434599999999</v>
+      </c>
+      <c r="I45" s="12">
+        <v>1358.7438999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1196,8 +1646,17 @@
       <c r="E46" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G46" s="12">
+        <v>270.18182000000002</v>
+      </c>
+      <c r="H46" s="12">
+        <v>5714.08691</v>
+      </c>
+      <c r="I46" s="12">
+        <v>202.00636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1213,8 +1672,17 @@
       <c r="E47" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G47" s="12">
+        <v>322.54543999999999</v>
+      </c>
+      <c r="H47" s="12">
+        <v>5739.4780300000002</v>
+      </c>
+      <c r="I47" s="12">
+        <v>424.09298999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -1230,8 +1698,17 @@
       <c r="E48" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G48" s="12">
+        <v>419.81817999999998</v>
+      </c>
+      <c r="H48" s="12">
+        <v>5755.8261700000003</v>
+      </c>
+      <c r="I48" s="12">
+        <v>234.06451000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1247,8 +1724,17 @@
       <c r="E49" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G49" s="12">
+        <v>303.27274</v>
+      </c>
+      <c r="H49" s="12">
+        <v>5451.8261700000003</v>
+      </c>
+      <c r="I49" s="12">
+        <v>167.12225000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -1264,8 +1750,17 @@
       <c r="E50" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G50" s="12">
+        <v>264</v>
+      </c>
+      <c r="H50" s="12">
+        <v>7089.7392600000003</v>
+      </c>
+      <c r="I50" s="12">
+        <v>1334.7529300000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1281,8 +1776,17 @@
       <c r="E51" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G51" s="12">
+        <v>390.90908999999999</v>
+      </c>
+      <c r="H51" s="12">
+        <v>7440.6958000000004</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1375.9235799999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -1298,8 +1802,17 @@
       <c r="E52" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G52" s="12">
+        <v>244.90908999999999</v>
+      </c>
+      <c r="H52" s="12">
+        <v>6425.91309</v>
+      </c>
+      <c r="I52" s="12">
+        <v>1673.2154499999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1315,8 +1828,17 @@
       <c r="E53" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G53" s="12">
+        <v>208</v>
+      </c>
+      <c r="H53" s="12">
+        <v>5392</v>
+      </c>
+      <c r="I53" s="12">
+        <v>125.31097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -1332,8 +1854,17 @@
       <c r="E54" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G54" s="12">
+        <v>472.18182000000002</v>
+      </c>
+      <c r="H54" s="12">
+        <v>7364.1738299999997</v>
+      </c>
+      <c r="I54" s="12">
+        <v>600.55371000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1349,8 +1880,17 @@
       <c r="E55" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G55" s="12">
+        <v>521.09087999999997</v>
+      </c>
+      <c r="H55" s="12">
+        <v>6358.6088900000004</v>
+      </c>
+      <c r="I55" s="12">
+        <v>964.18262000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -1366,8 +1906,17 @@
       <c r="E56" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G56" s="12">
+        <v>454.18182000000002</v>
+      </c>
+      <c r="H56" s="12">
+        <v>6270.6088900000004</v>
+      </c>
+      <c r="I56" s="12">
+        <v>1379.57251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1383,8 +1932,17 @@
       <c r="E57" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G57" s="12">
+        <v>152.36363</v>
+      </c>
+      <c r="H57" s="12">
+        <v>8206.6083999999992</v>
+      </c>
+      <c r="I57" s="12">
+        <v>1694.4133300000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -1400,8 +1958,17 @@
       <c r="E58" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G58" s="12">
+        <v>296.54543999999999</v>
+      </c>
+      <c r="H58" s="12">
+        <v>7309.91309</v>
+      </c>
+      <c r="I58" s="12">
+        <v>917.63196000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1417,8 +1984,17 @@
       <c r="E59" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G59" s="12">
+        <v>779.63634999999999</v>
+      </c>
+      <c r="H59" s="12">
+        <v>6574.6958000000004</v>
+      </c>
+      <c r="I59" s="12">
+        <v>1115.3023700000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -1434,8 +2010,17 @@
       <c r="E60" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G60" s="12">
+        <v>331.09091000000001</v>
+      </c>
+      <c r="H60" s="12">
+        <v>6744.5219699999998</v>
+      </c>
+      <c r="I60" s="12">
+        <v>417.23181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -1451,8 +2036,17 @@
       <c r="E61" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G61" s="12">
+        <v>198.54545999999999</v>
+      </c>
+      <c r="H61" s="12">
+        <v>7957.3911099999996</v>
+      </c>
+      <c r="I61" s="12">
+        <v>609.995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -1468,8 +2062,17 @@
       <c r="E62" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G62" s="12">
+        <v>880</v>
+      </c>
+      <c r="H62" s="12">
+        <v>6003.1303699999999</v>
+      </c>
+      <c r="I62" s="12">
+        <v>649.49456999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -1485,8 +2088,17 @@
       <c r="E63" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G63" s="12">
+        <v>186.72728000000001</v>
+      </c>
+      <c r="H63" s="12">
+        <v>8065.3911099999996</v>
+      </c>
+      <c r="I63" s="12">
+        <v>899.69115999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -1502,8 +2114,17 @@
       <c r="E64" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G64" s="12">
+        <v>678.18182000000002</v>
+      </c>
+      <c r="H64" s="12">
+        <v>6354.4345700000003</v>
+      </c>
+      <c r="I64" s="12">
+        <v>1331.9259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -1519,8 +2140,17 @@
       <c r="E65" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G65" s="12">
+        <v>204.72728000000001</v>
+      </c>
+      <c r="H65" s="12">
+        <v>8028.1738299999997</v>
+      </c>
+      <c r="I65" s="12">
+        <v>975.85253999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -1536,8 +2166,17 @@
       <c r="E66" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G66" s="12">
+        <v>212.18181999999999</v>
+      </c>
+      <c r="H66" s="12">
+        <v>7894.6088900000004</v>
+      </c>
+      <c r="I66" s="12">
+        <v>993.26495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -1553,8 +2192,20 @@
       <c r="E67" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="12">
+        <v>212.36363</v>
+      </c>
+      <c r="H67" s="12">
+        <v>7502.4345700000003</v>
+      </c>
+      <c r="I67" s="12">
+        <v>1672.80762</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -1570,8 +2221,20 @@
       <c r="E68" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="12">
+        <v>236</v>
+      </c>
+      <c r="H68" s="12">
+        <v>8234.08691</v>
+      </c>
+      <c r="I68" s="12">
+        <v>458.52956999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -1587,8 +2250,17 @@
       <c r="E69" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G69" s="12">
+        <v>329.63634999999999</v>
+      </c>
+      <c r="H69" s="12">
+        <v>6314.6088900000004</v>
+      </c>
+      <c r="I69" s="12">
+        <v>1109.59167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -1604,8 +2276,20 @@
       <c r="E70" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="12">
+        <v>268.18182000000002</v>
+      </c>
+      <c r="H70" s="12">
+        <v>7689.7392600000003</v>
+      </c>
+      <c r="I70" s="12">
+        <v>671.35229000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -1621,8 +2305,20 @@
       <c r="E71" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="12">
+        <v>294.90908999999999</v>
+      </c>
+      <c r="H71" s="12">
+        <v>7058.6088900000004</v>
+      </c>
+      <c r="I71" s="12">
+        <v>1654.5393099999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -1638,8 +2334,17 @@
       <c r="E72" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G72" s="12">
+        <v>426.90908999999999</v>
+      </c>
+      <c r="H72" s="12">
+        <v>7516.6958000000004</v>
+      </c>
+      <c r="I72" s="12">
+        <v>1092.58887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -1655,8 +2360,17 @@
       <c r="E73" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G73" s="12">
+        <v>632.27270999999996</v>
+      </c>
+      <c r="H73" s="12">
+        <v>6512.7827100000004</v>
+      </c>
+      <c r="I73" s="12">
+        <v>1611.0111099999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -1672,8 +2386,17 @@
       <c r="E74" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G74" s="12">
+        <v>304.72726</v>
+      </c>
+      <c r="H74" s="12">
+        <v>7406.7827100000004</v>
+      </c>
+      <c r="I74" s="12">
+        <v>1588.21399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -1689,8 +2412,17 @@
       <c r="E75" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G75" s="12">
+        <v>307.81817999999998</v>
+      </c>
+      <c r="H75" s="12">
+        <v>7794.2607399999997</v>
+      </c>
+      <c r="I75" s="12">
+        <v>1379.7443800000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -1706,8 +2438,17 @@
       <c r="E76" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G76" s="12">
+        <v>299.09091000000001</v>
+      </c>
+      <c r="H76" s="12">
+        <v>7138.6088900000004</v>
+      </c>
+      <c r="I76" s="12">
+        <v>1104.35742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -1723,8 +2464,17 @@
       <c r="E77" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G77" s="12">
+        <v>388.18182000000002</v>
+      </c>
+      <c r="H77" s="12">
+        <v>6934.9565400000001</v>
+      </c>
+      <c r="I77" s="12">
+        <v>1595.59717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -1740,8 +2490,20 @@
       <c r="E78" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="12">
+        <v>230</v>
+      </c>
+      <c r="H78" s="12">
+        <v>8317.2177699999993</v>
+      </c>
+      <c r="I78" s="12">
+        <v>1904.2248500000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -1757,8 +2519,17 @@
       <c r="E79" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G79" s="12">
+        <v>383.27274</v>
+      </c>
+      <c r="H79" s="12">
+        <v>8071.1303699999999</v>
+      </c>
+      <c r="I79" s="12">
+        <v>1753.2103300000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -1774,8 +2545,17 @@
       <c r="E80" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G80" s="12">
+        <v>569.27270999999996</v>
+      </c>
+      <c r="H80" s="12">
+        <v>7582.2607399999997</v>
+      </c>
+      <c r="I80" s="12">
+        <v>295.78206999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -1791,8 +2571,17 @@
       <c r="E81" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G81" s="12">
+        <v>869.45452999999998</v>
+      </c>
+      <c r="H81" s="12">
+        <v>6255.7392600000003</v>
+      </c>
+      <c r="I81" s="12">
+        <v>631.63860999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -1808,8 +2597,20 @@
       <c r="E82" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="12">
+        <v>190</v>
+      </c>
+      <c r="H82" s="12">
+        <v>8685.0439499999993</v>
+      </c>
+      <c r="I82" s="12">
+        <v>265.08841000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -1825,8 +2626,17 @@
       <c r="E83" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G83" s="12">
+        <v>321.27274</v>
+      </c>
+      <c r="H83" s="12">
+        <v>6561.91309</v>
+      </c>
+      <c r="I83" s="12">
+        <v>1931.8703599999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -1842,8 +2652,20 @@
       <c r="E84" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="12">
+        <v>205.63637</v>
+      </c>
+      <c r="H84" s="12">
+        <v>8560.8691400000007</v>
+      </c>
+      <c r="I84" s="12">
+        <v>368.43707000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -1859,8 +2681,17 @@
       <c r="E85" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G85" s="12">
+        <v>246.90908999999999</v>
+      </c>
+      <c r="H85" s="12">
+        <v>8003.8261700000003</v>
+      </c>
+      <c r="I85" s="12">
+        <v>398.47867000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -1876,8 +2707,17 @@
       <c r="E86" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G86" s="12">
+        <v>186.18181999999999</v>
+      </c>
+      <c r="H86" s="12">
+        <v>8750.08691</v>
+      </c>
+      <c r="I86" s="12">
+        <v>411.52285999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -1893,8 +2733,17 @@
       <c r="E87" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G87" s="12">
+        <v>589.09087999999997</v>
+      </c>
+      <c r="H87" s="12">
+        <v>7278.6088900000004</v>
+      </c>
+      <c r="I87" s="12">
+        <v>2041.9633799999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -1910,8 +2759,17 @@
       <c r="E88" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G88" s="12">
+        <v>204.36363</v>
+      </c>
+      <c r="H88" s="12">
+        <v>8378.7822300000007</v>
+      </c>
+      <c r="I88" s="12">
+        <v>626.37329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -1927,8 +2785,17 @@
       <c r="E89" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G89" s="12">
+        <v>670.36365000000001</v>
+      </c>
+      <c r="H89" s="12">
+        <v>7437.3911099999996</v>
+      </c>
+      <c r="I89" s="12">
+        <v>2112.2114299999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -1944,8 +2811,17 @@
       <c r="E90" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G90" s="12">
+        <v>341.81817999999998</v>
+      </c>
+      <c r="H90" s="12">
+        <v>8048.1738299999997</v>
+      </c>
+      <c r="I90" s="12">
+        <v>966.10991999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -1961,8 +2837,17 @@
       <c r="E91" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G91" s="12">
+        <v>757.09087999999997</v>
+      </c>
+      <c r="H91" s="12">
+        <v>6932.3476600000004</v>
+      </c>
+      <c r="I91" s="12">
+        <v>1107.25037</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -1978,8 +2863,17 @@
       <c r="E92" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G92" s="12">
+        <v>290.54543999999999</v>
+      </c>
+      <c r="H92" s="12">
+        <v>7208.6958000000004</v>
+      </c>
+      <c r="I92" s="12">
+        <v>1608.9751000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -1995,8 +2889,17 @@
       <c r="E93" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G93" s="12">
+        <v>240.54545999999999</v>
+      </c>
+      <c r="H93" s="12">
+        <v>8108.6958000000004</v>
+      </c>
+      <c r="I93" s="12">
+        <v>797.65539999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -2012,8 +2915,17 @@
       <c r="E94" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G94" s="12">
+        <v>394.90908999999999</v>
+      </c>
+      <c r="H94" s="12">
+        <v>6402.4345700000003</v>
+      </c>
+      <c r="I94" s="12">
+        <v>1041.6046100000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -2029,8 +2941,17 @@
       <c r="E95" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G95" s="12">
+        <v>296.54543999999999</v>
+      </c>
+      <c r="H95" s="12">
+        <v>6785.5654299999997</v>
+      </c>
+      <c r="I95" s="12">
+        <v>815.80005000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -2046,8 +2967,17 @@
       <c r="E96" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G96" s="12">
+        <v>369.27274</v>
+      </c>
+      <c r="H96" s="12">
+        <v>6788</v>
+      </c>
+      <c r="I96" s="12">
+        <v>1676.0260000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -2063,8 +2993,17 @@
       <c r="E97" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G97" s="12">
+        <v>318</v>
+      </c>
+      <c r="H97" s="12">
+        <v>7192.6958000000004</v>
+      </c>
+      <c r="I97" s="12">
+        <v>792.77313000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -2080,8 +3019,17 @@
       <c r="E98" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G98" s="12">
+        <v>225.81818000000001</v>
+      </c>
+      <c r="H98" s="12">
+        <v>7681.91309</v>
+      </c>
+      <c r="I98" s="12">
+        <v>822.21343999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -2097,8 +3045,17 @@
       <c r="E99" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G99" s="12">
+        <v>844.54547000000002</v>
+      </c>
+      <c r="H99" s="12">
+        <v>5530.1738299999997</v>
+      </c>
+      <c r="I99" s="12">
+        <v>627.22626000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -2114,8 +3071,17 @@
       <c r="E100" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G100" s="12">
+        <v>344</v>
+      </c>
+      <c r="H100" s="12">
+        <v>6507.8261700000003</v>
+      </c>
+      <c r="I100" s="12">
+        <v>1200.05249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -2131,8 +3097,17 @@
       <c r="E101" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G101" s="12">
+        <v>337.45456000000001</v>
+      </c>
+      <c r="H101" s="12">
+        <v>6356.5219699999998</v>
+      </c>
+      <c r="I101" s="12">
+        <v>713.58849999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -2148,8 +3123,17 @@
       <c r="E102" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G102" s="12">
+        <v>382.72726</v>
+      </c>
+      <c r="H102" s="12">
+        <v>5642.7827100000004</v>
+      </c>
+      <c r="I102" s="12">
+        <v>1209.65479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -2165,8 +3149,17 @@
       <c r="E103" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G103" s="12">
+        <v>389.45456000000001</v>
+      </c>
+      <c r="H103" s="12">
+        <v>7810.08691</v>
+      </c>
+      <c r="I103" s="12">
+        <v>762.41674999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -2182,8 +3175,17 @@
       <c r="E104" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G104" s="12">
+        <v>460.54543999999999</v>
+      </c>
+      <c r="H104" s="12">
+        <v>5894.7827100000004</v>
+      </c>
+      <c r="I104" s="12">
+        <v>865.9425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -2199,8 +3201,17 @@
       <c r="E105" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G105" s="12">
+        <v>491.45456000000001</v>
+      </c>
+      <c r="H105" s="12">
+        <v>6400.5219699999998</v>
+      </c>
+      <c r="I105" s="12">
+        <v>1384.1987300000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -2216,8 +3227,20 @@
       <c r="E106" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="12">
+        <v>434.90908999999999</v>
+      </c>
+      <c r="H106" s="12">
+        <v>7149.0434599999999</v>
+      </c>
+      <c r="I106" s="12">
+        <v>2376.40967</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -2233,8 +3256,17 @@
       <c r="E107" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G107" s="12">
+        <v>237.09091000000001</v>
+      </c>
+      <c r="H107" s="12">
+        <v>8003.1303699999999</v>
+      </c>
+      <c r="I107" s="12">
+        <v>330.53525000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -2250,8 +3282,17 @@
       <c r="E108" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G108" s="12">
+        <v>435.09091000000001</v>
+      </c>
+      <c r="H108" s="12">
+        <v>6592</v>
+      </c>
+      <c r="I108" s="12">
+        <v>2570.7460900000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -2267,8 +3308,17 @@
       <c r="E109" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G109" s="12">
+        <v>566.36365000000001</v>
+      </c>
+      <c r="H109" s="12">
+        <v>6150.6958000000004</v>
+      </c>
+      <c r="I109" s="12">
+        <v>2120.60815</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -2284,8 +3334,17 @@
       <c r="E110" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G110" s="12">
+        <v>285.09091000000001</v>
+      </c>
+      <c r="H110" s="12">
+        <v>7092.5219699999998</v>
+      </c>
+      <c r="I110" s="12">
+        <v>1463.5660399999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -2301,8 +3360,17 @@
       <c r="E111" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G111" s="12">
+        <v>1003.63635</v>
+      </c>
+      <c r="H111" s="12">
+        <v>6194.3476600000004</v>
+      </c>
+      <c r="I111" s="12">
+        <v>421.42313000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -2318,8 +3386,17 @@
       <c r="E112" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G112" s="12">
+        <v>321.45456000000001</v>
+      </c>
+      <c r="H112" s="12">
+        <v>7413.91309</v>
+      </c>
+      <c r="I112" s="12">
+        <v>657.48608000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -2335,8 +3412,17 @@
       <c r="E113" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G113" s="12">
+        <v>894.90912000000003</v>
+      </c>
+      <c r="H113" s="12">
+        <v>5540</v>
+      </c>
+      <c r="I113" s="12">
+        <v>1550.9510499999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -2352,8 +3438,17 @@
       <c r="E114" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G114" s="12">
+        <v>1075.63635</v>
+      </c>
+      <c r="H114" s="12">
+        <v>5965.7392600000003</v>
+      </c>
+      <c r="I114" s="12">
+        <v>992.94470000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -2369,8 +3464,17 @@
       <c r="E115" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G115" s="12">
+        <v>343.45456000000001</v>
+      </c>
+      <c r="H115" s="12">
+        <v>6438.6088900000004</v>
+      </c>
+      <c r="I115" s="12">
+        <v>568.01318000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -2386,8 +3490,17 @@
       <c r="E116" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G116" s="12">
+        <v>1158.36365</v>
+      </c>
+      <c r="H116" s="12">
+        <v>5684.5219699999998</v>
+      </c>
+      <c r="I116" s="12">
+        <v>426.02132999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -2403,8 +3516,17 @@
       <c r="E117" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G117" s="12">
+        <v>406.36365000000001</v>
+      </c>
+      <c r="H117" s="12">
+        <v>6184.3476600000004</v>
+      </c>
+      <c r="I117" s="12">
+        <v>706.01147000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -2420,8 +3542,17 @@
       <c r="E118" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G118" s="12">
+        <v>240</v>
+      </c>
+      <c r="H118" s="12">
+        <v>8275.6523400000005</v>
+      </c>
+      <c r="I118" s="12">
+        <v>453.89654999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -2437,8 +3568,17 @@
       <c r="E119" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G119" s="12">
+        <v>338.18182000000002</v>
+      </c>
+      <c r="H119" s="12">
+        <v>6416.3476600000004</v>
+      </c>
+      <c r="I119" s="12">
+        <v>489.55858999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -2454,8 +3594,17 @@
       <c r="E120" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G120" s="12">
+        <v>173.09091000000001</v>
+      </c>
+      <c r="H120" s="12">
+        <v>8295.1308599999993</v>
+      </c>
+      <c r="I120" s="12">
+        <v>617.20056</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -2471,8 +3620,17 @@
       <c r="E121" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G121" s="12">
+        <v>346.72726</v>
+      </c>
+      <c r="H121" s="12">
+        <v>7082.2607399999997</v>
+      </c>
+      <c r="I121" s="12">
+        <v>753.79314999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -2488,8 +3646,17 @@
       <c r="E122" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G122" s="12">
+        <v>257.63634999999999</v>
+      </c>
+      <c r="H122" s="12">
+        <v>7039.8261700000003</v>
+      </c>
+      <c r="I122" s="12">
+        <v>1355.8347200000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -2505,8 +3672,17 @@
       <c r="E123" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G123" s="12">
+        <v>343.81817999999998</v>
+      </c>
+      <c r="H123" s="12">
+        <v>6542.9565400000001</v>
+      </c>
+      <c r="I123" s="12">
+        <v>800.05298000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -2522,8 +3698,17 @@
       <c r="E124" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G124" s="12">
+        <v>389.63634999999999</v>
+      </c>
+      <c r="H124" s="12">
+        <v>7504.1738299999997</v>
+      </c>
+      <c r="I124" s="12">
+        <v>476.10944000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -2539,8 +3724,17 @@
       <c r="E125" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G125" s="12">
+        <v>245.63637</v>
+      </c>
+      <c r="H125" s="12">
+        <v>7467.8261700000003</v>
+      </c>
+      <c r="I125" s="12">
+        <v>796.66492000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -2556,8 +3750,17 @@
       <c r="E126" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G126" s="12">
+        <v>328.90908999999999</v>
+      </c>
+      <c r="H126" s="12">
+        <v>7349.7392600000003</v>
+      </c>
+      <c r="I126" s="12">
+        <v>528.61077999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -2573,8 +3776,17 @@
       <c r="E127" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G127" s="12">
+        <v>267.45456000000001</v>
+      </c>
+      <c r="H127" s="12">
+        <v>7681.91309</v>
+      </c>
+      <c r="I127" s="12">
+        <v>1161.9451899999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -2590,8 +3802,17 @@
       <c r="E128" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G128" s="12">
+        <v>179.27271999999999</v>
+      </c>
+      <c r="H128" s="12">
+        <v>8120.3476600000004</v>
+      </c>
+      <c r="I128" s="12">
+        <v>540.12219000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -2607,8 +3828,17 @@
       <c r="E129" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G129" s="12">
+        <v>321.27274</v>
+      </c>
+      <c r="H129" s="12">
+        <v>7212</v>
+      </c>
+      <c r="I129" s="12">
+        <v>673.78961000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -2624,8 +3854,17 @@
       <c r="E130" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G130" s="12">
+        <v>322.54543999999999</v>
+      </c>
+      <c r="H130" s="12">
+        <v>7825.5654299999997</v>
+      </c>
+      <c r="I130" s="12">
+        <v>1264.03918</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -2641,8 +3880,17 @@
       <c r="E131" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G131" s="12">
+        <v>234.54545999999999</v>
+      </c>
+      <c r="H131" s="12">
+        <v>7488.1738299999997</v>
+      </c>
+      <c r="I131" s="12">
+        <v>837.74749999999995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -2658,8 +3906,17 @@
       <c r="E132" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G132" s="12">
+        <v>221.63637</v>
+      </c>
+      <c r="H132" s="12">
+        <v>8241.5654300000006</v>
+      </c>
+      <c r="I132" s="12">
+        <v>1292.01575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -2675,8 +3932,17 @@
       <c r="E133" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G133" s="12">
+        <v>433.63634999999999</v>
+      </c>
+      <c r="H133" s="12">
+        <v>7485.5654299999997</v>
+      </c>
+      <c r="I133" s="12">
+        <v>1575.7373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -2692,8 +3958,17 @@
       <c r="E134" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G134" s="12">
+        <v>352.36365000000001</v>
+      </c>
+      <c r="H134" s="12">
+        <v>7569.0434599999999</v>
+      </c>
+      <c r="I134" s="12">
+        <v>932.71820000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -2709,8 +3984,17 @@
       <c r="E135" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G135" s="12">
+        <v>514.36365000000001</v>
+      </c>
+      <c r="H135" s="12">
+        <v>6890.9565400000001</v>
+      </c>
+      <c r="I135" s="12">
+        <v>870.75744999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -2726,8 +4010,17 @@
       <c r="E136" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G136" s="12">
+        <v>294.18182000000002</v>
+      </c>
+      <c r="H136" s="12">
+        <v>6786.9565400000001</v>
+      </c>
+      <c r="I136" s="12">
+        <v>678.80109000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -2743,8 +4036,17 @@
       <c r="E137" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G137" s="12">
+        <v>237.45454000000001</v>
+      </c>
+      <c r="H137" s="12">
+        <v>7783.8261700000003</v>
+      </c>
+      <c r="I137" s="12">
+        <v>661.35724000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -2760,8 +4062,17 @@
       <c r="E138" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G138" s="12">
+        <v>187.27271999999999</v>
+      </c>
+      <c r="H138" s="12">
+        <v>8336.1738299999997</v>
+      </c>
+      <c r="I138" s="12">
+        <v>424.29941000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -2777,8 +4088,17 @@
       <c r="E139" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G139" s="12">
+        <v>480.18182000000002</v>
+      </c>
+      <c r="H139" s="12">
+        <v>6703.6523399999996</v>
+      </c>
+      <c r="I139" s="12">
+        <v>643.11890000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -2794,8 +4114,20 @@
       <c r="E140" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="12">
+        <v>232.54545999999999</v>
+      </c>
+      <c r="H140" s="12">
+        <v>7865.7392600000003</v>
+      </c>
+      <c r="I140" s="12">
+        <v>698.75847999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -2811,8 +4143,17 @@
       <c r="E141" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G141" s="12">
+        <v>358.18182000000002</v>
+      </c>
+      <c r="H141" s="12">
+        <v>6918.4345700000003</v>
+      </c>
+      <c r="I141" s="12">
+        <v>1264.36987</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -2828,8 +4169,17 @@
       <c r="E142" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G142" s="12">
+        <v>406.90908999999999</v>
+      </c>
+      <c r="H142" s="12">
+        <v>7031.1303699999999</v>
+      </c>
+      <c r="I142" s="12">
+        <v>899.85645</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -2845,8 +4195,17 @@
       <c r="E143" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G143" s="12">
+        <v>408.54543999999999</v>
+      </c>
+      <c r="H143" s="12">
+        <v>7034.9565400000001</v>
+      </c>
+      <c r="I143" s="12">
+        <v>687.37653</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -2862,8 +4221,17 @@
       <c r="E144" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G144" s="12">
+        <v>303.63634999999999</v>
+      </c>
+      <c r="H144" s="12">
+        <v>7809.5654299999997</v>
+      </c>
+      <c r="I144" s="12">
+        <v>587.73059000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -2879,8 +4247,20 @@
       <c r="E145" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="12">
+        <v>199.27271999999999</v>
+      </c>
+      <c r="H145" s="12">
+        <v>8183.8261700000003</v>
+      </c>
+      <c r="I145" s="12">
+        <v>476.32290999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -2896,8 +4276,17 @@
       <c r="E146" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G146" s="12">
+        <v>301.63634999999999</v>
+      </c>
+      <c r="H146" s="12">
+        <v>8090.7827100000004</v>
+      </c>
+      <c r="I146" s="12">
+        <v>634.55169999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -2913,8 +4302,17 @@
       <c r="E147" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G147" s="12">
+        <v>311.63634999999999</v>
+      </c>
+      <c r="H147" s="12">
+        <v>7961.7392600000003</v>
+      </c>
+      <c r="I147" s="12">
+        <v>1467.2260699999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -2930,8 +4328,17 @@
       <c r="E148" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G148" s="12">
+        <v>241.27271999999999</v>
+      </c>
+      <c r="H148" s="12">
+        <v>7906.6088900000004</v>
+      </c>
+      <c r="I148" s="12">
+        <v>479.56076000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -2947,8 +4354,20 @@
       <c r="E149" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="12">
+        <v>344.36365000000001</v>
+      </c>
+      <c r="H149" s="12">
+        <v>7956</v>
+      </c>
+      <c r="I149" s="12">
+        <v>322.12572999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -2964,8 +4383,20 @@
       <c r="E150" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="12">
+        <v>294.18182000000002</v>
+      </c>
+      <c r="H150" s="12">
+        <v>8450.6083999999992</v>
+      </c>
+      <c r="I150" s="12">
+        <v>494.04259999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -2981,8 +4412,20 @@
       <c r="E151" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="12">
+        <v>260.36365000000001</v>
+      </c>
+      <c r="H151" s="12">
+        <v>8187.6523399999996</v>
+      </c>
+      <c r="I151" s="12">
+        <v>434.22368999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -2998,8 +4441,17 @@
       <c r="E152" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G152" s="12">
+        <v>296.90908999999999</v>
+      </c>
+      <c r="H152" s="12">
+        <v>7274.2607399999997</v>
+      </c>
+      <c r="I152" s="12">
+        <v>819.79296999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -3015,8 +4467,20 @@
       <c r="E153" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="12">
+        <v>281.45456000000001</v>
+      </c>
+      <c r="H153" s="12">
+        <v>7895.1303699999999</v>
+      </c>
+      <c r="I153" s="12">
+        <v>1882.5828899999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -3032,8 +4496,17 @@
       <c r="E154" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G154" s="12">
+        <v>246.90908999999999</v>
+      </c>
+      <c r="H154" s="12">
+        <v>7980.5219699999998</v>
+      </c>
+      <c r="I154" s="12">
+        <v>876.66747999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -3049,8 +4522,17 @@
       <c r="E155" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G155" s="12">
+        <v>378.18182000000002</v>
+      </c>
+      <c r="H155" s="12">
+        <v>7523.1303699999999</v>
+      </c>
+      <c r="I155" s="12">
+        <v>1146.70886</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -3066,8 +4548,17 @@
       <c r="E156" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G156" s="12">
+        <v>277.63634999999999</v>
+      </c>
+      <c r="H156" s="12">
+        <v>7898.7827100000004</v>
+      </c>
+      <c r="I156" s="12">
+        <v>1420.47864</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -3083,8 +4574,17 @@
       <c r="E157" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G157" s="12">
+        <v>366.36365000000001</v>
+      </c>
+      <c r="H157" s="12">
+        <v>7579.3041999999996</v>
+      </c>
+      <c r="I157" s="12">
+        <v>647.71569999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -3100,8 +4600,17 @@
       <c r="E158" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G158" s="12">
+        <v>281.45456000000001</v>
+      </c>
+      <c r="H158" s="12">
+        <v>7864.8696300000001</v>
+      </c>
+      <c r="I158" s="12">
+        <v>1322.9703400000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -3117,8 +4626,17 @@
       <c r="E159" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G159" s="12">
+        <v>331.27274</v>
+      </c>
+      <c r="H159" s="12">
+        <v>7328.5219699999998</v>
+      </c>
+      <c r="I159" s="12">
+        <v>883.09271000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -3134,8 +4652,17 @@
       <c r="E160" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G160" s="12">
+        <v>416.90908999999999</v>
+      </c>
+      <c r="H160" s="12">
+        <v>7217.91309</v>
+      </c>
+      <c r="I160" s="12">
+        <v>1286.1065699999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -3151,8 +4678,17 @@
       <c r="E161" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G161" s="12">
+        <v>341.63634999999999</v>
+      </c>
+      <c r="H161" s="12">
+        <v>7145.5654299999997</v>
+      </c>
+      <c r="I161" s="12">
+        <v>1612.0972899999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -3168,8 +4704,17 @@
       <c r="E162" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G162" s="12">
+        <v>130.18181999999999</v>
+      </c>
+      <c r="H162" s="12">
+        <v>8112.3476600000004</v>
+      </c>
+      <c r="I162" s="12">
+        <v>841.02704000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -3185,8 +4730,17 @@
       <c r="E163" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G163" s="12">
+        <v>397.45456000000001</v>
+      </c>
+      <c r="H163" s="12">
+        <v>7850.08691</v>
+      </c>
+      <c r="I163" s="12">
+        <v>856.97893999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -3202,8 +4756,17 @@
       <c r="E164" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G164" s="12">
+        <v>388</v>
+      </c>
+      <c r="H164" s="12">
+        <v>6293.3911099999996</v>
+      </c>
+      <c r="I164" s="12">
+        <v>1065.4558099999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -3219,8 +4782,17 @@
       <c r="E165" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G165" s="12">
+        <v>396.54543999999999</v>
+      </c>
+      <c r="H165" s="12">
+        <v>6843.7392600000003</v>
+      </c>
+      <c r="I165" s="12">
+        <v>512.86077999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -3236,8 +4808,17 @@
       <c r="E166" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G166" s="12">
+        <v>187.63637</v>
+      </c>
+      <c r="H166" s="12">
+        <v>8164</v>
+      </c>
+      <c r="I166" s="12">
+        <v>737.92296999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -3253,8 +4834,17 @@
       <c r="E167" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G167" s="12">
+        <v>257.45456000000001</v>
+      </c>
+      <c r="H167" s="12">
+        <v>7579.3041999999996</v>
+      </c>
+      <c r="I167" s="12">
+        <v>974.58032000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -3270,8 +4860,17 @@
       <c r="E168" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G168" s="12">
+        <v>174.54545999999999</v>
+      </c>
+      <c r="H168" s="12">
+        <v>8554.4345699999994</v>
+      </c>
+      <c r="I168" s="12">
+        <v>758.30065999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -3287,8 +4886,17 @@
       <c r="E169" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G169" s="12">
+        <v>228.36363</v>
+      </c>
+      <c r="H169" s="12">
+        <v>7699.1303699999999</v>
+      </c>
+      <c r="I169" s="12">
+        <v>908.14355</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -3304,8 +4912,17 @@
       <c r="E170" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G170" s="12">
+        <v>165.09091000000001</v>
+      </c>
+      <c r="H170" s="12">
+        <v>8632.5214799999994</v>
+      </c>
+      <c r="I170" s="12">
+        <v>541.41076999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -3321,8 +4938,17 @@
       <c r="E171" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G171" s="12">
+        <v>335.45456000000001</v>
+      </c>
+      <c r="H171" s="12">
+        <v>6832.1738299999997</v>
+      </c>
+      <c r="I171" s="12">
+        <v>758.43933000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -3338,8 +4964,17 @@
       <c r="E172" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G172" s="12">
+        <v>228.36363</v>
+      </c>
+      <c r="H172" s="12">
+        <v>8404.5214799999994</v>
+      </c>
+      <c r="I172" s="12">
+        <v>317.14321999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -3355,8 +4990,17 @@
       <c r="E173" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G173" s="12">
+        <v>219.27271999999999</v>
+      </c>
+      <c r="H173" s="12">
+        <v>8430.4345699999994</v>
+      </c>
+      <c r="I173" s="12">
+        <v>272.60714999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -3372,8 +5016,20 @@
       <c r="E174" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F174" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="12">
+        <v>138.54545999999999</v>
+      </c>
+      <c r="H174" s="12">
+        <v>8636.6953099999992</v>
+      </c>
+      <c r="I174" s="12">
+        <v>572.36321999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -3389,8 +5045,17 @@
       <c r="E175" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G175" s="12">
+        <v>218.18181999999999</v>
+      </c>
+      <c r="H175" s="12">
+        <v>8275.4785200000006</v>
+      </c>
+      <c r="I175" s="12">
+        <v>888.28081999999995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -3406,8 +5071,17 @@
       <c r="E176" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G176" s="12">
+        <v>227.63637</v>
+      </c>
+      <c r="H176" s="12">
+        <v>7813.91309</v>
+      </c>
+      <c r="I176" s="12">
+        <v>536.32483000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -3423,8 +5097,17 @@
       <c r="E177" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G177" s="12">
+        <v>493.27274</v>
+      </c>
+      <c r="H177" s="12">
+        <v>5761.0434599999999</v>
+      </c>
+      <c r="I177" s="12">
+        <v>1975.28015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -3440,8 +5123,17 @@
       <c r="E178" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G178" s="12">
+        <v>295.27274</v>
+      </c>
+      <c r="H178" s="12">
+        <v>7837.3911099999996</v>
+      </c>
+      <c r="I178" s="12">
+        <v>344.35991999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -3457,8 +5149,17 @@
       <c r="E179" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G179" s="12">
+        <v>309.09091000000001</v>
+      </c>
+      <c r="H179" s="12">
+        <v>7107.4780300000002</v>
+      </c>
+      <c r="I179" s="12">
+        <v>1011.25153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -3474,8 +5175,17 @@
       <c r="E180" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G180" s="12">
+        <v>369.63634999999999</v>
+      </c>
+      <c r="H180" s="12">
+        <v>6499.6523399999996</v>
+      </c>
+      <c r="I180" s="12">
+        <v>701.14080999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -3491,8 +5201,17 @@
       <c r="E181" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G181" s="12">
+        <v>435.27274</v>
+      </c>
+      <c r="H181" s="12">
+        <v>6677.91309</v>
+      </c>
+      <c r="I181" s="12">
+        <v>1383.2741699999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -3508,8 +5227,17 @@
       <c r="E182" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G182" s="12">
+        <v>347.27274</v>
+      </c>
+      <c r="H182" s="12">
+        <v>5318</v>
+      </c>
+      <c r="I182" s="12">
+        <v>454.29946999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -3525,8 +5253,17 @@
       <c r="E183" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G183" s="12">
+        <v>367.09091000000001</v>
+      </c>
+      <c r="H183" s="12">
+        <v>7318.9565400000001</v>
+      </c>
+      <c r="I183" s="12">
+        <v>600.02368000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -3542,8 +5279,17 @@
       <c r="E184" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G184" s="12">
+        <v>305.09091000000001</v>
+      </c>
+      <c r="H184" s="12">
+        <v>6979.6523399999996</v>
+      </c>
+      <c r="I184" s="12">
+        <v>945.08965999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -3559,8 +5305,17 @@
       <c r="E185" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G185" s="12">
+        <v>368.36365000000001</v>
+      </c>
+      <c r="H185" s="12">
+        <v>5669.1303699999999</v>
+      </c>
+      <c r="I185" s="12">
+        <v>986.70818999999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -3576,8 +5331,17 @@
       <c r="E186" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G186" s="12">
+        <v>328.36365000000001</v>
+      </c>
+      <c r="H186" s="12">
+        <v>5713.7392600000003</v>
+      </c>
+      <c r="I186" s="12">
+        <v>540.45758000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -3593,8 +5357,17 @@
       <c r="E187" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G187" s="12">
+        <v>344.18182000000002</v>
+      </c>
+      <c r="H187" s="12">
+        <v>6154.6088900000004</v>
+      </c>
+      <c r="I187" s="12">
+        <v>541.13726999999994</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -3610,8 +5383,17 @@
       <c r="E188" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G188" s="12">
+        <v>338</v>
+      </c>
+      <c r="H188" s="12">
+        <v>6478.9565400000001</v>
+      </c>
+      <c r="I188" s="12">
+        <v>1023.90613</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -3627,8 +5409,17 @@
       <c r="E189" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G189" s="12">
+        <v>382.54543999999999</v>
+      </c>
+      <c r="H189" s="12">
+        <v>6528</v>
+      </c>
+      <c r="I189" s="12">
+        <v>1364.77576</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>8</v>
       </c>
@@ -3643,6 +5434,15 @@
       </c>
       <c r="E190" s="6">
         <v>3</v>
+      </c>
+      <c r="G190" s="12">
+        <v>360.36365000000001</v>
+      </c>
+      <c r="H190" s="12">
+        <v>7691.8261700000003</v>
+      </c>
+      <c r="I190" s="12">
+        <v>1026.60645</v>
       </c>
     </row>
   </sheetData>

--- a/data input/Station_data.xlsx
+++ b/data input/Station_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="16">
   <si>
     <t>Days</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Struc_250</t>
+  </si>
+  <si>
+    <t>Unprotected</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,10 +439,9 @@
     <col min="3" max="3" width="9.54296875" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="13.08984375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -462,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>14</v>
@@ -487,14 +489,17 @@
       <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="12">
-        <v>170.18181999999999</v>
-      </c>
-      <c r="H2" s="12">
-        <v>8027.1303699999999</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2134.0107400000002</v>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11">
+        <v>8027</v>
+      </c>
+      <c r="H2" s="11">
+        <v>170</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2134</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -513,14 +518,17 @@
       <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="12">
-        <v>260.36365000000001</v>
-      </c>
-      <c r="H3" s="12">
-        <v>6237.7392600000003</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1154.3112799999999</v>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11">
+        <v>6237</v>
+      </c>
+      <c r="H3" s="11">
+        <v>260</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -539,14 +547,17 @@
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7559</v>
+      </c>
+      <c r="H4" s="11">
         <v>340</v>
       </c>
-      <c r="H4" s="12">
-        <v>7559.4780300000002</v>
-      </c>
-      <c r="I4" s="12">
-        <v>2190.5729999999999</v>
+      <c r="I4" s="11">
+        <v>2190</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -565,14 +576,17 @@
       <c r="E5" s="6">
         <v>15</v>
       </c>
-      <c r="G5" s="12">
-        <v>381.63634999999999</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7009.0434599999999</v>
-      </c>
-      <c r="I5" s="12">
-        <v>489.07204999999999</v>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>7009</v>
+      </c>
+      <c r="H5" s="11">
+        <v>381</v>
+      </c>
+      <c r="I5" s="11">
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -591,14 +605,17 @@
       <c r="E6" s="6">
         <v>15</v>
       </c>
-      <c r="G6" s="12">
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11">
+        <v>6118</v>
+      </c>
+      <c r="H6" s="11">
         <v>278</v>
       </c>
-      <c r="H6" s="12">
-        <v>6118.9565400000001</v>
-      </c>
-      <c r="I6" s="12">
-        <v>80.637829999999994</v>
+      <c r="I6" s="11">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -617,14 +634,17 @@
       <c r="E7" s="6">
         <v>15</v>
       </c>
-      <c r="G7" s="12">
-        <v>478.18182000000002</v>
-      </c>
-      <c r="H7" s="12">
-        <v>6173.4780300000002</v>
-      </c>
-      <c r="I7" s="12">
-        <v>351.38094999999998</v>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11">
+        <v>6173</v>
+      </c>
+      <c r="H7" s="11">
+        <v>478</v>
+      </c>
+      <c r="I7" s="11">
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -643,14 +663,17 @@
       <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="12">
-        <v>309.27274</v>
-      </c>
-      <c r="H8" s="12">
-        <v>6132.1738299999997</v>
-      </c>
-      <c r="I8" s="12">
-        <v>829.60668999999996</v>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>6132</v>
+      </c>
+      <c r="H8" s="11">
+        <v>309</v>
+      </c>
+      <c r="I8" s="11">
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -669,14 +692,17 @@
       <c r="E9" s="6">
         <v>15</v>
       </c>
-      <c r="G9" s="12">
-        <v>325.27274</v>
-      </c>
-      <c r="H9" s="12">
-        <v>6684.6958000000004</v>
-      </c>
-      <c r="I9" s="12">
-        <v>268.62331999999998</v>
+      <c r="F9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11">
+        <v>6684</v>
+      </c>
+      <c r="H9" s="11">
+        <v>325</v>
+      </c>
+      <c r="I9" s="11">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -695,14 +721,17 @@
       <c r="E10" s="6">
         <v>15</v>
       </c>
-      <c r="G10" s="12">
-        <v>291.45456000000001</v>
-      </c>
-      <c r="H10" s="12">
-        <v>6765.0434599999999</v>
-      </c>
-      <c r="I10" s="12">
-        <v>605.81226000000004</v>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6765</v>
+      </c>
+      <c r="H10" s="11">
+        <v>291</v>
+      </c>
+      <c r="I10" s="11">
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -721,14 +750,17 @@
       <c r="E11" s="6">
         <v>15</v>
       </c>
-      <c r="G11" s="12">
-        <v>226.54545999999999</v>
-      </c>
-      <c r="H11" s="12">
-        <v>6645.91309</v>
-      </c>
-      <c r="I11" s="12">
-        <v>408.10888999999997</v>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6645</v>
+      </c>
+      <c r="H11" s="11">
+        <v>226</v>
+      </c>
+      <c r="I11" s="11">
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -747,14 +779,17 @@
       <c r="E12" s="6">
         <v>15</v>
       </c>
-      <c r="G12" s="12">
-        <v>281.81817999999998</v>
-      </c>
-      <c r="H12" s="12">
-        <v>6605.5654299999997</v>
-      </c>
-      <c r="I12" s="12">
-        <v>434.83575000000002</v>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="11">
+        <v>6605</v>
+      </c>
+      <c r="H12" s="11">
+        <v>281</v>
+      </c>
+      <c r="I12" s="11">
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -773,14 +808,17 @@
       <c r="E13" s="6">
         <v>15</v>
       </c>
-      <c r="G13" s="12">
-        <v>291.09091000000001</v>
-      </c>
-      <c r="H13" s="12">
-        <v>6554.2607399999997</v>
-      </c>
-      <c r="I13" s="12">
-        <v>731.82483000000002</v>
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11">
+        <v>6554</v>
+      </c>
+      <c r="H13" s="11">
+        <v>291</v>
+      </c>
+      <c r="I13" s="11">
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -799,14 +837,17 @@
       <c r="E14" s="6">
         <v>15</v>
       </c>
-      <c r="G14" s="12">
+      <c r="F14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="11">
+        <v>6020</v>
+      </c>
+      <c r="H14" s="11">
         <v>236</v>
       </c>
-      <c r="H14" s="12">
-        <v>6020.3476600000004</v>
-      </c>
-      <c r="I14" s="12">
-        <v>498.87894</v>
+      <c r="I14" s="11">
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -825,14 +866,17 @@
       <c r="E15" s="6">
         <v>15</v>
       </c>
-      <c r="G15" s="12">
-        <v>226.18181999999999</v>
-      </c>
-      <c r="H15" s="12">
-        <v>6659.6523399999996</v>
-      </c>
-      <c r="I15" s="12">
-        <v>536.24359000000004</v>
+      <c r="F15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="11">
+        <v>6659</v>
+      </c>
+      <c r="H15" s="11">
+        <v>226</v>
+      </c>
+      <c r="I15" s="11">
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -851,14 +895,17 @@
       <c r="E16" s="6">
         <v>15</v>
       </c>
-      <c r="G16" s="12">
-        <v>298.54543999999999</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11">
         <v>6128</v>
       </c>
-      <c r="I16" s="12">
-        <v>807.21564000000001</v>
+      <c r="H16" s="11">
+        <v>298</v>
+      </c>
+      <c r="I16" s="11">
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -877,14 +924,17 @@
       <c r="E17" s="6">
         <v>15</v>
       </c>
-      <c r="G17" s="12">
-        <v>367.63634999999999</v>
-      </c>
-      <c r="H17" s="12">
-        <v>5882.4345700000003</v>
-      </c>
-      <c r="I17" s="12">
-        <v>297.77773999999999</v>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5882</v>
+      </c>
+      <c r="H17" s="11">
+        <v>367</v>
+      </c>
+      <c r="I17" s="11">
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -903,14 +953,17 @@
       <c r="E18" s="6">
         <v>15</v>
       </c>
-      <c r="G18" s="12">
-        <v>308.54543999999999</v>
-      </c>
-      <c r="H18" s="12">
-        <v>6065.7392600000003</v>
-      </c>
-      <c r="I18" s="12">
-        <v>230.33131</v>
+      <c r="F18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6065</v>
+      </c>
+      <c r="H18" s="11">
+        <v>308</v>
+      </c>
+      <c r="I18" s="11">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -929,14 +982,17 @@
       <c r="E19" s="6">
         <v>12</v>
       </c>
-      <c r="G19" s="12">
-        <v>256.54543999999999</v>
-      </c>
-      <c r="H19" s="12">
-        <v>6189.3911099999996</v>
-      </c>
-      <c r="I19" s="12">
-        <v>612.43651999999997</v>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11">
+        <v>6189</v>
+      </c>
+      <c r="H19" s="11">
+        <v>256</v>
+      </c>
+      <c r="I19" s="11">
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -955,14 +1011,17 @@
       <c r="E20" s="6">
         <v>15</v>
       </c>
-      <c r="G20" s="12">
-        <v>271.27274</v>
-      </c>
-      <c r="H20" s="12">
-        <v>6663.4780300000002</v>
-      </c>
-      <c r="I20" s="12">
-        <v>592.95074</v>
+      <c r="F20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="11">
+        <v>6663</v>
+      </c>
+      <c r="H20" s="11">
+        <v>271</v>
+      </c>
+      <c r="I20" s="11">
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -981,14 +1040,17 @@
       <c r="E21" s="6">
         <v>12</v>
       </c>
-      <c r="G21" s="12">
-        <v>287.09091000000001</v>
-      </c>
-      <c r="H21" s="12">
-        <v>6388.5219699999998</v>
-      </c>
-      <c r="I21" s="12">
-        <v>1593.5798299999999</v>
+      <c r="F21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="11">
+        <v>6388</v>
+      </c>
+      <c r="H21" s="11">
+        <v>287</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1593</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1007,14 +1069,17 @@
       <c r="E22" s="6">
         <v>15</v>
       </c>
-      <c r="G22" s="12">
-        <v>298.90908999999999</v>
-      </c>
-      <c r="H22" s="12">
-        <v>6352.5219699999998</v>
-      </c>
-      <c r="I22" s="12">
-        <v>816.30182000000002</v>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="11">
+        <v>6352</v>
+      </c>
+      <c r="H22" s="11">
+        <v>298</v>
+      </c>
+      <c r="I22" s="11">
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1033,14 +1098,17 @@
       <c r="E23" s="6">
         <v>15</v>
       </c>
-      <c r="G23" s="12">
-        <v>331.81817999999998</v>
-      </c>
-      <c r="H23" s="12">
-        <v>5961.7392600000003</v>
-      </c>
-      <c r="I23" s="12">
-        <v>299.55765000000002</v>
+      <c r="F23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="11">
+        <v>5961</v>
+      </c>
+      <c r="H23" s="11">
+        <v>331</v>
+      </c>
+      <c r="I23" s="11">
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1059,14 +1127,17 @@
       <c r="E24" s="6">
         <v>15</v>
       </c>
-      <c r="G24" s="12">
-        <v>208.90908999999999</v>
-      </c>
-      <c r="H24" s="12">
-        <v>6504.5219699999998</v>
-      </c>
-      <c r="I24" s="12">
-        <v>774.5249</v>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="11">
+        <v>6504</v>
+      </c>
+      <c r="H24" s="11">
+        <v>208</v>
+      </c>
+      <c r="I24" s="11">
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1085,14 +1156,17 @@
       <c r="E25" s="6">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
-        <v>190.72728000000001</v>
-      </c>
-      <c r="H25" s="12">
-        <v>7154.9565400000001</v>
-      </c>
-      <c r="I25" s="12">
-        <v>978.65044999999998</v>
+      <c r="F25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="11">
+        <v>7154</v>
+      </c>
+      <c r="H25" s="11">
+        <v>190</v>
+      </c>
+      <c r="I25" s="11">
+        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1114,14 +1188,14 @@
       <c r="F26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="12">
-        <v>206.18181999999999</v>
-      </c>
-      <c r="H26" s="12">
-        <v>6614.9565400000001</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1172.66956</v>
+      <c r="G26" s="11">
+        <v>6614</v>
+      </c>
+      <c r="H26" s="11">
+        <v>206</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1172</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1140,14 +1214,17 @@
       <c r="E27" s="6">
         <v>15</v>
       </c>
-      <c r="G27" s="12">
-        <v>393.45456000000001</v>
-      </c>
-      <c r="H27" s="12">
-        <v>6632.1738299999997</v>
-      </c>
-      <c r="I27" s="12">
-        <v>1265.15112</v>
+      <c r="F27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="11">
+        <v>6632</v>
+      </c>
+      <c r="H27" s="11">
+        <v>393</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1265</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1166,14 +1243,17 @@
       <c r="E28" s="6">
         <v>12</v>
       </c>
-      <c r="G28" s="12">
-        <v>233.09091000000001</v>
-      </c>
-      <c r="H28" s="12">
-        <v>6847.4780300000002</v>
-      </c>
-      <c r="I28" s="12">
-        <v>1236.7529300000001</v>
+      <c r="F28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="11">
+        <v>6847</v>
+      </c>
+      <c r="H28" s="11">
+        <v>233</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1236</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1192,14 +1272,17 @@
       <c r="E29" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="12">
-        <v>231.81818000000001</v>
-      </c>
-      <c r="H29" s="12">
-        <v>7819.8261700000003</v>
-      </c>
-      <c r="I29" s="12">
-        <v>1157.7755099999999</v>
+      <c r="F29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="11">
+        <v>7819</v>
+      </c>
+      <c r="H29" s="11">
+        <v>231</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1218,14 +1301,17 @@
       <c r="E30" s="6">
         <v>3</v>
       </c>
-      <c r="G30" s="12">
-        <v>237.45454000000001</v>
-      </c>
-      <c r="H30" s="12">
-        <v>6653.0434599999999</v>
-      </c>
-      <c r="I30" s="12">
-        <v>1172.5183099999999</v>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11">
+        <v>6653</v>
+      </c>
+      <c r="H30" s="11">
+        <v>237</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1172</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1244,14 +1330,17 @@
       <c r="E31" s="6">
         <v>12</v>
       </c>
-      <c r="G31" s="12">
-        <v>253.63637</v>
-      </c>
-      <c r="H31" s="12">
-        <v>5957.2172899999996</v>
-      </c>
-      <c r="I31" s="12">
-        <v>392.39224000000002</v>
+      <c r="F31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="11">
+        <v>5957</v>
+      </c>
+      <c r="H31" s="11">
+        <v>253</v>
+      </c>
+      <c r="I31" s="11">
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1270,14 +1359,17 @@
       <c r="E32" s="6">
         <v>15</v>
       </c>
-      <c r="G32" s="12">
-        <v>480.36365000000001</v>
-      </c>
-      <c r="H32" s="12">
-        <v>6295.4780300000002</v>
-      </c>
-      <c r="I32" s="12">
-        <v>864.53899999999999</v>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11">
+        <v>6295</v>
+      </c>
+      <c r="H32" s="11">
+        <v>480</v>
+      </c>
+      <c r="I32" s="11">
+        <v>864</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1296,14 +1388,17 @@
       <c r="E33" s="6">
         <v>4</v>
       </c>
-      <c r="G33" s="12">
-        <v>212.18181999999999</v>
-      </c>
-      <c r="H33" s="12">
-        <v>7934.6088900000004</v>
-      </c>
-      <c r="I33" s="12">
-        <v>1465.55664</v>
+      <c r="F33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="11">
+        <v>7934</v>
+      </c>
+      <c r="H33" s="11">
+        <v>212</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1465</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1325,14 +1420,14 @@
       <c r="F34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="12">
-        <v>152.36363</v>
-      </c>
-      <c r="H34" s="12">
-        <v>8796.5214799999994</v>
-      </c>
-      <c r="I34" s="12">
-        <v>111.62654000000001</v>
+      <c r="G34" s="11">
+        <v>8796</v>
+      </c>
+      <c r="H34" s="11">
+        <v>152</v>
+      </c>
+      <c r="I34" s="11">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1351,14 +1446,17 @@
       <c r="E35" s="6">
         <v>4</v>
       </c>
-      <c r="G35" s="12">
-        <v>343.63634999999999</v>
-      </c>
-      <c r="H35" s="12">
-        <v>7775.8261700000003</v>
-      </c>
-      <c r="I35" s="12">
-        <v>1514.6711399999999</v>
+      <c r="F35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="11">
+        <v>7775</v>
+      </c>
+      <c r="H35" s="11">
+        <v>343</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1514</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1377,14 +1475,17 @@
       <c r="E36" s="6">
         <v>15</v>
       </c>
-      <c r="G36" s="12">
+      <c r="F36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="11">
+        <v>7583</v>
+      </c>
+      <c r="H36" s="11">
         <v>218</v>
       </c>
-      <c r="H36" s="12">
-        <v>7583.6523399999996</v>
-      </c>
-      <c r="I36" s="12">
-        <v>2001.5347899999999</v>
+      <c r="I36" s="11">
+        <v>2001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1403,14 +1504,17 @@
       <c r="E37" s="6">
         <v>15</v>
       </c>
-      <c r="G37" s="12">
-        <v>359.09091000000001</v>
-      </c>
-      <c r="H37" s="12">
-        <v>6455.1303699999999</v>
-      </c>
-      <c r="I37" s="12">
-        <v>196.78496000000001</v>
+      <c r="F37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="11">
+        <v>6455</v>
+      </c>
+      <c r="H37" s="11">
+        <v>359</v>
+      </c>
+      <c r="I37" s="11">
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1432,14 +1536,14 @@
       <c r="F38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="12">
-        <v>186.18181999999999</v>
-      </c>
-      <c r="H38" s="12">
-        <v>8425.3916000000008</v>
-      </c>
-      <c r="I38" s="12">
-        <v>924.64837999999997</v>
+      <c r="G38" s="11">
+        <v>8425</v>
+      </c>
+      <c r="H38" s="11">
+        <v>186</v>
+      </c>
+      <c r="I38" s="11">
+        <v>924</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1458,14 +1562,17 @@
       <c r="E39" s="6">
         <v>15</v>
       </c>
-      <c r="G39" s="12">
-        <v>415.63634999999999</v>
-      </c>
-      <c r="H39" s="12">
-        <v>5740.5219699999998</v>
-      </c>
-      <c r="I39" s="12">
-        <v>255.47198</v>
+      <c r="F39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="11">
+        <v>5740</v>
+      </c>
+      <c r="H39" s="11">
+        <v>415</v>
+      </c>
+      <c r="I39" s="11">
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1487,14 +1594,14 @@
       <c r="F40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="12">
-        <v>357.09091000000001</v>
-      </c>
-      <c r="H40" s="12">
-        <v>7131.8261700000003</v>
-      </c>
-      <c r="I40" s="12">
-        <v>960.24437999999998</v>
+      <c r="G40" s="11">
+        <v>7131</v>
+      </c>
+      <c r="H40" s="11">
+        <v>357</v>
+      </c>
+      <c r="I40" s="11">
+        <v>960</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1513,14 +1620,17 @@
       <c r="E41" s="6">
         <v>3</v>
       </c>
-      <c r="G41" s="12">
-        <v>347.63634999999999</v>
-      </c>
-      <c r="H41" s="12">
-        <v>6566.2607399999997</v>
-      </c>
-      <c r="I41" s="12">
-        <v>1115.3449700000001</v>
+      <c r="F41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="11">
+        <v>6566</v>
+      </c>
+      <c r="H41" s="11">
+        <v>347</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1115</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1539,14 +1649,17 @@
       <c r="E42" s="6">
         <v>15</v>
       </c>
-      <c r="G42" s="12">
-        <v>333.81817999999998</v>
-      </c>
-      <c r="H42" s="12">
-        <v>6573.5654299999997</v>
-      </c>
-      <c r="I42" s="12">
-        <v>1144.9204099999999</v>
+      <c r="F42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="11">
+        <v>6573</v>
+      </c>
+      <c r="H42" s="11">
+        <v>333</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1144</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1565,14 +1678,17 @@
       <c r="E43" s="6">
         <v>15</v>
       </c>
-      <c r="G43" s="12">
-        <v>264.36365000000001</v>
-      </c>
-      <c r="H43" s="12">
-        <v>5618.08691</v>
-      </c>
-      <c r="I43" s="12">
-        <v>266.83983999999998</v>
+      <c r="F43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="11">
+        <v>5618</v>
+      </c>
+      <c r="H43" s="11">
+        <v>264</v>
+      </c>
+      <c r="I43" s="11">
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1594,14 +1710,14 @@
       <c r="F44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="12">
-        <v>401.63634999999999</v>
-      </c>
-      <c r="H44" s="12">
-        <v>6676.5219699999998</v>
-      </c>
-      <c r="I44" s="12">
-        <v>1790.9188200000001</v>
+      <c r="G44" s="11">
+        <v>6676</v>
+      </c>
+      <c r="H44" s="11">
+        <v>401</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1790</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1620,14 +1736,17 @@
       <c r="E45" s="6">
         <v>3</v>
       </c>
-      <c r="G45" s="12">
-        <v>340.90908999999999</v>
-      </c>
-      <c r="H45" s="12">
-        <v>6821.0434599999999</v>
-      </c>
-      <c r="I45" s="12">
-        <v>1358.7438999999999</v>
+      <c r="F45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="11">
+        <v>6821</v>
+      </c>
+      <c r="H45" s="11">
+        <v>340</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1358</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1646,14 +1765,17 @@
       <c r="E46" s="6">
         <v>15</v>
       </c>
-      <c r="G46" s="12">
-        <v>270.18182000000002</v>
-      </c>
-      <c r="H46" s="12">
-        <v>5714.08691</v>
-      </c>
-      <c r="I46" s="12">
-        <v>202.00636</v>
+      <c r="F46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="11">
+        <v>5714</v>
+      </c>
+      <c r="H46" s="11">
+        <v>270</v>
+      </c>
+      <c r="I46" s="11">
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1672,14 +1794,17 @@
       <c r="E47" s="6">
         <v>15</v>
       </c>
-      <c r="G47" s="12">
-        <v>322.54543999999999</v>
-      </c>
-      <c r="H47" s="12">
-        <v>5739.4780300000002</v>
-      </c>
-      <c r="I47" s="12">
-        <v>424.09298999999999</v>
+      <c r="F47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="11">
+        <v>5739</v>
+      </c>
+      <c r="H47" s="11">
+        <v>322</v>
+      </c>
+      <c r="I47" s="11">
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1698,14 +1823,17 @@
       <c r="E48" s="6">
         <v>15</v>
       </c>
-      <c r="G48" s="12">
-        <v>419.81817999999998</v>
-      </c>
-      <c r="H48" s="12">
-        <v>5755.8261700000003</v>
-      </c>
-      <c r="I48" s="12">
-        <v>234.06451000000001</v>
+      <c r="F48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="11">
+        <v>5755</v>
+      </c>
+      <c r="H48" s="11">
+        <v>419</v>
+      </c>
+      <c r="I48" s="11">
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1724,14 +1852,17 @@
       <c r="E49" s="6">
         <v>15</v>
       </c>
-      <c r="G49" s="12">
-        <v>303.27274</v>
-      </c>
-      <c r="H49" s="12">
-        <v>5451.8261700000003</v>
-      </c>
-      <c r="I49" s="12">
-        <v>167.12225000000001</v>
+      <c r="F49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="11">
+        <v>5451</v>
+      </c>
+      <c r="H49" s="11">
+        <v>303</v>
+      </c>
+      <c r="I49" s="11">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1750,14 +1881,17 @@
       <c r="E50" s="6">
         <v>15</v>
       </c>
-      <c r="G50" s="12">
+      <c r="F50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="11">
+        <v>7089</v>
+      </c>
+      <c r="H50" s="11">
         <v>264</v>
       </c>
-      <c r="H50" s="12">
-        <v>7089.7392600000003</v>
-      </c>
-      <c r="I50" s="12">
-        <v>1334.7529300000001</v>
+      <c r="I50" s="11">
+        <v>1334</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1776,14 +1910,17 @@
       <c r="E51" s="6">
         <v>15</v>
       </c>
-      <c r="G51" s="12">
-        <v>390.90908999999999</v>
-      </c>
-      <c r="H51" s="12">
-        <v>7440.6958000000004</v>
-      </c>
-      <c r="I51" s="12">
-        <v>1375.9235799999999</v>
+      <c r="F51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="11">
+        <v>7440</v>
+      </c>
+      <c r="H51" s="11">
+        <v>390</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1375</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -1802,14 +1939,17 @@
       <c r="E52" s="6">
         <v>15</v>
       </c>
-      <c r="G52" s="12">
-        <v>244.90908999999999</v>
-      </c>
-      <c r="H52" s="12">
-        <v>6425.91309</v>
-      </c>
-      <c r="I52" s="12">
-        <v>1673.2154499999999</v>
+      <c r="F52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="11">
+        <v>6425</v>
+      </c>
+      <c r="H52" s="11">
+        <v>244</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1673</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -1828,14 +1968,17 @@
       <c r="E53" s="6">
         <v>15</v>
       </c>
-      <c r="G53" s="12">
+      <c r="F53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="11">
+        <v>5392</v>
+      </c>
+      <c r="H53" s="11">
         <v>208</v>
       </c>
-      <c r="H53" s="12">
-        <v>5392</v>
-      </c>
-      <c r="I53" s="12">
-        <v>125.31097</v>
+      <c r="I53" s="11">
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -1854,14 +1997,17 @@
       <c r="E54" s="6">
         <v>39</v>
       </c>
-      <c r="G54" s="12">
-        <v>472.18182000000002</v>
-      </c>
-      <c r="H54" s="12">
-        <v>7364.1738299999997</v>
-      </c>
-      <c r="I54" s="12">
-        <v>600.55371000000002</v>
+      <c r="F54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="11">
+        <v>7364</v>
+      </c>
+      <c r="H54" s="11">
+        <v>472</v>
+      </c>
+      <c r="I54" s="11">
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -1880,14 +2026,17 @@
       <c r="E55" s="6">
         <v>15</v>
       </c>
-      <c r="G55" s="12">
-        <v>521.09087999999997</v>
-      </c>
-      <c r="H55" s="12">
-        <v>6358.6088900000004</v>
-      </c>
-      <c r="I55" s="12">
-        <v>964.18262000000004</v>
+      <c r="F55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="11">
+        <v>6358</v>
+      </c>
+      <c r="H55" s="11">
+        <v>521</v>
+      </c>
+      <c r="I55" s="11">
+        <v>964</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -1906,14 +2055,17 @@
       <c r="E56" s="6">
         <v>3</v>
       </c>
-      <c r="G56" s="12">
-        <v>454.18182000000002</v>
-      </c>
-      <c r="H56" s="12">
-        <v>6270.6088900000004</v>
-      </c>
-      <c r="I56" s="12">
-        <v>1379.57251</v>
+      <c r="F56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6270</v>
+      </c>
+      <c r="H56" s="11">
+        <v>454</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1379</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -1932,14 +2084,17 @@
       <c r="E57" s="6">
         <v>3</v>
       </c>
-      <c r="G57" s="12">
-        <v>152.36363</v>
-      </c>
-      <c r="H57" s="12">
-        <v>8206.6083999999992</v>
-      </c>
-      <c r="I57" s="12">
-        <v>1694.4133300000001</v>
+      <c r="F57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="11">
+        <v>8206</v>
+      </c>
+      <c r="H57" s="11">
+        <v>152</v>
+      </c>
+      <c r="I57" s="11">
+        <v>1694</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -1958,14 +2113,17 @@
       <c r="E58" s="6">
         <v>3</v>
       </c>
-      <c r="G58" s="12">
-        <v>296.54543999999999</v>
-      </c>
-      <c r="H58" s="12">
-        <v>7309.91309</v>
-      </c>
-      <c r="I58" s="12">
-        <v>917.63196000000005</v>
+      <c r="F58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="11">
+        <v>7309</v>
+      </c>
+      <c r="H58" s="11">
+        <v>296</v>
+      </c>
+      <c r="I58" s="11">
+        <v>917</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -1984,14 +2142,17 @@
       <c r="E59" s="6">
         <v>39</v>
       </c>
-      <c r="G59" s="12">
-        <v>779.63634999999999</v>
-      </c>
-      <c r="H59" s="12">
-        <v>6574.6958000000004</v>
-      </c>
-      <c r="I59" s="12">
-        <v>1115.3023700000001</v>
+      <c r="F59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="11">
+        <v>6574</v>
+      </c>
+      <c r="H59" s="11">
+        <v>779</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1115</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2010,14 +2171,17 @@
       <c r="E60" s="6">
         <v>15</v>
       </c>
-      <c r="G60" s="12">
-        <v>331.09091000000001</v>
-      </c>
-      <c r="H60" s="12">
-        <v>6744.5219699999998</v>
-      </c>
-      <c r="I60" s="12">
-        <v>417.23181</v>
+      <c r="F60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="11">
+        <v>6744</v>
+      </c>
+      <c r="H60" s="11">
+        <v>331</v>
+      </c>
+      <c r="I60" s="11">
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2036,14 +2200,17 @@
       <c r="E61" s="6">
         <v>3</v>
       </c>
-      <c r="G61" s="12">
-        <v>198.54545999999999</v>
-      </c>
-      <c r="H61" s="12">
-        <v>7957.3911099999996</v>
-      </c>
-      <c r="I61" s="12">
-        <v>609.995</v>
+      <c r="F61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="11">
+        <v>7957</v>
+      </c>
+      <c r="H61" s="11">
+        <v>198</v>
+      </c>
+      <c r="I61" s="11">
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2062,14 +2229,17 @@
       <c r="E62" s="6">
         <v>39</v>
       </c>
-      <c r="G62" s="12">
+      <c r="F62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="11">
+        <v>6003</v>
+      </c>
+      <c r="H62" s="11">
         <v>880</v>
       </c>
-      <c r="H62" s="12">
-        <v>6003.1303699999999</v>
-      </c>
-      <c r="I62" s="12">
-        <v>649.49456999999995</v>
+      <c r="I62" s="11">
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2088,14 +2258,17 @@
       <c r="E63" s="6">
         <v>3</v>
       </c>
-      <c r="G63" s="12">
-        <v>186.72728000000001</v>
-      </c>
-      <c r="H63" s="12">
-        <v>8065.3911099999996</v>
-      </c>
-      <c r="I63" s="12">
-        <v>899.69115999999997</v>
+      <c r="F63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="11">
+        <v>8065</v>
+      </c>
+      <c r="H63" s="11">
+        <v>186</v>
+      </c>
+      <c r="I63" s="11">
+        <v>899</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2114,14 +2287,17 @@
       <c r="E64" s="6">
         <v>4</v>
       </c>
-      <c r="G64" s="12">
-        <v>678.18182000000002</v>
-      </c>
-      <c r="H64" s="12">
-        <v>6354.4345700000003</v>
-      </c>
-      <c r="I64" s="12">
-        <v>1331.9259</v>
+      <c r="F64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="11">
+        <v>6354</v>
+      </c>
+      <c r="H64" s="11">
+        <v>678</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1331</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2140,14 +2316,17 @@
       <c r="E65" s="6">
         <v>4</v>
       </c>
-      <c r="G65" s="12">
-        <v>204.72728000000001</v>
-      </c>
-      <c r="H65" s="12">
-        <v>8028.1738299999997</v>
-      </c>
-      <c r="I65" s="12">
-        <v>975.85253999999998</v>
+      <c r="F65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="11">
+        <v>8028</v>
+      </c>
+      <c r="H65" s="11">
+        <v>204</v>
+      </c>
+      <c r="I65" s="11">
+        <v>975</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2166,14 +2345,17 @@
       <c r="E66" s="6">
         <v>3</v>
       </c>
-      <c r="G66" s="12">
-        <v>212.18181999999999</v>
-      </c>
-      <c r="H66" s="12">
-        <v>7894.6088900000004</v>
-      </c>
-      <c r="I66" s="12">
-        <v>993.26495</v>
+      <c r="F66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="11">
+        <v>7894</v>
+      </c>
+      <c r="H66" s="11">
+        <v>212</v>
+      </c>
+      <c r="I66" s="11">
+        <v>993</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2195,14 +2377,14 @@
       <c r="F67" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="12">
-        <v>212.36363</v>
-      </c>
-      <c r="H67" s="12">
-        <v>7502.4345700000003</v>
-      </c>
-      <c r="I67" s="12">
-        <v>1672.80762</v>
+      <c r="G67" s="11">
+        <v>7502</v>
+      </c>
+      <c r="H67" s="11">
+        <v>212</v>
+      </c>
+      <c r="I67" s="11">
+        <v>1672</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2224,14 +2406,14 @@
       <c r="F68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
+        <v>8234</v>
+      </c>
+      <c r="H68" s="11">
         <v>236</v>
       </c>
-      <c r="H68" s="12">
-        <v>8234.08691</v>
-      </c>
-      <c r="I68" s="12">
-        <v>458.52956999999998</v>
+      <c r="I68" s="11">
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2250,14 +2432,17 @@
       <c r="E69" s="6">
         <v>15</v>
       </c>
-      <c r="G69" s="12">
-        <v>329.63634999999999</v>
-      </c>
-      <c r="H69" s="12">
-        <v>6314.6088900000004</v>
-      </c>
-      <c r="I69" s="12">
-        <v>1109.59167</v>
+      <c r="F69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="11">
+        <v>6314</v>
+      </c>
+      <c r="H69" s="11">
+        <v>329</v>
+      </c>
+      <c r="I69" s="11">
+        <v>1109</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2279,14 +2464,14 @@
       <c r="F70" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="12">
-        <v>268.18182000000002</v>
-      </c>
-      <c r="H70" s="12">
-        <v>7689.7392600000003</v>
-      </c>
-      <c r="I70" s="12">
-        <v>671.35229000000004</v>
+      <c r="G70" s="11">
+        <v>7689</v>
+      </c>
+      <c r="H70" s="11">
+        <v>268</v>
+      </c>
+      <c r="I70" s="11">
+        <v>671</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2308,14 +2493,14 @@
       <c r="F71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="12">
-        <v>294.90908999999999</v>
-      </c>
-      <c r="H71" s="12">
-        <v>7058.6088900000004</v>
-      </c>
-      <c r="I71" s="12">
-        <v>1654.5393099999999</v>
+      <c r="G71" s="11">
+        <v>7058</v>
+      </c>
+      <c r="H71" s="11">
+        <v>294</v>
+      </c>
+      <c r="I71" s="11">
+        <v>1654</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2334,14 +2519,17 @@
       <c r="E72" s="6">
         <v>3</v>
       </c>
-      <c r="G72" s="12">
-        <v>426.90908999999999</v>
-      </c>
-      <c r="H72" s="12">
-        <v>7516.6958000000004</v>
-      </c>
-      <c r="I72" s="12">
-        <v>1092.58887</v>
+      <c r="F72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="11">
+        <v>7516</v>
+      </c>
+      <c r="H72" s="11">
+        <v>426</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1092</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2360,14 +2548,17 @@
       <c r="E73" s="6">
         <v>3</v>
       </c>
-      <c r="G73" s="12">
-        <v>632.27270999999996</v>
-      </c>
-      <c r="H73" s="12">
-        <v>6512.7827100000004</v>
-      </c>
-      <c r="I73" s="12">
-        <v>1611.0111099999999</v>
+      <c r="F73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="11">
+        <v>6512</v>
+      </c>
+      <c r="H73" s="11">
+        <v>632</v>
+      </c>
+      <c r="I73" s="11">
+        <v>1611</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2386,14 +2577,17 @@
       <c r="E74" s="6">
         <v>3</v>
       </c>
-      <c r="G74" s="12">
-        <v>304.72726</v>
-      </c>
-      <c r="H74" s="12">
-        <v>7406.7827100000004</v>
-      </c>
-      <c r="I74" s="12">
-        <v>1588.21399</v>
+      <c r="F74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="11">
+        <v>7406</v>
+      </c>
+      <c r="H74" s="11">
+        <v>304</v>
+      </c>
+      <c r="I74" s="11">
+        <v>1588</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2412,14 +2606,17 @@
       <c r="E75" s="6">
         <v>3</v>
       </c>
-      <c r="G75" s="12">
-        <v>307.81817999999998</v>
-      </c>
-      <c r="H75" s="12">
-        <v>7794.2607399999997</v>
-      </c>
-      <c r="I75" s="12">
-        <v>1379.7443800000001</v>
+      <c r="F75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="11">
+        <v>7794</v>
+      </c>
+      <c r="H75" s="11">
+        <v>307</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1379</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2438,14 +2635,17 @@
       <c r="E76" s="6">
         <v>3</v>
       </c>
-      <c r="G76" s="12">
-        <v>299.09091000000001</v>
-      </c>
-      <c r="H76" s="12">
-        <v>7138.6088900000004</v>
-      </c>
-      <c r="I76" s="12">
-        <v>1104.35742</v>
+      <c r="F76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="11">
+        <v>7138</v>
+      </c>
+      <c r="H76" s="11">
+        <v>299</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1104</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2464,14 +2664,17 @@
       <c r="E77" s="6">
         <v>15</v>
       </c>
-      <c r="G77" s="12">
-        <v>388.18182000000002</v>
-      </c>
-      <c r="H77" s="12">
-        <v>6934.9565400000001</v>
-      </c>
-      <c r="I77" s="12">
-        <v>1595.59717</v>
+      <c r="F77" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="11">
+        <v>6934</v>
+      </c>
+      <c r="H77" s="11">
+        <v>388</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1595</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2493,14 +2696,14 @@
       <c r="F78" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="11">
+        <v>8317</v>
+      </c>
+      <c r="H78" s="11">
         <v>230</v>
       </c>
-      <c r="H78" s="12">
-        <v>8317.2177699999993</v>
-      </c>
-      <c r="I78" s="12">
-        <v>1904.2248500000001</v>
+      <c r="I78" s="11">
+        <v>1904</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2519,14 +2722,17 @@
       <c r="E79" s="6">
         <v>3</v>
       </c>
-      <c r="G79" s="12">
-        <v>383.27274</v>
-      </c>
-      <c r="H79" s="12">
-        <v>8071.1303699999999</v>
-      </c>
-      <c r="I79" s="12">
-        <v>1753.2103300000001</v>
+      <c r="F79" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="11">
+        <v>8071</v>
+      </c>
+      <c r="H79" s="11">
+        <v>383</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1753</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2545,14 +2751,17 @@
       <c r="E80" s="6">
         <v>3</v>
       </c>
-      <c r="G80" s="12">
-        <v>569.27270999999996</v>
-      </c>
-      <c r="H80" s="12">
-        <v>7582.2607399999997</v>
-      </c>
-      <c r="I80" s="12">
-        <v>295.78206999999998</v>
+      <c r="F80" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="11">
+        <v>7582</v>
+      </c>
+      <c r="H80" s="11">
+        <v>569</v>
+      </c>
+      <c r="I80" s="11">
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2571,14 +2780,17 @@
       <c r="E81" s="6">
         <v>39</v>
       </c>
-      <c r="G81" s="12">
-        <v>869.45452999999998</v>
-      </c>
-      <c r="H81" s="12">
-        <v>6255.7392600000003</v>
-      </c>
-      <c r="I81" s="12">
-        <v>631.63860999999997</v>
+      <c r="F81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="11">
+        <v>6255</v>
+      </c>
+      <c r="H81" s="11">
+        <v>869</v>
+      </c>
+      <c r="I81" s="11">
+        <v>631</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2600,14 +2812,14 @@
       <c r="F82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
+        <v>8685</v>
+      </c>
+      <c r="H82" s="11">
         <v>190</v>
       </c>
-      <c r="H82" s="12">
-        <v>8685.0439499999993</v>
-      </c>
-      <c r="I82" s="12">
-        <v>265.08841000000001</v>
+      <c r="I82" s="11">
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2626,14 +2838,17 @@
       <c r="E83" s="6">
         <v>3</v>
       </c>
-      <c r="G83" s="12">
-        <v>321.27274</v>
-      </c>
-      <c r="H83" s="12">
-        <v>6561.91309</v>
-      </c>
-      <c r="I83" s="12">
-        <v>1931.8703599999999</v>
+      <c r="F83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="11">
+        <v>6561</v>
+      </c>
+      <c r="H83" s="11">
+        <v>321</v>
+      </c>
+      <c r="I83" s="11">
+        <v>1931</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -2655,14 +2870,14 @@
       <c r="F84" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G84" s="12">
-        <v>205.63637</v>
-      </c>
-      <c r="H84" s="12">
-        <v>8560.8691400000007</v>
-      </c>
-      <c r="I84" s="12">
-        <v>368.43707000000001</v>
+      <c r="G84" s="11">
+        <v>8560</v>
+      </c>
+      <c r="H84" s="11">
+        <v>205</v>
+      </c>
+      <c r="I84" s="11">
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -2681,14 +2896,17 @@
       <c r="E85" s="6">
         <v>3</v>
       </c>
-      <c r="G85" s="12">
-        <v>246.90908999999999</v>
-      </c>
-      <c r="H85" s="12">
-        <v>8003.8261700000003</v>
-      </c>
-      <c r="I85" s="12">
-        <v>398.47867000000002</v>
+      <c r="F85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="11">
+        <v>8003</v>
+      </c>
+      <c r="H85" s="11">
+        <v>246</v>
+      </c>
+      <c r="I85" s="11">
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -2707,14 +2925,17 @@
       <c r="E86" s="6">
         <v>3</v>
       </c>
-      <c r="G86" s="12">
-        <v>186.18181999999999</v>
-      </c>
-      <c r="H86" s="12">
-        <v>8750.08691</v>
-      </c>
-      <c r="I86" s="12">
-        <v>411.52285999999998</v>
+      <c r="F86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="11">
+        <v>8750</v>
+      </c>
+      <c r="H86" s="11">
+        <v>186</v>
+      </c>
+      <c r="I86" s="11">
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -2733,14 +2954,17 @@
       <c r="E87" s="6">
         <v>3</v>
       </c>
-      <c r="G87" s="12">
-        <v>589.09087999999997</v>
-      </c>
-      <c r="H87" s="12">
-        <v>7278.6088900000004</v>
-      </c>
-      <c r="I87" s="12">
-        <v>2041.9633799999999</v>
+      <c r="F87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="11">
+        <v>7278</v>
+      </c>
+      <c r="H87" s="11">
+        <v>589</v>
+      </c>
+      <c r="I87" s="11">
+        <v>2041</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -2759,14 +2983,17 @@
       <c r="E88" s="6">
         <v>3</v>
       </c>
-      <c r="G88" s="12">
-        <v>204.36363</v>
-      </c>
-      <c r="H88" s="12">
-        <v>8378.7822300000007</v>
-      </c>
-      <c r="I88" s="12">
-        <v>626.37329</v>
+      <c r="F88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="11">
+        <v>8378</v>
+      </c>
+      <c r="H88" s="11">
+        <v>204</v>
+      </c>
+      <c r="I88" s="11">
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -2785,14 +3012,17 @@
       <c r="E89" s="6">
         <v>3</v>
       </c>
-      <c r="G89" s="12">
-        <v>670.36365000000001</v>
-      </c>
-      <c r="H89" s="12">
-        <v>7437.3911099999996</v>
-      </c>
-      <c r="I89" s="12">
-        <v>2112.2114299999998</v>
+      <c r="F89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="11">
+        <v>7437</v>
+      </c>
+      <c r="H89" s="11">
+        <v>670</v>
+      </c>
+      <c r="I89" s="11">
+        <v>2112</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -2811,14 +3041,17 @@
       <c r="E90" s="6">
         <v>3</v>
       </c>
-      <c r="G90" s="12">
-        <v>341.81817999999998</v>
-      </c>
-      <c r="H90" s="12">
-        <v>8048.1738299999997</v>
-      </c>
-      <c r="I90" s="12">
-        <v>966.10991999999999</v>
+      <c r="F90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="11">
+        <v>8048</v>
+      </c>
+      <c r="H90" s="11">
+        <v>341</v>
+      </c>
+      <c r="I90" s="11">
+        <v>966</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -2837,14 +3070,17 @@
       <c r="E91" s="6">
         <v>3</v>
       </c>
-      <c r="G91" s="12">
-        <v>757.09087999999997</v>
-      </c>
-      <c r="H91" s="12">
-        <v>6932.3476600000004</v>
-      </c>
-      <c r="I91" s="12">
-        <v>1107.25037</v>
+      <c r="F91" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="11">
+        <v>6932</v>
+      </c>
+      <c r="H91" s="11">
+        <v>757</v>
+      </c>
+      <c r="I91" s="11">
+        <v>1107</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -2863,14 +3099,17 @@
       <c r="E92" s="6">
         <v>15</v>
       </c>
-      <c r="G92" s="12">
-        <v>290.54543999999999</v>
-      </c>
-      <c r="H92" s="12">
-        <v>7208.6958000000004</v>
-      </c>
-      <c r="I92" s="12">
-        <v>1608.9751000000001</v>
+      <c r="F92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="11">
+        <v>7208</v>
+      </c>
+      <c r="H92" s="11">
+        <v>290</v>
+      </c>
+      <c r="I92" s="11">
+        <v>1608</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -2889,14 +3128,17 @@
       <c r="E93" s="6">
         <v>3</v>
       </c>
-      <c r="G93" s="12">
-        <v>240.54545999999999</v>
-      </c>
-      <c r="H93" s="12">
-        <v>8108.6958000000004</v>
-      </c>
-      <c r="I93" s="12">
-        <v>797.65539999999999</v>
+      <c r="F93" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="11">
+        <v>8108</v>
+      </c>
+      <c r="H93" s="11">
+        <v>240</v>
+      </c>
+      <c r="I93" s="11">
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -2915,14 +3157,17 @@
       <c r="E94" s="6">
         <v>4</v>
       </c>
-      <c r="G94" s="12">
-        <v>394.90908999999999</v>
-      </c>
-      <c r="H94" s="12">
-        <v>6402.4345700000003</v>
-      </c>
-      <c r="I94" s="12">
-        <v>1041.6046100000001</v>
+      <c r="F94" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="11">
+        <v>6402</v>
+      </c>
+      <c r="H94" s="11">
+        <v>394</v>
+      </c>
+      <c r="I94" s="11">
+        <v>1041</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -2941,14 +3186,17 @@
       <c r="E95" s="6">
         <v>4</v>
       </c>
-      <c r="G95" s="12">
-        <v>296.54543999999999</v>
-      </c>
-      <c r="H95" s="12">
-        <v>6785.5654299999997</v>
-      </c>
-      <c r="I95" s="12">
-        <v>815.80005000000006</v>
+      <c r="F95" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="11">
+        <v>6785</v>
+      </c>
+      <c r="H95" s="11">
+        <v>296</v>
+      </c>
+      <c r="I95" s="11">
+        <v>815</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -2967,14 +3215,17 @@
       <c r="E96" s="6">
         <v>3</v>
       </c>
-      <c r="G96" s="12">
-        <v>369.27274</v>
-      </c>
-      <c r="H96" s="12">
+      <c r="F96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="11">
         <v>6788</v>
       </c>
-      <c r="I96" s="12">
-        <v>1676.0260000000001</v>
+      <c r="H96" s="11">
+        <v>369</v>
+      </c>
+      <c r="I96" s="11">
+        <v>1676</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -2993,14 +3244,17 @@
       <c r="E97" s="6">
         <v>3</v>
       </c>
-      <c r="G97" s="12">
+      <c r="F97" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="11">
+        <v>7192</v>
+      </c>
+      <c r="H97" s="11">
         <v>318</v>
       </c>
-      <c r="H97" s="12">
-        <v>7192.6958000000004</v>
-      </c>
-      <c r="I97" s="12">
-        <v>792.77313000000004</v>
+      <c r="I97" s="11">
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3019,14 +3273,17 @@
       <c r="E98" s="6">
         <v>3</v>
       </c>
-      <c r="G98" s="12">
-        <v>225.81818000000001</v>
-      </c>
-      <c r="H98" s="12">
-        <v>7681.91309</v>
-      </c>
-      <c r="I98" s="12">
-        <v>822.21343999999999</v>
+      <c r="F98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="11">
+        <v>7681</v>
+      </c>
+      <c r="H98" s="11">
+        <v>225</v>
+      </c>
+      <c r="I98" s="11">
+        <v>822</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3045,14 +3302,17 @@
       <c r="E99" s="6">
         <v>15</v>
       </c>
-      <c r="G99" s="12">
-        <v>844.54547000000002</v>
-      </c>
-      <c r="H99" s="12">
-        <v>5530.1738299999997</v>
-      </c>
-      <c r="I99" s="12">
-        <v>627.22626000000002</v>
+      <c r="F99" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="11">
+        <v>5530</v>
+      </c>
+      <c r="H99" s="11">
+        <v>844</v>
+      </c>
+      <c r="I99" s="11">
+        <v>627</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3071,14 +3331,17 @@
       <c r="E100" s="6">
         <v>15</v>
       </c>
-      <c r="G100" s="12">
+      <c r="F100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="11">
+        <v>6507</v>
+      </c>
+      <c r="H100" s="11">
         <v>344</v>
       </c>
-      <c r="H100" s="12">
-        <v>6507.8261700000003</v>
-      </c>
-      <c r="I100" s="12">
-        <v>1200.05249</v>
+      <c r="I100" s="11">
+        <v>1200</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3097,14 +3360,17 @@
       <c r="E101" s="6">
         <v>3</v>
       </c>
-      <c r="G101" s="12">
-        <v>337.45456000000001</v>
-      </c>
-      <c r="H101" s="12">
-        <v>6356.5219699999998</v>
-      </c>
-      <c r="I101" s="12">
-        <v>713.58849999999995</v>
+      <c r="F101" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="11">
+        <v>6356</v>
+      </c>
+      <c r="H101" s="11">
+        <v>337</v>
+      </c>
+      <c r="I101" s="11">
+        <v>713</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3123,14 +3389,17 @@
       <c r="E102" s="6">
         <v>15</v>
       </c>
-      <c r="G102" s="12">
-        <v>382.72726</v>
-      </c>
-      <c r="H102" s="12">
-        <v>5642.7827100000004</v>
-      </c>
-      <c r="I102" s="12">
-        <v>1209.65479</v>
+      <c r="F102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="11">
+        <v>5642</v>
+      </c>
+      <c r="H102" s="11">
+        <v>382</v>
+      </c>
+      <c r="I102" s="11">
+        <v>1209</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3149,14 +3418,17 @@
       <c r="E103" s="6">
         <v>3</v>
       </c>
-      <c r="G103" s="12">
-        <v>389.45456000000001</v>
-      </c>
-      <c r="H103" s="12">
-        <v>7810.08691</v>
-      </c>
-      <c r="I103" s="12">
-        <v>762.41674999999998</v>
+      <c r="F103" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="11">
+        <v>7810</v>
+      </c>
+      <c r="H103" s="11">
+        <v>389</v>
+      </c>
+      <c r="I103" s="11">
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3175,14 +3447,17 @@
       <c r="E104" s="6">
         <v>15</v>
       </c>
-      <c r="G104" s="12">
-        <v>460.54543999999999</v>
-      </c>
-      <c r="H104" s="12">
-        <v>5894.7827100000004</v>
-      </c>
-      <c r="I104" s="12">
-        <v>865.9425</v>
+      <c r="F104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="11">
+        <v>5894</v>
+      </c>
+      <c r="H104" s="11">
+        <v>460</v>
+      </c>
+      <c r="I104" s="11">
+        <v>865</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3201,14 +3476,17 @@
       <c r="E105" s="6">
         <v>15</v>
       </c>
-      <c r="G105" s="12">
-        <v>491.45456000000001</v>
-      </c>
-      <c r="H105" s="12">
-        <v>6400.5219699999998</v>
-      </c>
-      <c r="I105" s="12">
-        <v>1384.1987300000001</v>
+      <c r="F105" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="11">
+        <v>6400</v>
+      </c>
+      <c r="H105" s="11">
+        <v>491</v>
+      </c>
+      <c r="I105" s="11">
+        <v>1384</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3230,14 +3508,14 @@
       <c r="F106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="12">
-        <v>434.90908999999999</v>
-      </c>
-      <c r="H106" s="12">
-        <v>7149.0434599999999</v>
-      </c>
-      <c r="I106" s="12">
-        <v>2376.40967</v>
+      <c r="G106" s="11">
+        <v>7149</v>
+      </c>
+      <c r="H106" s="11">
+        <v>434</v>
+      </c>
+      <c r="I106" s="11">
+        <v>2376</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3256,14 +3534,17 @@
       <c r="E107" s="6">
         <v>3</v>
       </c>
-      <c r="G107" s="12">
-        <v>237.09091000000001</v>
-      </c>
-      <c r="H107" s="12">
-        <v>8003.1303699999999</v>
-      </c>
-      <c r="I107" s="12">
-        <v>330.53525000000002</v>
+      <c r="F107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="11">
+        <v>8003</v>
+      </c>
+      <c r="H107" s="11">
+        <v>237</v>
+      </c>
+      <c r="I107" s="11">
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3282,14 +3563,17 @@
       <c r="E108" s="6">
         <v>3</v>
       </c>
-      <c r="G108" s="12">
-        <v>435.09091000000001</v>
-      </c>
-      <c r="H108" s="12">
+      <c r="F108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="11">
         <v>6592</v>
       </c>
-      <c r="I108" s="12">
-        <v>2570.7460900000001</v>
+      <c r="H108" s="11">
+        <v>435</v>
+      </c>
+      <c r="I108" s="11">
+        <v>2570</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3308,14 +3592,17 @@
       <c r="E109" s="6">
         <v>3</v>
       </c>
-      <c r="G109" s="12">
-        <v>566.36365000000001</v>
-      </c>
-      <c r="H109" s="12">
-        <v>6150.6958000000004</v>
-      </c>
-      <c r="I109" s="12">
-        <v>2120.60815</v>
+      <c r="F109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="11">
+        <v>6150</v>
+      </c>
+      <c r="H109" s="11">
+        <v>566</v>
+      </c>
+      <c r="I109" s="11">
+        <v>2120</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3334,14 +3621,17 @@
       <c r="E110" s="6">
         <v>4</v>
       </c>
-      <c r="G110" s="12">
-        <v>285.09091000000001</v>
-      </c>
-      <c r="H110" s="12">
-        <v>7092.5219699999998</v>
-      </c>
-      <c r="I110" s="12">
-        <v>1463.5660399999999</v>
+      <c r="F110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="11">
+        <v>7092</v>
+      </c>
+      <c r="H110" s="11">
+        <v>285</v>
+      </c>
+      <c r="I110" s="11">
+        <v>1463</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3360,14 +3650,17 @@
       <c r="E111" s="6">
         <v>39</v>
       </c>
-      <c r="G111" s="12">
-        <v>1003.63635</v>
-      </c>
-      <c r="H111" s="12">
-        <v>6194.3476600000004</v>
-      </c>
-      <c r="I111" s="12">
-        <v>421.42313000000001</v>
+      <c r="F111" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="11">
+        <v>6194</v>
+      </c>
+      <c r="H111" s="11">
+        <v>1003</v>
+      </c>
+      <c r="I111" s="11">
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3386,14 +3679,17 @@
       <c r="E112" s="6">
         <v>3</v>
       </c>
-      <c r="G112" s="12">
-        <v>321.45456000000001</v>
-      </c>
-      <c r="H112" s="12">
-        <v>7413.91309</v>
-      </c>
-      <c r="I112" s="12">
-        <v>657.48608000000002</v>
+      <c r="F112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="11">
+        <v>7413</v>
+      </c>
+      <c r="H112" s="11">
+        <v>321</v>
+      </c>
+      <c r="I112" s="11">
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3412,14 +3708,17 @@
       <c r="E113" s="6">
         <v>15</v>
       </c>
-      <c r="G113" s="12">
-        <v>894.90912000000003</v>
-      </c>
-      <c r="H113" s="12">
+      <c r="F113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="11">
         <v>5540</v>
       </c>
-      <c r="I113" s="12">
-        <v>1550.9510499999999</v>
+      <c r="H113" s="11">
+        <v>894</v>
+      </c>
+      <c r="I113" s="11">
+        <v>1550</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3438,14 +3737,17 @@
       <c r="E114" s="6">
         <v>39</v>
       </c>
-      <c r="G114" s="12">
-        <v>1075.63635</v>
-      </c>
-      <c r="H114" s="12">
-        <v>5965.7392600000003</v>
-      </c>
-      <c r="I114" s="12">
-        <v>992.94470000000001</v>
+      <c r="F114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="11">
+        <v>5965</v>
+      </c>
+      <c r="H114" s="11">
+        <v>1075</v>
+      </c>
+      <c r="I114" s="11">
+        <v>992</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3464,14 +3766,17 @@
       <c r="E115" s="6">
         <v>15</v>
       </c>
-      <c r="G115" s="12">
-        <v>343.45456000000001</v>
-      </c>
-      <c r="H115" s="12">
-        <v>6438.6088900000004</v>
-      </c>
-      <c r="I115" s="12">
-        <v>568.01318000000003</v>
+      <c r="F115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="11">
+        <v>6438</v>
+      </c>
+      <c r="H115" s="11">
+        <v>343</v>
+      </c>
+      <c r="I115" s="11">
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -3490,14 +3795,17 @@
       <c r="E116" s="6">
         <v>39</v>
       </c>
-      <c r="G116" s="12">
-        <v>1158.36365</v>
-      </c>
-      <c r="H116" s="12">
-        <v>5684.5219699999998</v>
-      </c>
-      <c r="I116" s="12">
-        <v>426.02132999999998</v>
+      <c r="F116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="11">
+        <v>5684</v>
+      </c>
+      <c r="H116" s="11">
+        <v>1158</v>
+      </c>
+      <c r="I116" s="11">
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -3516,14 +3824,17 @@
       <c r="E117" s="6">
         <v>15</v>
       </c>
-      <c r="G117" s="12">
-        <v>406.36365000000001</v>
-      </c>
-      <c r="H117" s="12">
-        <v>6184.3476600000004</v>
-      </c>
-      <c r="I117" s="12">
-        <v>706.01147000000003</v>
+      <c r="F117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="11">
+        <v>6184</v>
+      </c>
+      <c r="H117" s="11">
+        <v>406</v>
+      </c>
+      <c r="I117" s="11">
+        <v>706</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -3542,14 +3853,17 @@
       <c r="E118" s="6">
         <v>3</v>
       </c>
-      <c r="G118" s="12">
+      <c r="F118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="11">
+        <v>8275</v>
+      </c>
+      <c r="H118" s="11">
         <v>240</v>
       </c>
-      <c r="H118" s="12">
-        <v>8275.6523400000005</v>
-      </c>
-      <c r="I118" s="12">
-        <v>453.89654999999999</v>
+      <c r="I118" s="11">
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -3568,14 +3882,17 @@
       <c r="E119" s="6">
         <v>15</v>
       </c>
-      <c r="G119" s="12">
-        <v>338.18182000000002</v>
-      </c>
-      <c r="H119" s="12">
-        <v>6416.3476600000004</v>
-      </c>
-      <c r="I119" s="12">
-        <v>489.55858999999998</v>
+      <c r="F119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="11">
+        <v>6416</v>
+      </c>
+      <c r="H119" s="11">
+        <v>338</v>
+      </c>
+      <c r="I119" s="11">
+        <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -3594,14 +3911,17 @@
       <c r="E120" s="6">
         <v>3</v>
       </c>
-      <c r="G120" s="12">
-        <v>173.09091000000001</v>
-      </c>
-      <c r="H120" s="12">
-        <v>8295.1308599999993</v>
-      </c>
-      <c r="I120" s="12">
-        <v>617.20056</v>
+      <c r="F120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="11">
+        <v>8295</v>
+      </c>
+      <c r="H120" s="11">
+        <v>173</v>
+      </c>
+      <c r="I120" s="11">
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -3620,14 +3940,17 @@
       <c r="E121" s="6">
         <v>15</v>
       </c>
-      <c r="G121" s="12">
-        <v>346.72726</v>
-      </c>
-      <c r="H121" s="12">
-        <v>7082.2607399999997</v>
-      </c>
-      <c r="I121" s="12">
-        <v>753.79314999999997</v>
+      <c r="F121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="11">
+        <v>7082</v>
+      </c>
+      <c r="H121" s="11">
+        <v>346</v>
+      </c>
+      <c r="I121" s="11">
+        <v>753</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -3646,14 +3969,17 @@
       <c r="E122" s="6">
         <v>3</v>
       </c>
-      <c r="G122" s="12">
-        <v>257.63634999999999</v>
-      </c>
-      <c r="H122" s="12">
-        <v>7039.8261700000003</v>
-      </c>
-      <c r="I122" s="12">
-        <v>1355.8347200000001</v>
+      <c r="F122" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="11">
+        <v>7039</v>
+      </c>
+      <c r="H122" s="11">
+        <v>257</v>
+      </c>
+      <c r="I122" s="11">
+        <v>1355</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -3672,14 +3998,17 @@
       <c r="E123" s="6">
         <v>15</v>
       </c>
-      <c r="G123" s="12">
-        <v>343.81817999999998</v>
-      </c>
-      <c r="H123" s="12">
-        <v>6542.9565400000001</v>
-      </c>
-      <c r="I123" s="12">
-        <v>800.05298000000005</v>
+      <c r="F123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="11">
+        <v>6542</v>
+      </c>
+      <c r="H123" s="11">
+        <v>343</v>
+      </c>
+      <c r="I123" s="11">
+        <v>800</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -3698,14 +4027,17 @@
       <c r="E124" s="6">
         <v>3</v>
       </c>
-      <c r="G124" s="12">
-        <v>389.63634999999999</v>
-      </c>
-      <c r="H124" s="12">
-        <v>7504.1738299999997</v>
-      </c>
-      <c r="I124" s="12">
-        <v>476.10944000000001</v>
+      <c r="F124" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="11">
+        <v>7504</v>
+      </c>
+      <c r="H124" s="11">
+        <v>389</v>
+      </c>
+      <c r="I124" s="11">
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -3724,14 +4056,17 @@
       <c r="E125" s="6">
         <v>15</v>
       </c>
-      <c r="G125" s="12">
-        <v>245.63637</v>
-      </c>
-      <c r="H125" s="12">
-        <v>7467.8261700000003</v>
-      </c>
-      <c r="I125" s="12">
-        <v>796.66492000000005</v>
+      <c r="F125" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="11">
+        <v>7467</v>
+      </c>
+      <c r="H125" s="11">
+        <v>245</v>
+      </c>
+      <c r="I125" s="11">
+        <v>796</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -3750,14 +4085,17 @@
       <c r="E126" s="6">
         <v>4</v>
       </c>
-      <c r="G126" s="12">
-        <v>328.90908999999999</v>
-      </c>
-      <c r="H126" s="12">
-        <v>7349.7392600000003</v>
-      </c>
-      <c r="I126" s="12">
-        <v>528.61077999999998</v>
+      <c r="F126" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="11">
+        <v>7349</v>
+      </c>
+      <c r="H126" s="11">
+        <v>328</v>
+      </c>
+      <c r="I126" s="11">
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -3776,14 +4114,17 @@
       <c r="E127" s="6">
         <v>3</v>
       </c>
-      <c r="G127" s="12">
-        <v>267.45456000000001</v>
-      </c>
-      <c r="H127" s="12">
-        <v>7681.91309</v>
-      </c>
-      <c r="I127" s="12">
-        <v>1161.9451899999999</v>
+      <c r="F127" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="11">
+        <v>7681</v>
+      </c>
+      <c r="H127" s="11">
+        <v>267</v>
+      </c>
+      <c r="I127" s="11">
+        <v>1161</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -3802,14 +4143,17 @@
       <c r="E128" s="6">
         <v>3</v>
       </c>
-      <c r="G128" s="12">
-        <v>179.27271999999999</v>
-      </c>
-      <c r="H128" s="12">
-        <v>8120.3476600000004</v>
-      </c>
-      <c r="I128" s="12">
-        <v>540.12219000000005</v>
+      <c r="F128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="11">
+        <v>8120</v>
+      </c>
+      <c r="H128" s="11">
+        <v>179</v>
+      </c>
+      <c r="I128" s="11">
+        <v>540</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -3828,14 +4172,17 @@
       <c r="E129" s="6">
         <v>15</v>
       </c>
-      <c r="G129" s="12">
-        <v>321.27274</v>
-      </c>
-      <c r="H129" s="12">
+      <c r="F129" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="11">
         <v>7212</v>
       </c>
-      <c r="I129" s="12">
-        <v>673.78961000000004</v>
+      <c r="H129" s="11">
+        <v>321</v>
+      </c>
+      <c r="I129" s="11">
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -3854,14 +4201,17 @@
       <c r="E130" s="6">
         <v>3</v>
       </c>
-      <c r="G130" s="12">
-        <v>322.54543999999999</v>
-      </c>
-      <c r="H130" s="12">
-        <v>7825.5654299999997</v>
-      </c>
-      <c r="I130" s="12">
-        <v>1264.03918</v>
+      <c r="F130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="11">
+        <v>7825</v>
+      </c>
+      <c r="H130" s="11">
+        <v>322</v>
+      </c>
+      <c r="I130" s="11">
+        <v>1264</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -3880,14 +4230,17 @@
       <c r="E131" s="6">
         <v>15</v>
       </c>
-      <c r="G131" s="12">
-        <v>234.54545999999999</v>
-      </c>
-      <c r="H131" s="12">
-        <v>7488.1738299999997</v>
-      </c>
-      <c r="I131" s="12">
-        <v>837.74749999999995</v>
+      <c r="F131" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="11">
+        <v>7488</v>
+      </c>
+      <c r="H131" s="11">
+        <v>234</v>
+      </c>
+      <c r="I131" s="11">
+        <v>837</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -3906,14 +4259,17 @@
       <c r="E132" s="6">
         <v>3</v>
       </c>
-      <c r="G132" s="12">
-        <v>221.63637</v>
-      </c>
-      <c r="H132" s="12">
-        <v>8241.5654300000006</v>
-      </c>
-      <c r="I132" s="12">
-        <v>1292.01575</v>
+      <c r="F132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="11">
+        <v>8241</v>
+      </c>
+      <c r="H132" s="11">
+        <v>221</v>
+      </c>
+      <c r="I132" s="11">
+        <v>1292</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
@@ -3932,14 +4288,17 @@
       <c r="E133" s="6">
         <v>3</v>
       </c>
-      <c r="G133" s="12">
-        <v>433.63634999999999</v>
-      </c>
-      <c r="H133" s="12">
-        <v>7485.5654299999997</v>
-      </c>
-      <c r="I133" s="12">
-        <v>1575.7373</v>
+      <c r="F133" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="11">
+        <v>7485</v>
+      </c>
+      <c r="H133" s="11">
+        <v>433</v>
+      </c>
+      <c r="I133" s="11">
+        <v>1575</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -3958,14 +4317,17 @@
       <c r="E134" s="6">
         <v>3</v>
       </c>
-      <c r="G134" s="12">
-        <v>352.36365000000001</v>
-      </c>
-      <c r="H134" s="12">
-        <v>7569.0434599999999</v>
-      </c>
-      <c r="I134" s="12">
-        <v>932.71820000000002</v>
+      <c r="F134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="11">
+        <v>7569</v>
+      </c>
+      <c r="H134" s="11">
+        <v>352</v>
+      </c>
+      <c r="I134" s="11">
+        <v>932</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
@@ -3984,14 +4346,17 @@
       <c r="E135" s="6">
         <v>15</v>
       </c>
-      <c r="G135" s="12">
-        <v>514.36365000000001</v>
-      </c>
-      <c r="H135" s="12">
-        <v>6890.9565400000001</v>
-      </c>
-      <c r="I135" s="12">
-        <v>870.75744999999995</v>
+      <c r="F135" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="11">
+        <v>6890</v>
+      </c>
+      <c r="H135" s="11">
+        <v>514</v>
+      </c>
+      <c r="I135" s="11">
+        <v>870</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
@@ -4010,14 +4375,17 @@
       <c r="E136" s="6">
         <v>4</v>
       </c>
-      <c r="G136" s="12">
-        <v>294.18182000000002</v>
-      </c>
-      <c r="H136" s="12">
-        <v>6786.9565400000001</v>
-      </c>
-      <c r="I136" s="12">
-        <v>678.80109000000004</v>
+      <c r="F136" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="11">
+        <v>6786</v>
+      </c>
+      <c r="H136" s="11">
+        <v>294</v>
+      </c>
+      <c r="I136" s="11">
+        <v>678</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
@@ -4036,14 +4404,17 @@
       <c r="E137" s="6">
         <v>3</v>
       </c>
-      <c r="G137" s="12">
-        <v>237.45454000000001</v>
-      </c>
-      <c r="H137" s="12">
-        <v>7783.8261700000003</v>
-      </c>
-      <c r="I137" s="12">
-        <v>661.35724000000005</v>
+      <c r="F137" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="11">
+        <v>7783</v>
+      </c>
+      <c r="H137" s="11">
+        <v>237</v>
+      </c>
+      <c r="I137" s="11">
+        <v>661</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
@@ -4062,14 +4433,17 @@
       <c r="E138" s="6">
         <v>3</v>
       </c>
-      <c r="G138" s="12">
-        <v>187.27271999999999</v>
-      </c>
-      <c r="H138" s="12">
-        <v>8336.1738299999997</v>
-      </c>
-      <c r="I138" s="12">
-        <v>424.29941000000002</v>
+      <c r="F138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="11">
+        <v>8336</v>
+      </c>
+      <c r="H138" s="11">
+        <v>187</v>
+      </c>
+      <c r="I138" s="11">
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
@@ -4088,14 +4462,17 @@
       <c r="E139" s="6">
         <v>15</v>
       </c>
-      <c r="G139" s="12">
-        <v>480.18182000000002</v>
-      </c>
-      <c r="H139" s="12">
-        <v>6703.6523399999996</v>
-      </c>
-      <c r="I139" s="12">
-        <v>643.11890000000005</v>
+      <c r="F139" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="11">
+        <v>6703</v>
+      </c>
+      <c r="H139" s="11">
+        <v>480</v>
+      </c>
+      <c r="I139" s="11">
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -4117,14 +4494,14 @@
       <c r="F140" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G140" s="12">
-        <v>232.54545999999999</v>
-      </c>
-      <c r="H140" s="12">
-        <v>7865.7392600000003</v>
-      </c>
-      <c r="I140" s="12">
-        <v>698.75847999999996</v>
+      <c r="G140" s="11">
+        <v>7865</v>
+      </c>
+      <c r="H140" s="11">
+        <v>232</v>
+      </c>
+      <c r="I140" s="11">
+        <v>698</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -4143,14 +4520,17 @@
       <c r="E141" s="6">
         <v>4</v>
       </c>
-      <c r="G141" s="12">
-        <v>358.18182000000002</v>
-      </c>
-      <c r="H141" s="12">
-        <v>6918.4345700000003</v>
-      </c>
-      <c r="I141" s="12">
-        <v>1264.36987</v>
+      <c r="F141" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="11">
+        <v>6918</v>
+      </c>
+      <c r="H141" s="11">
+        <v>358</v>
+      </c>
+      <c r="I141" s="11">
+        <v>1264</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
@@ -4169,14 +4549,17 @@
       <c r="E142" s="6">
         <v>15</v>
       </c>
-      <c r="G142" s="12">
-        <v>406.90908999999999</v>
-      </c>
-      <c r="H142" s="12">
-        <v>7031.1303699999999</v>
-      </c>
-      <c r="I142" s="12">
-        <v>899.85645</v>
+      <c r="F142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="11">
+        <v>7031</v>
+      </c>
+      <c r="H142" s="11">
+        <v>406</v>
+      </c>
+      <c r="I142" s="11">
+        <v>899</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
@@ -4195,14 +4578,17 @@
       <c r="E143" s="6">
         <v>3</v>
       </c>
-      <c r="G143" s="12">
-        <v>408.54543999999999</v>
-      </c>
-      <c r="H143" s="12">
-        <v>7034.9565400000001</v>
-      </c>
-      <c r="I143" s="12">
-        <v>687.37653</v>
+      <c r="F143" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="11">
+        <v>7034</v>
+      </c>
+      <c r="H143" s="11">
+        <v>408</v>
+      </c>
+      <c r="I143" s="11">
+        <v>687</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
@@ -4221,14 +4607,17 @@
       <c r="E144" s="6">
         <v>3</v>
       </c>
-      <c r="G144" s="12">
-        <v>303.63634999999999</v>
-      </c>
-      <c r="H144" s="12">
-        <v>7809.5654299999997</v>
-      </c>
-      <c r="I144" s="12">
-        <v>587.73059000000001</v>
+      <c r="F144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="11">
+        <v>7809</v>
+      </c>
+      <c r="H144" s="11">
+        <v>303</v>
+      </c>
+      <c r="I144" s="11">
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
@@ -4250,14 +4639,14 @@
       <c r="F145" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G145" s="12">
-        <v>199.27271999999999</v>
-      </c>
-      <c r="H145" s="12">
-        <v>8183.8261700000003</v>
-      </c>
-      <c r="I145" s="12">
-        <v>476.32290999999998</v>
+      <c r="G145" s="11">
+        <v>8183</v>
+      </c>
+      <c r="H145" s="11">
+        <v>199</v>
+      </c>
+      <c r="I145" s="11">
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -4276,14 +4665,17 @@
       <c r="E146" s="6">
         <v>15</v>
       </c>
-      <c r="G146" s="12">
-        <v>301.63634999999999</v>
-      </c>
-      <c r="H146" s="12">
-        <v>8090.7827100000004</v>
-      </c>
-      <c r="I146" s="12">
-        <v>634.55169999999998</v>
+      <c r="F146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="11">
+        <v>8090</v>
+      </c>
+      <c r="H146" s="11">
+        <v>301</v>
+      </c>
+      <c r="I146" s="11">
+        <v>634</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
@@ -4302,14 +4694,17 @@
       <c r="E147" s="6">
         <v>3</v>
       </c>
-      <c r="G147" s="12">
-        <v>311.63634999999999</v>
-      </c>
-      <c r="H147" s="12">
-        <v>7961.7392600000003</v>
-      </c>
-      <c r="I147" s="12">
-        <v>1467.2260699999999</v>
+      <c r="F147" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="11">
+        <v>7961</v>
+      </c>
+      <c r="H147" s="11">
+        <v>311</v>
+      </c>
+      <c r="I147" s="11">
+        <v>1467</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -4328,14 +4723,17 @@
       <c r="E148" s="6">
         <v>3</v>
       </c>
-      <c r="G148" s="12">
-        <v>241.27271999999999</v>
-      </c>
-      <c r="H148" s="12">
-        <v>7906.6088900000004</v>
-      </c>
-      <c r="I148" s="12">
-        <v>479.56076000000002</v>
+      <c r="F148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="11">
+        <v>7906</v>
+      </c>
+      <c r="H148" s="11">
+        <v>241</v>
+      </c>
+      <c r="I148" s="11">
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
@@ -4357,14 +4755,14 @@
       <c r="F149" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G149" s="12">
-        <v>344.36365000000001</v>
-      </c>
-      <c r="H149" s="12">
+      <c r="G149" s="11">
         <v>7956</v>
       </c>
-      <c r="I149" s="12">
-        <v>322.12572999999998</v>
+      <c r="H149" s="11">
+        <v>344</v>
+      </c>
+      <c r="I149" s="11">
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
@@ -4386,14 +4784,14 @@
       <c r="F150" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G150" s="12">
-        <v>294.18182000000002</v>
-      </c>
-      <c r="H150" s="12">
-        <v>8450.6083999999992</v>
-      </c>
-      <c r="I150" s="12">
-        <v>494.04259999999999</v>
+      <c r="G150" s="11">
+        <v>8450</v>
+      </c>
+      <c r="H150" s="11">
+        <v>294</v>
+      </c>
+      <c r="I150" s="11">
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
@@ -4415,14 +4813,14 @@
       <c r="F151" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G151" s="12">
-        <v>260.36365000000001</v>
-      </c>
-      <c r="H151" s="12">
-        <v>8187.6523399999996</v>
-      </c>
-      <c r="I151" s="12">
-        <v>434.22368999999998</v>
+      <c r="G151" s="11">
+        <v>8187</v>
+      </c>
+      <c r="H151" s="11">
+        <v>260</v>
+      </c>
+      <c r="I151" s="11">
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
@@ -4441,14 +4839,17 @@
       <c r="E152" s="6">
         <v>15</v>
       </c>
-      <c r="G152" s="12">
-        <v>296.90908999999999</v>
-      </c>
-      <c r="H152" s="12">
-        <v>7274.2607399999997</v>
-      </c>
-      <c r="I152" s="12">
-        <v>819.79296999999997</v>
+      <c r="F152" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="11">
+        <v>7274</v>
+      </c>
+      <c r="H152" s="11">
+        <v>296</v>
+      </c>
+      <c r="I152" s="11">
+        <v>819</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
@@ -4470,14 +4871,14 @@
       <c r="F153" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G153" s="12">
-        <v>281.45456000000001</v>
-      </c>
-      <c r="H153" s="12">
-        <v>7895.1303699999999</v>
-      </c>
-      <c r="I153" s="12">
-        <v>1882.5828899999999</v>
+      <c r="G153" s="11">
+        <v>7895</v>
+      </c>
+      <c r="H153" s="11">
+        <v>281</v>
+      </c>
+      <c r="I153" s="11">
+        <v>1882</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -4496,14 +4897,17 @@
       <c r="E154" s="6">
         <v>3</v>
       </c>
-      <c r="G154" s="12">
-        <v>246.90908999999999</v>
-      </c>
-      <c r="H154" s="12">
-        <v>7980.5219699999998</v>
-      </c>
-      <c r="I154" s="12">
-        <v>876.66747999999995</v>
+      <c r="F154" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="11">
+        <v>7980</v>
+      </c>
+      <c r="H154" s="11">
+        <v>246</v>
+      </c>
+      <c r="I154" s="11">
+        <v>876</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
@@ -4522,14 +4926,17 @@
       <c r="E155" s="6">
         <v>3</v>
       </c>
-      <c r="G155" s="12">
-        <v>378.18182000000002</v>
-      </c>
-      <c r="H155" s="12">
-        <v>7523.1303699999999</v>
-      </c>
-      <c r="I155" s="12">
-        <v>1146.70886</v>
+      <c r="F155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="11">
+        <v>7523</v>
+      </c>
+      <c r="H155" s="11">
+        <v>378</v>
+      </c>
+      <c r="I155" s="11">
+        <v>1146</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -4548,14 +4955,17 @@
       <c r="E156" s="6">
         <v>3</v>
       </c>
-      <c r="G156" s="12">
-        <v>277.63634999999999</v>
-      </c>
-      <c r="H156" s="12">
-        <v>7898.7827100000004</v>
-      </c>
-      <c r="I156" s="12">
-        <v>1420.47864</v>
+      <c r="F156" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="11">
+        <v>7898</v>
+      </c>
+      <c r="H156" s="11">
+        <v>277</v>
+      </c>
+      <c r="I156" s="11">
+        <v>1420</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -4574,14 +4984,17 @@
       <c r="E157" s="6">
         <v>3</v>
       </c>
-      <c r="G157" s="12">
-        <v>366.36365000000001</v>
-      </c>
-      <c r="H157" s="12">
-        <v>7579.3041999999996</v>
-      </c>
-      <c r="I157" s="12">
-        <v>647.71569999999997</v>
+      <c r="F157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="11">
+        <v>7579</v>
+      </c>
+      <c r="H157" s="11">
+        <v>366</v>
+      </c>
+      <c r="I157" s="11">
+        <v>647</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -4600,14 +5013,17 @@
       <c r="E158" s="6">
         <v>3</v>
       </c>
-      <c r="G158" s="12">
-        <v>281.45456000000001</v>
-      </c>
-      <c r="H158" s="12">
-        <v>7864.8696300000001</v>
-      </c>
-      <c r="I158" s="12">
-        <v>1322.9703400000001</v>
+      <c r="F158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="11">
+        <v>7864</v>
+      </c>
+      <c r="H158" s="11">
+        <v>281</v>
+      </c>
+      <c r="I158" s="11">
+        <v>1322</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
@@ -4626,14 +5042,17 @@
       <c r="E159" s="6">
         <v>3</v>
       </c>
-      <c r="G159" s="12">
-        <v>331.27274</v>
-      </c>
-      <c r="H159" s="12">
-        <v>7328.5219699999998</v>
-      </c>
-      <c r="I159" s="12">
-        <v>883.09271000000001</v>
+      <c r="F159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="11">
+        <v>7328</v>
+      </c>
+      <c r="H159" s="11">
+        <v>331</v>
+      </c>
+      <c r="I159" s="11">
+        <v>883</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
@@ -4652,14 +5071,17 @@
       <c r="E160" s="6">
         <v>3</v>
       </c>
-      <c r="G160" s="12">
-        <v>416.90908999999999</v>
-      </c>
-      <c r="H160" s="12">
-        <v>7217.91309</v>
-      </c>
-      <c r="I160" s="12">
-        <v>1286.1065699999999</v>
+      <c r="F160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="11">
+        <v>7217</v>
+      </c>
+      <c r="H160" s="11">
+        <v>416</v>
+      </c>
+      <c r="I160" s="11">
+        <v>1286</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
@@ -4678,14 +5100,17 @@
       <c r="E161" s="6">
         <v>15</v>
       </c>
-      <c r="G161" s="12">
-        <v>341.63634999999999</v>
-      </c>
-      <c r="H161" s="12">
-        <v>7145.5654299999997</v>
-      </c>
-      <c r="I161" s="12">
-        <v>1612.0972899999999</v>
+      <c r="F161" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="11">
+        <v>7145</v>
+      </c>
+      <c r="H161" s="11">
+        <v>341</v>
+      </c>
+      <c r="I161" s="11">
+        <v>1612</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
@@ -4704,14 +5129,17 @@
       <c r="E162" s="6">
         <v>3</v>
       </c>
-      <c r="G162" s="12">
-        <v>130.18181999999999</v>
-      </c>
-      <c r="H162" s="12">
-        <v>8112.3476600000004</v>
-      </c>
-      <c r="I162" s="12">
-        <v>841.02704000000006</v>
+      <c r="F162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="11">
+        <v>8112</v>
+      </c>
+      <c r="H162" s="11">
+        <v>130</v>
+      </c>
+      <c r="I162" s="11">
+        <v>841</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
@@ -4730,14 +5158,17 @@
       <c r="E163" s="6">
         <v>4</v>
       </c>
-      <c r="G163" s="12">
-        <v>397.45456000000001</v>
-      </c>
-      <c r="H163" s="12">
-        <v>7850.08691</v>
-      </c>
-      <c r="I163" s="12">
-        <v>856.97893999999997</v>
+      <c r="F163" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="11">
+        <v>7850</v>
+      </c>
+      <c r="H163" s="11">
+        <v>397</v>
+      </c>
+      <c r="I163" s="11">
+        <v>856</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
@@ -4756,14 +5187,17 @@
       <c r="E164" s="6">
         <v>15</v>
       </c>
-      <c r="G164" s="12">
+      <c r="F164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="11">
+        <v>6293</v>
+      </c>
+      <c r="H164" s="11">
         <v>388</v>
       </c>
-      <c r="H164" s="12">
-        <v>6293.3911099999996</v>
-      </c>
-      <c r="I164" s="12">
-        <v>1065.4558099999999</v>
+      <c r="I164" s="11">
+        <v>1065</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
@@ -4782,14 +5216,17 @@
       <c r="E165" s="6">
         <v>15</v>
       </c>
-      <c r="G165" s="12">
-        <v>396.54543999999999</v>
-      </c>
-      <c r="H165" s="12">
-        <v>6843.7392600000003</v>
-      </c>
-      <c r="I165" s="12">
-        <v>512.86077999999998</v>
+      <c r="F165" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="11">
+        <v>6843</v>
+      </c>
+      <c r="H165" s="11">
+        <v>396</v>
+      </c>
+      <c r="I165" s="11">
+        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
@@ -4808,14 +5245,17 @@
       <c r="E166" s="6">
         <v>15</v>
       </c>
-      <c r="G166" s="12">
-        <v>187.63637</v>
-      </c>
-      <c r="H166" s="12">
+      <c r="F166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="11">
         <v>8164</v>
       </c>
-      <c r="I166" s="12">
-        <v>737.92296999999996</v>
+      <c r="H166" s="11">
+        <v>187</v>
+      </c>
+      <c r="I166" s="11">
+        <v>737</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
@@ -4834,14 +5274,17 @@
       <c r="E167" s="6">
         <v>15</v>
       </c>
-      <c r="G167" s="12">
-        <v>257.45456000000001</v>
-      </c>
-      <c r="H167" s="12">
-        <v>7579.3041999999996</v>
-      </c>
-      <c r="I167" s="12">
-        <v>974.58032000000003</v>
+      <c r="F167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="11">
+        <v>7579</v>
+      </c>
+      <c r="H167" s="11">
+        <v>257</v>
+      </c>
+      <c r="I167" s="11">
+        <v>974</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
@@ -4860,14 +5303,17 @@
       <c r="E168" s="6">
         <v>3</v>
       </c>
-      <c r="G168" s="12">
-        <v>174.54545999999999</v>
-      </c>
-      <c r="H168" s="12">
-        <v>8554.4345699999994</v>
-      </c>
-      <c r="I168" s="12">
-        <v>758.30065999999999</v>
+      <c r="F168" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="11">
+        <v>8554</v>
+      </c>
+      <c r="H168" s="11">
+        <v>174</v>
+      </c>
+      <c r="I168" s="11">
+        <v>758</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
@@ -4886,14 +5332,17 @@
       <c r="E169" s="6">
         <v>3</v>
       </c>
-      <c r="G169" s="12">
-        <v>228.36363</v>
-      </c>
-      <c r="H169" s="12">
-        <v>7699.1303699999999</v>
-      </c>
-      <c r="I169" s="12">
-        <v>908.14355</v>
+      <c r="F169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="11">
+        <v>7699</v>
+      </c>
+      <c r="H169" s="11">
+        <v>228</v>
+      </c>
+      <c r="I169" s="11">
+        <v>908</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
@@ -4912,14 +5361,17 @@
       <c r="E170" s="6">
         <v>3</v>
       </c>
-      <c r="G170" s="12">
-        <v>165.09091000000001</v>
-      </c>
-      <c r="H170" s="12">
-        <v>8632.5214799999994</v>
-      </c>
-      <c r="I170" s="12">
-        <v>541.41076999999996</v>
+      <c r="F170" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="11">
+        <v>8632</v>
+      </c>
+      <c r="H170" s="11">
+        <v>165</v>
+      </c>
+      <c r="I170" s="11">
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
@@ -4938,14 +5390,17 @@
       <c r="E171" s="6">
         <v>15</v>
       </c>
-      <c r="G171" s="12">
-        <v>335.45456000000001</v>
-      </c>
-      <c r="H171" s="12">
-        <v>6832.1738299999997</v>
-      </c>
-      <c r="I171" s="12">
-        <v>758.43933000000004</v>
+      <c r="F171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="11">
+        <v>6832</v>
+      </c>
+      <c r="H171" s="11">
+        <v>335</v>
+      </c>
+      <c r="I171" s="11">
+        <v>758</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
@@ -4964,14 +5419,17 @@
       <c r="E172" s="6">
         <v>3</v>
       </c>
-      <c r="G172" s="12">
-        <v>228.36363</v>
-      </c>
-      <c r="H172" s="12">
-        <v>8404.5214799999994</v>
-      </c>
-      <c r="I172" s="12">
-        <v>317.14321999999999</v>
+      <c r="F172" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="11">
+        <v>8404</v>
+      </c>
+      <c r="H172" s="11">
+        <v>228</v>
+      </c>
+      <c r="I172" s="11">
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
@@ -4990,14 +5448,17 @@
       <c r="E173" s="6">
         <v>3</v>
       </c>
-      <c r="G173" s="12">
-        <v>219.27271999999999</v>
-      </c>
-      <c r="H173" s="12">
-        <v>8430.4345699999994</v>
-      </c>
-      <c r="I173" s="12">
-        <v>272.60714999999999</v>
+      <c r="F173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="11">
+        <v>8430</v>
+      </c>
+      <c r="H173" s="11">
+        <v>219</v>
+      </c>
+      <c r="I173" s="11">
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
@@ -5019,14 +5480,14 @@
       <c r="F174" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G174" s="12">
-        <v>138.54545999999999</v>
-      </c>
-      <c r="H174" s="12">
-        <v>8636.6953099999992</v>
-      </c>
-      <c r="I174" s="12">
-        <v>572.36321999999996</v>
+      <c r="G174" s="11">
+        <v>8636</v>
+      </c>
+      <c r="H174" s="11">
+        <v>138</v>
+      </c>
+      <c r="I174" s="11">
+        <v>572</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
@@ -5045,14 +5506,17 @@
       <c r="E175" s="6">
         <v>3</v>
       </c>
-      <c r="G175" s="12">
-        <v>218.18181999999999</v>
-      </c>
-      <c r="H175" s="12">
-        <v>8275.4785200000006</v>
-      </c>
-      <c r="I175" s="12">
-        <v>888.28081999999995</v>
+      <c r="F175" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="11">
+        <v>8275</v>
+      </c>
+      <c r="H175" s="11">
+        <v>218</v>
+      </c>
+      <c r="I175" s="11">
+        <v>888</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
@@ -5071,14 +5535,17 @@
       <c r="E176" s="6">
         <v>3</v>
       </c>
-      <c r="G176" s="12">
-        <v>227.63637</v>
-      </c>
-      <c r="H176" s="12">
-        <v>7813.91309</v>
-      </c>
-      <c r="I176" s="12">
-        <v>536.32483000000002</v>
+      <c r="F176" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="11">
+        <v>7813</v>
+      </c>
+      <c r="H176" s="11">
+        <v>227</v>
+      </c>
+      <c r="I176" s="11">
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
@@ -5097,14 +5564,17 @@
       <c r="E177" s="6">
         <v>3</v>
       </c>
-      <c r="G177" s="12">
-        <v>493.27274</v>
-      </c>
-      <c r="H177" s="12">
-        <v>5761.0434599999999</v>
-      </c>
-      <c r="I177" s="12">
-        <v>1975.28015</v>
+      <c r="F177" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" s="11">
+        <v>5761</v>
+      </c>
+      <c r="H177" s="11">
+        <v>493</v>
+      </c>
+      <c r="I177" s="11">
+        <v>1975</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
@@ -5123,14 +5593,17 @@
       <c r="E178" s="6">
         <v>3</v>
       </c>
-      <c r="G178" s="12">
-        <v>295.27274</v>
-      </c>
-      <c r="H178" s="12">
-        <v>7837.3911099999996</v>
-      </c>
-      <c r="I178" s="12">
-        <v>344.35991999999999</v>
+      <c r="F178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="11">
+        <v>7837</v>
+      </c>
+      <c r="H178" s="11">
+        <v>295</v>
+      </c>
+      <c r="I178" s="11">
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
@@ -5149,14 +5622,17 @@
       <c r="E179" s="6">
         <v>15</v>
       </c>
-      <c r="G179" s="12">
-        <v>309.09091000000001</v>
-      </c>
-      <c r="H179" s="12">
-        <v>7107.4780300000002</v>
-      </c>
-      <c r="I179" s="12">
-        <v>1011.25153</v>
+      <c r="F179" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="11">
+        <v>7107</v>
+      </c>
+      <c r="H179" s="11">
+        <v>309</v>
+      </c>
+      <c r="I179" s="11">
+        <v>1011</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
@@ -5175,14 +5651,17 @@
       <c r="E180" s="6">
         <v>15</v>
       </c>
-      <c r="G180" s="12">
-        <v>369.63634999999999</v>
-      </c>
-      <c r="H180" s="12">
-        <v>6499.6523399999996</v>
-      </c>
-      <c r="I180" s="12">
-        <v>701.14080999999999</v>
+      <c r="F180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="11">
+        <v>6499</v>
+      </c>
+      <c r="H180" s="11">
+        <v>369</v>
+      </c>
+      <c r="I180" s="11">
+        <v>701</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
@@ -5201,14 +5680,17 @@
       <c r="E181" s="6">
         <v>3</v>
       </c>
-      <c r="G181" s="12">
-        <v>435.27274</v>
-      </c>
-      <c r="H181" s="12">
-        <v>6677.91309</v>
-      </c>
-      <c r="I181" s="12">
-        <v>1383.2741699999999</v>
+      <c r="F181" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="11">
+        <v>6677</v>
+      </c>
+      <c r="H181" s="11">
+        <v>435</v>
+      </c>
+      <c r="I181" s="11">
+        <v>1383</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
@@ -5227,14 +5709,17 @@
       <c r="E182" s="6">
         <v>15</v>
       </c>
-      <c r="G182" s="12">
-        <v>347.27274</v>
-      </c>
-      <c r="H182" s="12">
+      <c r="F182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="11">
         <v>5318</v>
       </c>
-      <c r="I182" s="12">
-        <v>454.29946999999999</v>
+      <c r="H182" s="11">
+        <v>347</v>
+      </c>
+      <c r="I182" s="11">
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
@@ -5253,14 +5738,17 @@
       <c r="E183" s="6">
         <v>15</v>
       </c>
-      <c r="G183" s="12">
-        <v>367.09091000000001</v>
-      </c>
-      <c r="H183" s="12">
-        <v>7318.9565400000001</v>
-      </c>
-      <c r="I183" s="12">
-        <v>600.02368000000001</v>
+      <c r="F183" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="11">
+        <v>7318</v>
+      </c>
+      <c r="H183" s="11">
+        <v>367</v>
+      </c>
+      <c r="I183" s="11">
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
@@ -5279,14 +5767,17 @@
       <c r="E184" s="6">
         <v>15</v>
       </c>
-      <c r="G184" s="12">
-        <v>305.09091000000001</v>
-      </c>
-      <c r="H184" s="12">
-        <v>6979.6523399999996</v>
-      </c>
-      <c r="I184" s="12">
-        <v>945.08965999999998</v>
+      <c r="F184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="11">
+        <v>6979</v>
+      </c>
+      <c r="H184" s="11">
+        <v>305</v>
+      </c>
+      <c r="I184" s="11">
+        <v>945</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
@@ -5305,14 +5796,17 @@
       <c r="E185" s="6">
         <v>15</v>
       </c>
-      <c r="G185" s="12">
-        <v>368.36365000000001</v>
-      </c>
-      <c r="H185" s="12">
-        <v>5669.1303699999999</v>
-      </c>
-      <c r="I185" s="12">
-        <v>986.70818999999995</v>
+      <c r="F185" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="11">
+        <v>5669</v>
+      </c>
+      <c r="H185" s="11">
+        <v>368</v>
+      </c>
+      <c r="I185" s="11">
+        <v>986</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
@@ -5331,14 +5825,17 @@
       <c r="E186" s="6">
         <v>15</v>
       </c>
-      <c r="G186" s="12">
-        <v>328.36365000000001</v>
-      </c>
-      <c r="H186" s="12">
-        <v>5713.7392600000003</v>
-      </c>
-      <c r="I186" s="12">
-        <v>540.45758000000001</v>
+      <c r="F186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="11">
+        <v>5713</v>
+      </c>
+      <c r="H186" s="11">
+        <v>328</v>
+      </c>
+      <c r="I186" s="11">
+        <v>540</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
@@ -5357,14 +5854,17 @@
       <c r="E187" s="6">
         <v>15</v>
       </c>
-      <c r="G187" s="12">
-        <v>344.18182000000002</v>
-      </c>
-      <c r="H187" s="12">
-        <v>6154.6088900000004</v>
-      </c>
-      <c r="I187" s="12">
-        <v>541.13726999999994</v>
+      <c r="F187" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" s="11">
+        <v>6154</v>
+      </c>
+      <c r="H187" s="11">
+        <v>344</v>
+      </c>
+      <c r="I187" s="11">
+        <v>541</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
@@ -5383,14 +5883,17 @@
       <c r="E188" s="6">
         <v>3</v>
       </c>
-      <c r="G188" s="12">
+      <c r="F188" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="11">
+        <v>6478</v>
+      </c>
+      <c r="H188" s="11">
         <v>338</v>
       </c>
-      <c r="H188" s="12">
-        <v>6478.9565400000001</v>
-      </c>
-      <c r="I188" s="12">
-        <v>1023.90613</v>
+      <c r="I188" s="11">
+        <v>1023</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
@@ -5409,14 +5912,17 @@
       <c r="E189" s="6">
         <v>15</v>
       </c>
-      <c r="G189" s="12">
-        <v>382.54543999999999</v>
-      </c>
-      <c r="H189" s="12">
+      <c r="F189" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" s="11">
         <v>6528</v>
       </c>
-      <c r="I189" s="12">
-        <v>1364.77576</v>
+      <c r="H189" s="11">
+        <v>382</v>
+      </c>
+      <c r="I189" s="11">
+        <v>1364</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -5435,14 +5941,17 @@
       <c r="E190" s="6">
         <v>3</v>
       </c>
-      <c r="G190" s="12">
-        <v>360.36365000000001</v>
-      </c>
-      <c r="H190" s="12">
-        <v>7691.8261700000003</v>
-      </c>
-      <c r="I190" s="12">
-        <v>1026.60645</v>
+      <c r="F190" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" s="11">
+        <v>7691</v>
+      </c>
+      <c r="H190" s="11">
+        <v>360</v>
+      </c>
+      <c r="I190" s="11">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/data input/Station_data.xlsx
+++ b/data input/Station_data.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,7 +441,8 @@
     <col min="5" max="5" width="16.7265625" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" style="12" customWidth="1"/>
-    <col min="8" max="9" width="13.08984375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -469,7 +470,7 @@
       <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -586,7 +587,7 @@
         <v>381</v>
       </c>
       <c r="I5" s="11">
-        <v>489</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -731,7 +732,7 @@
         <v>291</v>
       </c>
       <c r="I10" s="11">
-        <v>605</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1137,7 +1138,7 @@
         <v>208</v>
       </c>
       <c r="I24" s="11">
-        <v>774</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1456,7 +1457,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="11">
-        <v>1514</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1717,7 +1718,7 @@
         <v>401</v>
       </c>
       <c r="I44" s="11">
-        <v>1790</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1833,7 +1834,7 @@
         <v>419</v>
       </c>
       <c r="I48" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1978,7 +1979,7 @@
         <v>208</v>
       </c>
       <c r="I53" s="11">
-        <v>125</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2007,7 +2008,7 @@
         <v>472</v>
       </c>
       <c r="I54" s="11">
-        <v>600</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2094,7 +2095,7 @@
         <v>152</v>
       </c>
       <c r="I57" s="11">
-        <v>1694</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2413,7 +2414,7 @@
         <v>236</v>
       </c>
       <c r="I68" s="11">
-        <v>458</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2471,7 +2472,7 @@
         <v>268</v>
       </c>
       <c r="I70" s="11">
-        <v>671</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2529,7 +2530,7 @@
         <v>426</v>
       </c>
       <c r="I72" s="11">
-        <v>1092</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2819,7 +2820,7 @@
         <v>190</v>
       </c>
       <c r="I82" s="11">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3022,7 +3023,7 @@
         <v>670</v>
       </c>
       <c r="I89" s="11">
-        <v>2112</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3254,7 +3255,7 @@
         <v>318</v>
       </c>
       <c r="I97" s="11">
-        <v>792</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,7 +3371,7 @@
         <v>337</v>
       </c>
       <c r="I101" s="11">
-        <v>713</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3515,7 +3516,7 @@
         <v>434</v>
       </c>
       <c r="I106" s="11">
-        <v>2376</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3689,7 +3690,7 @@
         <v>321</v>
       </c>
       <c r="I112" s="11">
-        <v>657</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3834,7 +3835,7 @@
         <v>406</v>
       </c>
       <c r="I117" s="11">
-        <v>706</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -3892,7 +3893,7 @@
         <v>338</v>
       </c>
       <c r="I119" s="11">
-        <v>489</v>
+        <v>672</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -4153,7 +4154,7 @@
         <v>179</v>
       </c>
       <c r="I128" s="11">
-        <v>540</v>
+        <v>641</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -4240,7 +4241,7 @@
         <v>234</v>
       </c>
       <c r="I131" s="11">
-        <v>837</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -4298,7 +4299,7 @@
         <v>433</v>
       </c>
       <c r="I133" s="11">
-        <v>1575</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -4733,7 +4734,7 @@
         <v>241</v>
       </c>
       <c r="I148" s="11">
-        <v>479</v>
+        <v>826</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
@@ -4878,7 +4879,7 @@
         <v>281</v>
       </c>
       <c r="I153" s="11">
-        <v>1882</v>
+        <v>951</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -4994,7 +4995,7 @@
         <v>366</v>
       </c>
       <c r="I157" s="11">
-        <v>647</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -5313,7 +5314,7 @@
         <v>174</v>
       </c>
       <c r="I168" s="11">
-        <v>758</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
@@ -5342,7 +5343,7 @@
         <v>228</v>
       </c>
       <c r="I169" s="11">
-        <v>908</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
@@ -5458,7 +5459,7 @@
         <v>219</v>
       </c>
       <c r="I173" s="11">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
@@ -5487,7 +5488,7 @@
         <v>138</v>
       </c>
       <c r="I174" s="11">
-        <v>572</v>
+        <v>687</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
@@ -5603,7 +5604,7 @@
         <v>295</v>
       </c>
       <c r="I178" s="11">
-        <v>344</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
@@ -5661,7 +5662,7 @@
         <v>369</v>
       </c>
       <c r="I180" s="11">
-        <v>701</v>
+        <v>980</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
@@ -5806,7 +5807,7 @@
         <v>368</v>
       </c>
       <c r="I185" s="11">
-        <v>986</v>
+        <v>892</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">

--- a/data input/Station_data.xlsx
+++ b/data input/Station_data.xlsx
@@ -78,9 +78,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -145,7 +142,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +425,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,9 +436,6 @@
     <col min="4" max="4" width="10.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -464,13 +457,13 @@
       <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -493,13 +486,13 @@
       <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2">
         <v>8027</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2">
         <v>170</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2">
         <v>2134</v>
       </c>
     </row>
@@ -522,13 +515,13 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>6237</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3">
         <v>260</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3">
         <v>1154</v>
       </c>
     </row>
@@ -551,13 +544,13 @@
       <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <v>7559</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4">
         <v>340</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4">
         <v>2190</v>
       </c>
     </row>
@@ -580,13 +573,13 @@
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11">
-        <v>7009</v>
-      </c>
-      <c r="H5" s="11">
-        <v>381</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5">
+        <v>6872</v>
+      </c>
+      <c r="H5">
+        <v>337</v>
+      </c>
+      <c r="I5">
         <v>734</v>
       </c>
     </row>
@@ -609,13 +602,13 @@
       <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6">
         <v>6118</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6">
         <v>278</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6">
         <v>80</v>
       </c>
     </row>
@@ -638,13 +631,13 @@
       <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7">
         <v>6173</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7">
         <v>478</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7">
         <v>351</v>
       </c>
     </row>
@@ -667,13 +660,13 @@
       <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8">
         <v>6132</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8">
         <v>309</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8">
         <v>829</v>
       </c>
     </row>
@@ -696,13 +689,13 @@
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9">
         <v>6684</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9">
         <v>325</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9">
         <v>268</v>
       </c>
     </row>
@@ -725,13 +718,13 @@
       <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="11">
-        <v>6765</v>
-      </c>
-      <c r="H10" s="11">
-        <v>291</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="G10">
+        <v>6835</v>
+      </c>
+      <c r="H10">
+        <v>287</v>
+      </c>
+      <c r="I10">
         <v>547</v>
       </c>
     </row>
@@ -754,13 +747,13 @@
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11">
         <v>6645</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11">
         <v>226</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11">
         <v>408</v>
       </c>
     </row>
@@ -783,13 +776,13 @@
       <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12">
         <v>6605</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12">
         <v>281</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12">
         <v>434</v>
       </c>
     </row>
@@ -812,13 +805,13 @@
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13">
         <v>6554</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13">
         <v>291</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13">
         <v>731</v>
       </c>
     </row>
@@ -841,13 +834,13 @@
       <c r="F14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14">
         <v>6020</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14">
         <v>236</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14">
         <v>498</v>
       </c>
     </row>
@@ -870,13 +863,13 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15">
         <v>6659</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15">
         <v>226</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15">
         <v>536</v>
       </c>
     </row>
@@ -899,13 +892,13 @@
       <c r="F16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16">
         <v>6128</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16">
         <v>298</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16">
         <v>807</v>
       </c>
     </row>
@@ -928,13 +921,13 @@
       <c r="F17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17">
         <v>5882</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17">
         <v>367</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17">
         <v>297</v>
       </c>
     </row>
@@ -957,13 +950,13 @@
       <c r="F18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18">
         <v>6065</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18">
         <v>308</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18">
         <v>230</v>
       </c>
     </row>
@@ -986,13 +979,13 @@
       <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19">
         <v>6189</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19">
         <v>256</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19">
         <v>612</v>
       </c>
     </row>
@@ -1015,13 +1008,13 @@
       <c r="F20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20">
         <v>6663</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20">
         <v>271</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20">
         <v>592</v>
       </c>
     </row>
@@ -1044,13 +1037,13 @@
       <c r="F21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21">
         <v>6388</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21">
         <v>287</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21">
         <v>1593</v>
       </c>
     </row>
@@ -1073,13 +1066,13 @@
       <c r="F22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22">
         <v>6352</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22">
         <v>298</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22">
         <v>816</v>
       </c>
     </row>
@@ -1102,13 +1095,13 @@
       <c r="F23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23">
         <v>5961</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23">
         <v>331</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23">
         <v>299</v>
       </c>
     </row>
@@ -1131,13 +1124,13 @@
       <c r="F24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="11">
-        <v>6504</v>
-      </c>
-      <c r="H24" s="11">
-        <v>208</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="G24">
+        <v>6396</v>
+      </c>
+      <c r="H24">
+        <v>198</v>
+      </c>
+      <c r="I24">
         <v>784</v>
       </c>
     </row>
@@ -1160,13 +1153,13 @@
       <c r="F25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25">
         <v>7154</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25">
         <v>190</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25">
         <v>978</v>
       </c>
     </row>
@@ -1189,13 +1182,13 @@
       <c r="F26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26">
         <v>6614</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26">
         <v>206</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26">
         <v>1172</v>
       </c>
     </row>
@@ -1218,13 +1211,13 @@
       <c r="F27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27">
         <v>6632</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27">
         <v>393</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27">
         <v>1265</v>
       </c>
     </row>
@@ -1247,13 +1240,13 @@
       <c r="F28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28">
         <v>6847</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28">
         <v>233</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28">
         <v>1236</v>
       </c>
     </row>
@@ -1276,13 +1269,13 @@
       <c r="F29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29">
         <v>7819</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29">
         <v>231</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29">
         <v>1157</v>
       </c>
     </row>
@@ -1305,13 +1298,13 @@
       <c r="F30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30">
         <v>6653</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30">
         <v>237</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30">
         <v>1172</v>
       </c>
     </row>
@@ -1334,13 +1327,13 @@
       <c r="F31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31">
         <v>5957</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31">
         <v>253</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31">
         <v>392</v>
       </c>
     </row>
@@ -1363,13 +1356,13 @@
       <c r="F32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32">
         <v>6295</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32">
         <v>480</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32">
         <v>864</v>
       </c>
     </row>
@@ -1392,13 +1385,13 @@
       <c r="F33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33">
         <v>7934</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33">
         <v>212</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33">
         <v>1465</v>
       </c>
     </row>
@@ -1421,13 +1414,13 @@
       <c r="F34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34">
         <v>8796</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34">
         <v>152</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34">
         <v>111</v>
       </c>
     </row>
@@ -1450,13 +1443,13 @@
       <c r="F35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35">
         <v>7775</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35">
         <v>343</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35">
         <v>1564</v>
       </c>
     </row>
@@ -1479,13 +1472,13 @@
       <c r="F36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36">
         <v>7583</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36">
         <v>218</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36">
         <v>2001</v>
       </c>
     </row>
@@ -1508,13 +1501,13 @@
       <c r="F37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="11">
-        <v>6455</v>
-      </c>
-      <c r="H37" s="11">
-        <v>359</v>
-      </c>
-      <c r="I37" s="11">
+      <c r="G37">
+        <v>6368</v>
+      </c>
+      <c r="H37">
+        <v>376</v>
+      </c>
+      <c r="I37">
         <v>196</v>
       </c>
     </row>
@@ -1537,13 +1530,13 @@
       <c r="F38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38">
         <v>8425</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38">
         <v>186</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38">
         <v>924</v>
       </c>
     </row>
@@ -1566,13 +1559,13 @@
       <c r="F39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39">
         <v>5740</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39">
         <v>415</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39">
         <v>255</v>
       </c>
     </row>
@@ -1595,13 +1588,13 @@
       <c r="F40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40">
         <v>7131</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40">
         <v>357</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40">
         <v>960</v>
       </c>
     </row>
@@ -1624,13 +1617,13 @@
       <c r="F41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41">
         <v>6566</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41">
         <v>347</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41">
         <v>1115</v>
       </c>
     </row>
@@ -1653,13 +1646,13 @@
       <c r="F42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42">
         <v>6573</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42">
         <v>333</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42">
         <v>1144</v>
       </c>
     </row>
@@ -1682,13 +1675,13 @@
       <c r="F43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43">
         <v>5618</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43">
         <v>264</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43">
         <v>266</v>
       </c>
     </row>
@@ -1711,13 +1704,13 @@
       <c r="F44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="11">
-        <v>6676</v>
-      </c>
-      <c r="H44" s="11">
-        <v>401</v>
-      </c>
-      <c r="I44" s="11">
+      <c r="G44">
+        <v>6152</v>
+      </c>
+      <c r="H44">
+        <v>394</v>
+      </c>
+      <c r="I44">
         <v>1842</v>
       </c>
     </row>
@@ -1740,13 +1733,13 @@
       <c r="F45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45">
         <v>6821</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45">
         <v>340</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45">
         <v>1358</v>
       </c>
     </row>
@@ -1769,13 +1762,13 @@
       <c r="F46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46">
         <v>5714</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46">
         <v>270</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46">
         <v>202</v>
       </c>
     </row>
@@ -1798,13 +1791,13 @@
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47">
         <v>5739</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47">
         <v>322</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47">
         <v>424</v>
       </c>
     </row>
@@ -1827,13 +1820,13 @@
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48">
         <v>5755</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48">
         <v>419</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48">
         <v>230</v>
       </c>
     </row>
@@ -1856,13 +1849,13 @@
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49">
         <v>5451</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49">
         <v>303</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49">
         <v>167</v>
       </c>
     </row>
@@ -1885,13 +1878,13 @@
       <c r="F50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50">
         <v>7089</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50">
         <v>264</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50">
         <v>1334</v>
       </c>
     </row>
@@ -1914,13 +1907,13 @@
       <c r="F51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51">
         <v>7440</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51">
         <v>390</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51">
         <v>1375</v>
       </c>
     </row>
@@ -1943,13 +1936,13 @@
       <c r="F52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52">
         <v>6425</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52">
         <v>244</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52">
         <v>1673</v>
       </c>
     </row>
@@ -1972,13 +1965,13 @@
       <c r="F53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="11">
-        <v>5392</v>
-      </c>
-      <c r="H53" s="11">
-        <v>208</v>
-      </c>
-      <c r="I53" s="11">
+      <c r="G53">
+        <v>5513</v>
+      </c>
+      <c r="H53">
+        <v>237</v>
+      </c>
+      <c r="I53">
         <v>576</v>
       </c>
     </row>
@@ -2001,13 +1994,13 @@
       <c r="F54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54">
         <v>7364</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54">
         <v>472</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54">
         <v>1102</v>
       </c>
     </row>
@@ -2030,13 +2023,13 @@
       <c r="F55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55">
         <v>6358</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55">
         <v>521</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55">
         <v>964</v>
       </c>
     </row>
@@ -2059,13 +2052,13 @@
       <c r="F56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56">
         <v>6270</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56">
         <v>454</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56">
         <v>1379</v>
       </c>
     </row>
@@ -2088,13 +2081,13 @@
       <c r="F57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="11">
-        <v>8206</v>
-      </c>
-      <c r="H57" s="11">
-        <v>152</v>
-      </c>
-      <c r="I57" s="11">
+      <c r="G57">
+        <v>8618</v>
+      </c>
+      <c r="H57">
+        <v>189</v>
+      </c>
+      <c r="I57">
         <v>192</v>
       </c>
     </row>
@@ -2117,13 +2110,13 @@
       <c r="F58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58">
         <v>7309</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58">
         <v>296</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58">
         <v>917</v>
       </c>
     </row>
@@ -2146,13 +2139,13 @@
       <c r="F59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59">
         <v>6574</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59">
         <v>779</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59">
         <v>1115</v>
       </c>
     </row>
@@ -2175,13 +2168,13 @@
       <c r="F60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60">
         <v>6744</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60">
         <v>331</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60">
         <v>417</v>
       </c>
     </row>
@@ -2204,13 +2197,13 @@
       <c r="F61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="11">
-        <v>7957</v>
-      </c>
-      <c r="H61" s="11">
-        <v>198</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="G61">
+        <v>7970</v>
+      </c>
+      <c r="H61">
+        <v>200</v>
+      </c>
+      <c r="I61">
         <v>609</v>
       </c>
     </row>
@@ -2233,13 +2226,13 @@
       <c r="F62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62">
         <v>6003</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62">
         <v>880</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62">
         <v>649</v>
       </c>
     </row>
@@ -2262,13 +2255,13 @@
       <c r="F63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63">
         <v>8065</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63">
         <v>186</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63">
         <v>899</v>
       </c>
     </row>
@@ -2291,13 +2284,13 @@
       <c r="F64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64">
         <v>6354</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64">
         <v>678</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64">
         <v>1331</v>
       </c>
     </row>
@@ -2320,13 +2313,13 @@
       <c r="F65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="11">
-        <v>8028</v>
-      </c>
-      <c r="H65" s="11">
-        <v>204</v>
-      </c>
-      <c r="I65" s="11">
+      <c r="G65">
+        <v>7692</v>
+      </c>
+      <c r="H65">
+        <v>263</v>
+      </c>
+      <c r="I65">
         <v>975</v>
       </c>
     </row>
@@ -2349,13 +2342,13 @@
       <c r="F66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66">
         <v>7894</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66">
         <v>212</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66">
         <v>993</v>
       </c>
     </row>
@@ -2378,13 +2371,13 @@
       <c r="F67" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67">
         <v>7502</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67">
         <v>212</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67">
         <v>1672</v>
       </c>
     </row>
@@ -2407,13 +2400,13 @@
       <c r="F68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68">
         <v>8234</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68">
         <v>236</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68">
         <v>637</v>
       </c>
     </row>
@@ -2436,13 +2429,13 @@
       <c r="F69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69">
         <v>6314</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69">
         <v>329</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69">
         <v>1109</v>
       </c>
     </row>
@@ -2465,13 +2458,13 @@
       <c r="F70" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70">
         <v>7689</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70">
         <v>268</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70">
         <v>1391</v>
       </c>
     </row>
@@ -2494,13 +2487,13 @@
       <c r="F71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="11">
-        <v>7058</v>
-      </c>
-      <c r="H71" s="11">
-        <v>294</v>
-      </c>
-      <c r="I71" s="11">
+      <c r="G71">
+        <v>7450</v>
+      </c>
+      <c r="H71">
+        <v>309</v>
+      </c>
+      <c r="I71">
         <v>1654</v>
       </c>
     </row>
@@ -2523,13 +2516,13 @@
       <c r="F72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="11">
-        <v>7516</v>
-      </c>
-      <c r="H72" s="11">
-        <v>426</v>
-      </c>
-      <c r="I72" s="11">
+      <c r="G72">
+        <v>7926</v>
+      </c>
+      <c r="H72">
+        <v>337</v>
+      </c>
+      <c r="I72">
         <v>539</v>
       </c>
     </row>
@@ -2552,13 +2545,13 @@
       <c r="F73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73">
         <v>6512</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73">
         <v>632</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73">
         <v>1611</v>
       </c>
     </row>
@@ -2581,13 +2574,13 @@
       <c r="F74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74">
         <v>7406</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74">
         <v>304</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74">
         <v>1588</v>
       </c>
     </row>
@@ -2610,13 +2603,13 @@
       <c r="F75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75">
         <v>7794</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75">
         <v>307</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75">
         <v>1379</v>
       </c>
     </row>
@@ -2639,13 +2632,13 @@
       <c r="F76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76">
         <v>7138</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76">
         <v>299</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76">
         <v>1104</v>
       </c>
     </row>
@@ -2668,13 +2661,13 @@
       <c r="F77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77">
         <v>6934</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77">
         <v>388</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77">
         <v>1595</v>
       </c>
     </row>
@@ -2697,13 +2690,13 @@
       <c r="F78" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78">
         <v>8317</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78">
         <v>230</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78">
         <v>1904</v>
       </c>
     </row>
@@ -2726,13 +2719,13 @@
       <c r="F79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79">
         <v>8071</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79">
         <v>383</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79">
         <v>1753</v>
       </c>
     </row>
@@ -2755,13 +2748,13 @@
       <c r="F80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="11">
-        <v>7582</v>
-      </c>
-      <c r="H80" s="11">
-        <v>569</v>
-      </c>
-      <c r="I80" s="11">
+      <c r="G80">
+        <v>7857</v>
+      </c>
+      <c r="H80">
+        <v>313</v>
+      </c>
+      <c r="I80">
         <v>295</v>
       </c>
     </row>
@@ -2784,13 +2777,13 @@
       <c r="F81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81">
         <v>6255</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81">
         <v>869</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81">
         <v>631</v>
       </c>
     </row>
@@ -2813,13 +2806,13 @@
       <c r="F82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="11">
-        <v>8685</v>
-      </c>
-      <c r="H82" s="11">
-        <v>190</v>
-      </c>
-      <c r="I82" s="11">
+      <c r="G82">
+        <v>8678</v>
+      </c>
+      <c r="H82">
+        <v>262</v>
+      </c>
+      <c r="I82">
         <v>233</v>
       </c>
     </row>
@@ -2842,13 +2835,13 @@
       <c r="F83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83">
         <v>6561</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83">
         <v>321</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83">
         <v>1931</v>
       </c>
     </row>
@@ -2871,13 +2864,13 @@
       <c r="F84" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84">
         <v>8560</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84">
         <v>205</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84">
         <v>368</v>
       </c>
     </row>
@@ -2900,13 +2893,13 @@
       <c r="F85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85">
         <v>8003</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85">
         <v>246</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I85">
         <v>398</v>
       </c>
     </row>
@@ -2929,13 +2922,13 @@
       <c r="F86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86">
         <v>8750</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86">
         <v>186</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86">
         <v>411</v>
       </c>
     </row>
@@ -2958,13 +2951,13 @@
       <c r="F87" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87">
         <v>7278</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87">
         <v>589</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87">
         <v>2041</v>
       </c>
     </row>
@@ -2987,13 +2980,13 @@
       <c r="F88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88">
         <v>8378</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88">
         <v>204</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I88">
         <v>626</v>
       </c>
     </row>
@@ -3016,13 +3009,13 @@
       <c r="F89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89">
         <v>7437</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89">
         <v>670</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I89">
         <v>2197</v>
       </c>
     </row>
@@ -3045,13 +3038,13 @@
       <c r="F90" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90">
         <v>8048</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90">
         <v>341</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I90">
         <v>966</v>
       </c>
     </row>
@@ -3074,13 +3067,13 @@
       <c r="F91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91">
         <v>6932</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91">
         <v>757</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I91">
         <v>1107</v>
       </c>
     </row>
@@ -3103,13 +3096,13 @@
       <c r="F92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92">
         <v>7208</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92">
         <v>290</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92">
         <v>1608</v>
       </c>
     </row>
@@ -3132,13 +3125,13 @@
       <c r="F93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93">
         <v>8108</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93">
         <v>240</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I93">
         <v>797</v>
       </c>
     </row>
@@ -3161,13 +3154,13 @@
       <c r="F94" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94">
         <v>6402</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94">
         <v>394</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I94">
         <v>1041</v>
       </c>
     </row>
@@ -3190,13 +3183,13 @@
       <c r="F95" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95">
         <v>6785</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95">
         <v>296</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95">
         <v>815</v>
       </c>
     </row>
@@ -3219,13 +3212,13 @@
       <c r="F96" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96">
         <v>6788</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96">
         <v>369</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96">
         <v>1676</v>
       </c>
     </row>
@@ -3248,13 +3241,13 @@
       <c r="F97" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="11">
-        <v>7192</v>
-      </c>
-      <c r="H97" s="11">
-        <v>318</v>
-      </c>
-      <c r="I97" s="11">
+      <c r="G97">
+        <v>6949</v>
+      </c>
+      <c r="H97">
+        <v>415</v>
+      </c>
+      <c r="I97">
         <v>578</v>
       </c>
     </row>
@@ -3277,13 +3270,13 @@
       <c r="F98" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98">
         <v>7681</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98">
         <v>225</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98">
         <v>822</v>
       </c>
     </row>
@@ -3306,13 +3299,13 @@
       <c r="F99" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99">
         <v>5530</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99">
         <v>844</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99">
         <v>627</v>
       </c>
     </row>
@@ -3335,13 +3328,13 @@
       <c r="F100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100">
         <v>6507</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100">
         <v>344</v>
       </c>
-      <c r="I100" s="11">
+      <c r="I100">
         <v>1200</v>
       </c>
     </row>
@@ -3364,13 +3357,13 @@
       <c r="F101" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="11">
-        <v>6356</v>
-      </c>
-      <c r="H101" s="11">
+      <c r="G101">
+        <v>6846</v>
+      </c>
+      <c r="H101">
         <v>337</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101">
         <v>1599</v>
       </c>
     </row>
@@ -3393,13 +3386,13 @@
       <c r="F102" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102">
         <v>5642</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102">
         <v>382</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102">
         <v>1209</v>
       </c>
     </row>
@@ -3422,13 +3415,13 @@
       <c r="F103" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103">
         <v>7810</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103">
         <v>389</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I103">
         <v>762</v>
       </c>
     </row>
@@ -3451,13 +3444,13 @@
       <c r="F104" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104">
         <v>5894</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104">
         <v>460</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104">
         <v>865</v>
       </c>
     </row>
@@ -3480,13 +3473,13 @@
       <c r="F105" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105">
         <v>6400</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105">
         <v>491</v>
       </c>
-      <c r="I105" s="11">
+      <c r="I105">
         <v>1384</v>
       </c>
     </row>
@@ -3509,13 +3502,13 @@
       <c r="F106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106">
         <v>7149</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106">
         <v>434</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106">
         <v>1755</v>
       </c>
     </row>
@@ -3538,13 +3531,13 @@
       <c r="F107" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107">
         <v>8003</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107">
         <v>237</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107">
         <v>330</v>
       </c>
     </row>
@@ -3567,13 +3560,13 @@
       <c r="F108" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108">
         <v>6592</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108">
         <v>435</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108">
         <v>2570</v>
       </c>
     </row>
@@ -3596,13 +3589,13 @@
       <c r="F109" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109">
         <v>6150</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109">
         <v>566</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109">
         <v>2120</v>
       </c>
     </row>
@@ -3625,13 +3618,13 @@
       <c r="F110" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110">
         <v>7092</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110">
         <v>285</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110">
         <v>1463</v>
       </c>
     </row>
@@ -3654,13 +3647,13 @@
       <c r="F111" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111">
         <v>6194</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111">
         <v>1003</v>
       </c>
-      <c r="I111" s="11">
+      <c r="I111">
         <v>421</v>
       </c>
     </row>
@@ -3683,13 +3676,13 @@
       <c r="F112" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112">
         <v>7413</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112">
         <v>321</v>
       </c>
-      <c r="I112" s="11">
+      <c r="I112">
         <v>2038</v>
       </c>
     </row>
@@ -3712,13 +3705,13 @@
       <c r="F113" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113">
         <v>5540</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113">
         <v>894</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I113">
         <v>1550</v>
       </c>
     </row>
@@ -3741,13 +3734,13 @@
       <c r="F114" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114">
         <v>5965</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114">
         <v>1075</v>
       </c>
-      <c r="I114" s="11">
+      <c r="I114">
         <v>992</v>
       </c>
     </row>
@@ -3770,13 +3763,13 @@
       <c r="F115" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115">
         <v>6438</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115">
         <v>343</v>
       </c>
-      <c r="I115" s="11">
+      <c r="I115">
         <v>568</v>
       </c>
     </row>
@@ -3799,13 +3792,13 @@
       <c r="F116" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="11">
-        <v>5684</v>
-      </c>
-      <c r="H116" s="11">
-        <v>1158</v>
-      </c>
-      <c r="I116" s="11">
+      <c r="G116">
+        <v>5315</v>
+      </c>
+      <c r="H116">
+        <v>1014</v>
+      </c>
+      <c r="I116">
         <v>426</v>
       </c>
     </row>
@@ -3828,13 +3821,13 @@
       <c r="F117" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="11">
-        <v>6184</v>
-      </c>
-      <c r="H117" s="11">
-        <v>406</v>
-      </c>
-      <c r="I117" s="11">
+      <c r="G117">
+        <v>5985</v>
+      </c>
+      <c r="H117">
+        <v>505</v>
+      </c>
+      <c r="I117">
         <v>361</v>
       </c>
     </row>
@@ -3857,13 +3850,13 @@
       <c r="F118" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118">
         <v>8275</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H118">
         <v>240</v>
       </c>
-      <c r="I118" s="11">
+      <c r="I118">
         <v>453</v>
       </c>
     </row>
@@ -3886,13 +3879,13 @@
       <c r="F119" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="11">
-        <v>6416</v>
-      </c>
-      <c r="H119" s="11">
-        <v>338</v>
-      </c>
-      <c r="I119" s="11">
+      <c r="G119">
+        <v>6338</v>
+      </c>
+      <c r="H119">
+        <v>292</v>
+      </c>
+      <c r="I119">
         <v>672</v>
       </c>
     </row>
@@ -3915,13 +3908,13 @@
       <c r="F120" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120">
         <v>8295</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120">
         <v>173</v>
       </c>
-      <c r="I120" s="11">
+      <c r="I120">
         <v>617</v>
       </c>
     </row>
@@ -3944,13 +3937,13 @@
       <c r="F121" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121">
         <v>7082</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121">
         <v>346</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121">
         <v>753</v>
       </c>
     </row>
@@ -3973,13 +3966,13 @@
       <c r="F122" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122">
         <v>7039</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122">
         <v>257</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122">
         <v>1355</v>
       </c>
     </row>
@@ -4002,13 +3995,13 @@
       <c r="F123" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123">
         <v>6542</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H123">
         <v>343</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123">
         <v>800</v>
       </c>
     </row>
@@ -4031,13 +4024,13 @@
       <c r="F124" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124">
         <v>7504</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H124">
         <v>389</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124">
         <v>476</v>
       </c>
     </row>
@@ -4060,13 +4053,13 @@
       <c r="F125" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125">
         <v>7467</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H125">
         <v>245</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I125">
         <v>796</v>
       </c>
     </row>
@@ -4089,13 +4082,13 @@
       <c r="F126" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126">
         <v>7349</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126">
         <v>328</v>
       </c>
-      <c r="I126" s="11">
+      <c r="I126">
         <v>528</v>
       </c>
     </row>
@@ -4118,13 +4111,13 @@
       <c r="F127" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127">
         <v>7681</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127">
         <v>267</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127">
         <v>1161</v>
       </c>
     </row>
@@ -4147,13 +4140,13 @@
       <c r="F128" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="11">
-        <v>8120</v>
-      </c>
-      <c r="H128" s="11">
-        <v>179</v>
-      </c>
-      <c r="I128" s="11">
+      <c r="G128">
+        <v>8128</v>
+      </c>
+      <c r="H128">
+        <v>198</v>
+      </c>
+      <c r="I128">
         <v>641</v>
       </c>
     </row>
@@ -4176,13 +4169,13 @@
       <c r="F129" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129">
         <v>7212</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129">
         <v>321</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129">
         <v>673</v>
       </c>
     </row>
@@ -4205,13 +4198,13 @@
       <c r="F130" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130">
         <v>7825</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130">
         <v>322</v>
       </c>
-      <c r="I130" s="11">
+      <c r="I130">
         <v>1264</v>
       </c>
     </row>
@@ -4234,13 +4227,13 @@
       <c r="F131" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="11">
-        <v>7488</v>
-      </c>
-      <c r="H131" s="11">
-        <v>234</v>
-      </c>
-      <c r="I131" s="11">
+      <c r="G131">
+        <v>7520</v>
+      </c>
+      <c r="H131">
+        <v>224</v>
+      </c>
+      <c r="I131">
         <v>1193</v>
       </c>
     </row>
@@ -4263,13 +4256,13 @@
       <c r="F132" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132">
         <v>8241</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132">
         <v>221</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I132">
         <v>1292</v>
       </c>
     </row>
@@ -4292,13 +4285,13 @@
       <c r="F133" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="11">
-        <v>7485</v>
-      </c>
-      <c r="H133" s="11">
-        <v>433</v>
-      </c>
-      <c r="I133" s="11">
+      <c r="G133">
+        <v>7523</v>
+      </c>
+      <c r="H133">
+        <v>346</v>
+      </c>
+      <c r="I133">
         <v>1178</v>
       </c>
     </row>
@@ -4321,13 +4314,13 @@
       <c r="F134" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="11">
+      <c r="G134">
         <v>7569</v>
       </c>
-      <c r="H134" s="11">
+      <c r="H134">
         <v>352</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134">
         <v>932</v>
       </c>
     </row>
@@ -4350,13 +4343,13 @@
       <c r="F135" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G135" s="11">
+      <c r="G135">
         <v>6890</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H135">
         <v>514</v>
       </c>
-      <c r="I135" s="11">
+      <c r="I135">
         <v>870</v>
       </c>
     </row>
@@ -4379,13 +4372,13 @@
       <c r="F136" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136">
         <v>6786</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H136">
         <v>294</v>
       </c>
-      <c r="I136" s="11">
+      <c r="I136">
         <v>678</v>
       </c>
     </row>
@@ -4408,13 +4401,13 @@
       <c r="F137" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137">
         <v>7783</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137">
         <v>237</v>
       </c>
-      <c r="I137" s="11">
+      <c r="I137">
         <v>661</v>
       </c>
     </row>
@@ -4437,13 +4430,13 @@
       <c r="F138" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138">
         <v>8336</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138">
         <v>187</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138">
         <v>424</v>
       </c>
     </row>
@@ -4466,13 +4459,13 @@
       <c r="F139" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139">
         <v>6703</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H139">
         <v>480</v>
       </c>
-      <c r="I139" s="11">
+      <c r="I139">
         <v>643</v>
       </c>
     </row>
@@ -4495,13 +4488,13 @@
       <c r="F140" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140">
         <v>7865</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H140">
         <v>232</v>
       </c>
-      <c r="I140" s="11">
+      <c r="I140">
         <v>698</v>
       </c>
     </row>
@@ -4524,13 +4517,13 @@
       <c r="F141" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141">
         <v>6918</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141">
         <v>358</v>
       </c>
-      <c r="I141" s="11">
+      <c r="I141">
         <v>1264</v>
       </c>
     </row>
@@ -4553,13 +4546,13 @@
       <c r="F142" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142">
         <v>7031</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H142">
         <v>406</v>
       </c>
-      <c r="I142" s="11">
+      <c r="I142">
         <v>899</v>
       </c>
     </row>
@@ -4582,13 +4575,13 @@
       <c r="F143" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143">
         <v>7034</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143">
         <v>408</v>
       </c>
-      <c r="I143" s="11">
+      <c r="I143">
         <v>687</v>
       </c>
     </row>
@@ -4611,13 +4604,13 @@
       <c r="F144" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144">
         <v>7809</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H144">
         <v>303</v>
       </c>
-      <c r="I144" s="11">
+      <c r="I144">
         <v>587</v>
       </c>
     </row>
@@ -4640,13 +4633,13 @@
       <c r="F145" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145">
         <v>8183</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H145">
         <v>199</v>
       </c>
-      <c r="I145" s="11">
+      <c r="I145">
         <v>476</v>
       </c>
     </row>
@@ -4669,13 +4662,13 @@
       <c r="F146" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146">
         <v>8090</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146">
         <v>301</v>
       </c>
-      <c r="I146" s="11">
+      <c r="I146">
         <v>634</v>
       </c>
     </row>
@@ -4698,13 +4691,13 @@
       <c r="F147" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147">
         <v>7961</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H147">
         <v>311</v>
       </c>
-      <c r="I147" s="11">
+      <c r="I147">
         <v>1467</v>
       </c>
     </row>
@@ -4727,13 +4720,13 @@
       <c r="F148" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="11">
-        <v>7906</v>
-      </c>
-      <c r="H148" s="11">
-        <v>241</v>
-      </c>
-      <c r="I148" s="11">
+      <c r="G148">
+        <v>7720</v>
+      </c>
+      <c r="H148">
+        <v>261</v>
+      </c>
+      <c r="I148">
         <v>826</v>
       </c>
     </row>
@@ -4756,13 +4749,13 @@
       <c r="F149" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G149" s="11">
+      <c r="G149">
         <v>7956</v>
       </c>
-      <c r="H149" s="11">
+      <c r="H149">
         <v>344</v>
       </c>
-      <c r="I149" s="11">
+      <c r="I149">
         <v>322</v>
       </c>
     </row>
@@ -4785,13 +4778,13 @@
       <c r="F150" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G150" s="11">
+      <c r="G150">
         <v>8450</v>
       </c>
-      <c r="H150" s="11">
+      <c r="H150">
         <v>294</v>
       </c>
-      <c r="I150" s="11">
+      <c r="I150">
         <v>494</v>
       </c>
     </row>
@@ -4814,13 +4807,13 @@
       <c r="F151" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G151" s="11">
+      <c r="G151">
         <v>8187</v>
       </c>
-      <c r="H151" s="11">
+      <c r="H151">
         <v>260</v>
       </c>
-      <c r="I151" s="11">
+      <c r="I151">
         <v>434</v>
       </c>
     </row>
@@ -4843,13 +4836,13 @@
       <c r="F152" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="11">
+      <c r="G152">
         <v>7274</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H152">
         <v>296</v>
       </c>
-      <c r="I152" s="11">
+      <c r="I152">
         <v>819</v>
       </c>
     </row>
@@ -4872,13 +4865,13 @@
       <c r="F153" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G153" s="11">
-        <v>7895</v>
-      </c>
-      <c r="H153" s="11">
-        <v>281</v>
-      </c>
-      <c r="I153" s="11">
+      <c r="G153">
+        <v>7603</v>
+      </c>
+      <c r="H153">
+        <v>354</v>
+      </c>
+      <c r="I153">
         <v>951</v>
       </c>
     </row>
@@ -4901,13 +4894,13 @@
       <c r="F154" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="11">
+      <c r="G154">
         <v>7980</v>
       </c>
-      <c r="H154" s="11">
+      <c r="H154">
         <v>246</v>
       </c>
-      <c r="I154" s="11">
+      <c r="I154">
         <v>876</v>
       </c>
     </row>
@@ -4930,13 +4923,13 @@
       <c r="F155" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="11">
+      <c r="G155">
         <v>7523</v>
       </c>
-      <c r="H155" s="11">
+      <c r="H155">
         <v>378</v>
       </c>
-      <c r="I155" s="11">
+      <c r="I155">
         <v>1146</v>
       </c>
     </row>
@@ -4959,13 +4952,13 @@
       <c r="F156" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="11">
-        <v>7898</v>
-      </c>
-      <c r="H156" s="11">
-        <v>277</v>
-      </c>
-      <c r="I156" s="11">
+      <c r="G156">
+        <v>7870</v>
+      </c>
+      <c r="H156">
+        <v>310</v>
+      </c>
+      <c r="I156">
         <v>1420</v>
       </c>
     </row>
@@ -4988,13 +4981,13 @@
       <c r="F157" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="11">
+      <c r="G157">
         <v>7579</v>
       </c>
-      <c r="H157" s="11">
+      <c r="H157">
         <v>366</v>
       </c>
-      <c r="I157" s="11">
+      <c r="I157">
         <v>1115</v>
       </c>
     </row>
@@ -5017,13 +5010,13 @@
       <c r="F158" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="11">
+      <c r="G158">
         <v>7864</v>
       </c>
-      <c r="H158" s="11">
+      <c r="H158">
         <v>281</v>
       </c>
-      <c r="I158" s="11">
+      <c r="I158">
         <v>1322</v>
       </c>
     </row>
@@ -5046,13 +5039,13 @@
       <c r="F159" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="11">
+      <c r="G159">
         <v>7328</v>
       </c>
-      <c r="H159" s="11">
+      <c r="H159">
         <v>331</v>
       </c>
-      <c r="I159" s="11">
+      <c r="I159">
         <v>883</v>
       </c>
     </row>
@@ -5075,13 +5068,13 @@
       <c r="F160" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="11">
+      <c r="G160">
         <v>7217</v>
       </c>
-      <c r="H160" s="11">
+      <c r="H160">
         <v>416</v>
       </c>
-      <c r="I160" s="11">
+      <c r="I160">
         <v>1286</v>
       </c>
     </row>
@@ -5104,13 +5097,13 @@
       <c r="F161" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="11">
+      <c r="G161">
         <v>7145</v>
       </c>
-      <c r="H161" s="11">
+      <c r="H161">
         <v>341</v>
       </c>
-      <c r="I161" s="11">
+      <c r="I161">
         <v>1612</v>
       </c>
     </row>
@@ -5133,13 +5126,13 @@
       <c r="F162" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="11">
+      <c r="G162">
         <v>8112</v>
       </c>
-      <c r="H162" s="11">
+      <c r="H162">
         <v>130</v>
       </c>
-      <c r="I162" s="11">
+      <c r="I162">
         <v>841</v>
       </c>
     </row>
@@ -5162,13 +5155,13 @@
       <c r="F163" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="11">
+      <c r="G163">
         <v>7850</v>
       </c>
-      <c r="H163" s="11">
+      <c r="H163">
         <v>397</v>
       </c>
-      <c r="I163" s="11">
+      <c r="I163">
         <v>856</v>
       </c>
     </row>
@@ -5191,13 +5184,13 @@
       <c r="F164" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="11">
+      <c r="G164">
         <v>6293</v>
       </c>
-      <c r="H164" s="11">
+      <c r="H164">
         <v>388</v>
       </c>
-      <c r="I164" s="11">
+      <c r="I164">
         <v>1065</v>
       </c>
     </row>
@@ -5220,13 +5213,13 @@
       <c r="F165" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="11">
-        <v>6843</v>
-      </c>
-      <c r="H165" s="11">
-        <v>396</v>
-      </c>
-      <c r="I165" s="11">
+      <c r="G165">
+        <v>6769</v>
+      </c>
+      <c r="H165">
+        <v>405</v>
+      </c>
+      <c r="I165">
         <v>512</v>
       </c>
     </row>
@@ -5249,13 +5242,13 @@
       <c r="F166" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="11">
+      <c r="G166">
         <v>8164</v>
       </c>
-      <c r="H166" s="11">
+      <c r="H166">
         <v>187</v>
       </c>
-      <c r="I166" s="11">
+      <c r="I166">
         <v>737</v>
       </c>
     </row>
@@ -5278,13 +5271,13 @@
       <c r="F167" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G167">
         <v>7579</v>
       </c>
-      <c r="H167" s="11">
+      <c r="H167">
         <v>257</v>
       </c>
-      <c r="I167" s="11">
+      <c r="I167">
         <v>974</v>
       </c>
     </row>
@@ -5307,13 +5300,13 @@
       <c r="F168" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G168" s="11">
-        <v>8554</v>
-      </c>
-      <c r="H168" s="11">
-        <v>174</v>
-      </c>
-      <c r="I168" s="11">
+      <c r="G168">
+        <v>8474</v>
+      </c>
+      <c r="H168">
+        <v>182</v>
+      </c>
+      <c r="I168">
         <v>488</v>
       </c>
     </row>
@@ -5336,13 +5329,13 @@
       <c r="F169" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="11">
-        <v>7699</v>
-      </c>
-      <c r="H169" s="11">
-        <v>228</v>
-      </c>
-      <c r="I169" s="11">
+      <c r="G169">
+        <v>7750</v>
+      </c>
+      <c r="H169">
+        <v>280</v>
+      </c>
+      <c r="I169">
         <v>601</v>
       </c>
     </row>
@@ -5365,13 +5358,13 @@
       <c r="F170" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="11">
+      <c r="G170">
         <v>8632</v>
       </c>
-      <c r="H170" s="11">
+      <c r="H170">
         <v>165</v>
       </c>
-      <c r="I170" s="11">
+      <c r="I170">
         <v>541</v>
       </c>
     </row>
@@ -5394,13 +5387,13 @@
       <c r="F171" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="11">
+      <c r="G171">
         <v>6832</v>
       </c>
-      <c r="H171" s="11">
+      <c r="H171">
         <v>335</v>
       </c>
-      <c r="I171" s="11">
+      <c r="I171">
         <v>758</v>
       </c>
     </row>
@@ -5423,13 +5416,13 @@
       <c r="F172" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="11">
+      <c r="G172">
         <v>8404</v>
       </c>
-      <c r="H172" s="11">
+      <c r="H172">
         <v>228</v>
       </c>
-      <c r="I172" s="11">
+      <c r="I172">
         <v>317</v>
       </c>
     </row>
@@ -5452,13 +5445,13 @@
       <c r="F173" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G173" s="11">
-        <v>8430</v>
-      </c>
-      <c r="H173" s="11">
-        <v>219</v>
-      </c>
-      <c r="I173" s="11">
+      <c r="G173">
+        <v>8389</v>
+      </c>
+      <c r="H173">
+        <v>191</v>
+      </c>
+      <c r="I173">
         <v>262</v>
       </c>
     </row>
@@ -5481,13 +5474,13 @@
       <c r="F174" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G174" s="11">
-        <v>8636</v>
-      </c>
-      <c r="H174" s="11">
-        <v>138</v>
-      </c>
-      <c r="I174" s="11">
+      <c r="G174">
+        <v>8538</v>
+      </c>
+      <c r="H174">
+        <v>153</v>
+      </c>
+      <c r="I174">
         <v>687</v>
       </c>
     </row>
@@ -5510,13 +5503,13 @@
       <c r="F175" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G175" s="11">
+      <c r="G175">
         <v>8275</v>
       </c>
-      <c r="H175" s="11">
+      <c r="H175">
         <v>218</v>
       </c>
-      <c r="I175" s="11">
+      <c r="I175">
         <v>888</v>
       </c>
     </row>
@@ -5539,13 +5532,13 @@
       <c r="F176" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G176" s="11">
+      <c r="G176">
         <v>7813</v>
       </c>
-      <c r="H176" s="11">
+      <c r="H176">
         <v>227</v>
       </c>
-      <c r="I176" s="11">
+      <c r="I176">
         <v>536</v>
       </c>
     </row>
@@ -5568,13 +5561,13 @@
       <c r="F177" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G177" s="11">
+      <c r="G177">
         <v>5761</v>
       </c>
-      <c r="H177" s="11">
+      <c r="H177">
         <v>493</v>
       </c>
-      <c r="I177" s="11">
+      <c r="I177">
         <v>1975</v>
       </c>
     </row>
@@ -5597,13 +5590,13 @@
       <c r="F178" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G178" s="11">
-        <v>7837</v>
-      </c>
-      <c r="H178" s="11">
-        <v>295</v>
-      </c>
-      <c r="I178" s="11">
+      <c r="G178">
+        <v>7946</v>
+      </c>
+      <c r="H178">
+        <v>296</v>
+      </c>
+      <c r="I178">
         <v>165</v>
       </c>
     </row>
@@ -5626,13 +5619,13 @@
       <c r="F179" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="11">
+      <c r="G179">
         <v>7107</v>
       </c>
-      <c r="H179" s="11">
+      <c r="H179">
         <v>309</v>
       </c>
-      <c r="I179" s="11">
+      <c r="I179">
         <v>1011</v>
       </c>
     </row>
@@ -5655,13 +5648,13 @@
       <c r="F180" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="11">
-        <v>6499</v>
-      </c>
-      <c r="H180" s="11">
-        <v>369</v>
-      </c>
-      <c r="I180" s="11">
+      <c r="G180">
+        <v>6923</v>
+      </c>
+      <c r="H180">
+        <v>358</v>
+      </c>
+      <c r="I180">
         <v>980</v>
       </c>
     </row>
@@ -5684,13 +5677,13 @@
       <c r="F181" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="11">
+      <c r="G181">
         <v>6677</v>
       </c>
-      <c r="H181" s="11">
+      <c r="H181">
         <v>435</v>
       </c>
-      <c r="I181" s="11">
+      <c r="I181">
         <v>1383</v>
       </c>
     </row>
@@ -5713,13 +5706,13 @@
       <c r="F182" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="11">
+      <c r="G182">
         <v>5318</v>
       </c>
-      <c r="H182" s="11">
+      <c r="H182">
         <v>347</v>
       </c>
-      <c r="I182" s="11">
+      <c r="I182">
         <v>454</v>
       </c>
     </row>
@@ -5742,13 +5735,13 @@
       <c r="F183" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="11">
+      <c r="G183">
         <v>7318</v>
       </c>
-      <c r="H183" s="11">
+      <c r="H183">
         <v>367</v>
       </c>
-      <c r="I183" s="11">
+      <c r="I183">
         <v>600</v>
       </c>
     </row>
@@ -5771,13 +5764,13 @@
       <c r="F184" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G184" s="11">
+      <c r="G184">
         <v>6979</v>
       </c>
-      <c r="H184" s="11">
+      <c r="H184">
         <v>305</v>
       </c>
-      <c r="I184" s="11">
+      <c r="I184">
         <v>945</v>
       </c>
     </row>
@@ -5800,13 +5793,13 @@
       <c r="F185" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G185" s="11">
-        <v>5669</v>
-      </c>
-      <c r="H185" s="11">
-        <v>368</v>
-      </c>
-      <c r="I185" s="11">
+      <c r="G185">
+        <v>5256</v>
+      </c>
+      <c r="H185">
+        <v>373</v>
+      </c>
+      <c r="I185">
         <v>892</v>
       </c>
     </row>
@@ -5829,13 +5822,13 @@
       <c r="F186" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G186" s="11">
+      <c r="G186">
         <v>5713</v>
       </c>
-      <c r="H186" s="11">
+      <c r="H186">
         <v>328</v>
       </c>
-      <c r="I186" s="11">
+      <c r="I186">
         <v>540</v>
       </c>
     </row>
@@ -5858,13 +5851,13 @@
       <c r="F187" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G187" s="11">
+      <c r="G187">
         <v>6154</v>
       </c>
-      <c r="H187" s="11">
+      <c r="H187">
         <v>344</v>
       </c>
-      <c r="I187" s="11">
+      <c r="I187">
         <v>541</v>
       </c>
     </row>
@@ -5887,13 +5880,13 @@
       <c r="F188" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G188" s="11">
+      <c r="G188">
         <v>6478</v>
       </c>
-      <c r="H188" s="11">
+      <c r="H188">
         <v>338</v>
       </c>
-      <c r="I188" s="11">
+      <c r="I188">
         <v>1023</v>
       </c>
     </row>
@@ -5916,13 +5909,13 @@
       <c r="F189" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="11">
+      <c r="G189">
         <v>6528</v>
       </c>
-      <c r="H189" s="11">
+      <c r="H189">
         <v>382</v>
       </c>
-      <c r="I189" s="11">
+      <c r="I189">
         <v>1364</v>
       </c>
     </row>
@@ -5945,13 +5938,13 @@
       <c r="F190" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="11">
+      <c r="G190">
         <v>7691</v>
       </c>
-      <c r="H190" s="11">
+      <c r="H190">
         <v>360</v>
       </c>
-      <c r="I190" s="11">
+      <c r="I190">
         <v>1026</v>
       </c>
     </row>

--- a/data input/Station_data.xlsx
+++ b/data input/Station_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="22">
   <si>
     <t>Days</t>
   </si>
@@ -73,11 +73,33 @@
   <si>
     <t>Unprotected</t>
   </si>
+  <si>
+    <t>Produ_750</t>
+  </si>
+  <si>
+    <t>Pheno_750</t>
+  </si>
+  <si>
+    <t>Struc_750</t>
+  </si>
+  <si>
+    <t>Produ_1250</t>
+  </si>
+  <si>
+    <t>Pheno_1250</t>
+  </si>
+  <si>
+    <t>Struc_1250</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -142,6 +164,8 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +462,7 @@
     <col min="6" max="6" width="12.7265625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -466,8 +490,26 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -495,8 +537,26 @@
       <c r="I2">
         <v>2134</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>7072</v>
+      </c>
+      <c r="K2">
+        <v>285</v>
+      </c>
+      <c r="L2">
+        <v>2117</v>
+      </c>
+      <c r="M2">
+        <v>7663</v>
+      </c>
+      <c r="N2">
+        <v>292</v>
+      </c>
+      <c r="O2">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -524,8 +584,26 @@
       <c r="I3">
         <v>1154</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>6200</v>
+      </c>
+      <c r="K3">
+        <v>259</v>
+      </c>
+      <c r="L3">
+        <v>1666</v>
+      </c>
+      <c r="M3">
+        <v>6184</v>
+      </c>
+      <c r="N3">
+        <v>261</v>
+      </c>
+      <c r="O3">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -553,8 +631,26 @@
       <c r="I4">
         <v>2190</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>6710</v>
+      </c>
+      <c r="K4">
+        <v>333</v>
+      </c>
+      <c r="L4">
+        <v>1183</v>
+      </c>
+      <c r="M4">
+        <v>7000</v>
+      </c>
+      <c r="N4">
+        <v>276</v>
+      </c>
+      <c r="O4">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -582,8 +678,26 @@
       <c r="I5">
         <v>734</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>6723</v>
+      </c>
+      <c r="K5">
+        <v>342</v>
+      </c>
+      <c r="L5">
+        <v>916</v>
+      </c>
+      <c r="M5">
+        <v>6491</v>
+      </c>
+      <c r="N5">
+        <v>297</v>
+      </c>
+      <c r="O5">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -611,8 +725,26 @@
       <c r="I6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>6207</v>
+      </c>
+      <c r="K6">
+        <v>332</v>
+      </c>
+      <c r="L6">
+        <v>161</v>
+      </c>
+      <c r="M6">
+        <v>6152</v>
+      </c>
+      <c r="N6">
+        <v>311</v>
+      </c>
+      <c r="O6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -640,8 +772,26 @@
       <c r="I7">
         <v>351</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>6202</v>
+      </c>
+      <c r="K7">
+        <v>328</v>
+      </c>
+      <c r="L7">
+        <v>832</v>
+      </c>
+      <c r="M7">
+        <v>6388</v>
+      </c>
+      <c r="N7">
+        <v>422</v>
+      </c>
+      <c r="O7">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -669,8 +819,26 @@
       <c r="I8">
         <v>829</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>6366</v>
+      </c>
+      <c r="K8">
+        <v>367</v>
+      </c>
+      <c r="L8">
+        <v>1206</v>
+      </c>
+      <c r="M8">
+        <v>6388</v>
+      </c>
+      <c r="N8">
+        <v>422</v>
+      </c>
+      <c r="O8">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -698,8 +866,26 @@
       <c r="I9">
         <v>268</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>6410</v>
+      </c>
+      <c r="K9">
+        <v>311</v>
+      </c>
+      <c r="L9">
+        <v>558</v>
+      </c>
+      <c r="M9">
+        <v>6288</v>
+      </c>
+      <c r="N9">
+        <v>271</v>
+      </c>
+      <c r="O9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -727,8 +913,26 @@
       <c r="I10">
         <v>547</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>6708</v>
+      </c>
+      <c r="K10">
+        <v>282</v>
+      </c>
+      <c r="L10">
+        <v>584</v>
+      </c>
+      <c r="M10">
+        <v>6656</v>
+      </c>
+      <c r="N10">
+        <v>279</v>
+      </c>
+      <c r="O10">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -756,8 +960,26 @@
       <c r="I11">
         <v>408</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>6679</v>
+      </c>
+      <c r="K11">
+        <v>260</v>
+      </c>
+      <c r="L11">
+        <v>603</v>
+      </c>
+      <c r="M11">
+        <v>6329</v>
+      </c>
+      <c r="N11">
+        <v>265</v>
+      </c>
+      <c r="O11">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -785,8 +1007,26 @@
       <c r="I12">
         <v>434</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>6422</v>
+      </c>
+      <c r="K12">
+        <v>253</v>
+      </c>
+      <c r="L12">
+        <v>712</v>
+      </c>
+      <c r="M12">
+        <v>6373</v>
+      </c>
+      <c r="N12">
+        <v>254</v>
+      </c>
+      <c r="O12">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -814,8 +1054,26 @@
       <c r="I13">
         <v>731</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>6554</v>
+      </c>
+      <c r="K13">
+        <v>334</v>
+      </c>
+      <c r="L13">
+        <v>630</v>
+      </c>
+      <c r="M13">
+        <v>6580</v>
+      </c>
+      <c r="N13">
+        <v>345</v>
+      </c>
+      <c r="O13">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -843,8 +1101,26 @@
       <c r="I14">
         <v>498</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>6120</v>
+      </c>
+      <c r="K14">
+        <v>254</v>
+      </c>
+      <c r="L14">
+        <v>1092</v>
+      </c>
+      <c r="M14">
+        <v>6259</v>
+      </c>
+      <c r="N14">
+        <v>276</v>
+      </c>
+      <c r="O14">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -872,8 +1148,26 @@
       <c r="I15">
         <v>536</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>6478</v>
+      </c>
+      <c r="K15">
+        <v>288</v>
+      </c>
+      <c r="L15">
+        <v>537</v>
+      </c>
+      <c r="M15">
+        <v>6280</v>
+      </c>
+      <c r="N15">
+        <v>292</v>
+      </c>
+      <c r="O15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -901,8 +1195,26 @@
       <c r="I16">
         <v>807</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>6506</v>
+      </c>
+      <c r="K16">
+        <v>379</v>
+      </c>
+      <c r="L16">
+        <v>936</v>
+      </c>
+      <c r="M16">
+        <v>6594</v>
+      </c>
+      <c r="N16">
+        <v>329</v>
+      </c>
+      <c r="O16">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -930,8 +1242,26 @@
       <c r="I17">
         <v>297</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>5876</v>
+      </c>
+      <c r="K17">
+        <v>328</v>
+      </c>
+      <c r="L17">
+        <v>836</v>
+      </c>
+      <c r="M17">
+        <v>5890</v>
+      </c>
+      <c r="N17">
+        <v>324</v>
+      </c>
+      <c r="O17">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -959,8 +1289,26 @@
       <c r="I18">
         <v>230</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>5877</v>
+      </c>
+      <c r="K18">
+        <v>322</v>
+      </c>
+      <c r="L18">
+        <v>584</v>
+      </c>
+      <c r="M18">
+        <v>5845</v>
+      </c>
+      <c r="N18">
+        <v>305</v>
+      </c>
+      <c r="O18">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -988,8 +1336,26 @@
       <c r="I19">
         <v>612</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>6117</v>
+      </c>
+      <c r="K19">
+        <v>270</v>
+      </c>
+      <c r="L19">
+        <v>935</v>
+      </c>
+      <c r="M19">
+        <v>6309</v>
+      </c>
+      <c r="N19">
+        <v>291</v>
+      </c>
+      <c r="O19">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1017,8 +1383,26 @@
       <c r="I20">
         <v>592</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>6404</v>
+      </c>
+      <c r="K20">
+        <v>212</v>
+      </c>
+      <c r="L20">
+        <v>1212</v>
+      </c>
+      <c r="M20">
+        <v>6468</v>
+      </c>
+      <c r="N20">
+        <v>248</v>
+      </c>
+      <c r="O20">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1046,8 +1430,26 @@
       <c r="I21">
         <v>1593</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>6487</v>
+      </c>
+      <c r="K21">
+        <v>258</v>
+      </c>
+      <c r="L21">
+        <v>1278</v>
+      </c>
+      <c r="M21">
+        <v>6454</v>
+      </c>
+      <c r="N21">
+        <v>251</v>
+      </c>
+      <c r="O21">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1075,8 +1477,26 @@
       <c r="I22">
         <v>816</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>6458</v>
+      </c>
+      <c r="K22">
+        <v>284</v>
+      </c>
+      <c r="L22">
+        <v>923</v>
+      </c>
+      <c r="M22">
+        <v>6220</v>
+      </c>
+      <c r="N22">
+        <v>295</v>
+      </c>
+      <c r="O22">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1104,8 +1524,26 @@
       <c r="I23">
         <v>299</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>6108</v>
+      </c>
+      <c r="K23">
+        <v>316</v>
+      </c>
+      <c r="L23">
+        <v>1026</v>
+      </c>
+      <c r="M23">
+        <v>6311</v>
+      </c>
+      <c r="N23">
+        <v>278</v>
+      </c>
+      <c r="O23">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1133,8 +1571,26 @@
       <c r="I24">
         <v>784</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>6200</v>
+      </c>
+      <c r="K24">
+        <v>229</v>
+      </c>
+      <c r="L24">
+        <v>833</v>
+      </c>
+      <c r="M24">
+        <v>6586</v>
+      </c>
+      <c r="N24">
+        <v>240</v>
+      </c>
+      <c r="O24">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1162,8 +1618,26 @@
       <c r="I25">
         <v>978</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>6862</v>
+      </c>
+      <c r="K25">
+        <v>237</v>
+      </c>
+      <c r="L25">
+        <v>1064</v>
+      </c>
+      <c r="M25">
+        <v>6637</v>
+      </c>
+      <c r="N25">
+        <v>247</v>
+      </c>
+      <c r="O25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1191,8 +1665,26 @@
       <c r="I26">
         <v>1172</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>6542</v>
+      </c>
+      <c r="K26">
+        <v>262</v>
+      </c>
+      <c r="L26">
+        <v>925</v>
+      </c>
+      <c r="M26">
+        <v>6637</v>
+      </c>
+      <c r="N26">
+        <v>247</v>
+      </c>
+      <c r="O26">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1220,8 +1712,26 @@
       <c r="I27">
         <v>1265</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>6279</v>
+      </c>
+      <c r="K27">
+        <v>282</v>
+      </c>
+      <c r="L27">
+        <v>904</v>
+      </c>
+      <c r="M27">
+        <v>5994</v>
+      </c>
+      <c r="N27">
+        <v>315</v>
+      </c>
+      <c r="O27">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1249,8 +1759,26 @@
       <c r="I28">
         <v>1236</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>6487</v>
+      </c>
+      <c r="K28">
+        <v>258</v>
+      </c>
+      <c r="L28">
+        <v>1278</v>
+      </c>
+      <c r="M28">
+        <v>6454</v>
+      </c>
+      <c r="N28">
+        <v>251</v>
+      </c>
+      <c r="O28">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1278,8 +1806,26 @@
       <c r="I29">
         <v>1157</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>7936</v>
+      </c>
+      <c r="K29">
+        <v>232</v>
+      </c>
+      <c r="L29">
+        <v>1485</v>
+      </c>
+      <c r="M29">
+        <v>7092</v>
+      </c>
+      <c r="N29">
+        <v>253</v>
+      </c>
+      <c r="O29">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1307,8 +1853,26 @@
       <c r="I30">
         <v>1172</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>6232</v>
+      </c>
+      <c r="K30">
+        <v>337</v>
+      </c>
+      <c r="L30">
+        <v>1475</v>
+      </c>
+      <c r="M30">
+        <v>6483</v>
+      </c>
+      <c r="N30">
+        <v>302</v>
+      </c>
+      <c r="O30">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1336,8 +1900,26 @@
       <c r="I31">
         <v>392</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>6350</v>
+      </c>
+      <c r="K31">
+        <v>279</v>
+      </c>
+      <c r="L31">
+        <v>1137</v>
+      </c>
+      <c r="M31">
+        <v>6627</v>
+      </c>
+      <c r="N31">
+        <v>271</v>
+      </c>
+      <c r="O31">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1365,8 +1947,26 @@
       <c r="I32">
         <v>864</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>6301</v>
+      </c>
+      <c r="K32">
+        <v>434</v>
+      </c>
+      <c r="L32">
+        <v>751</v>
+      </c>
+      <c r="M32">
+        <v>6315</v>
+      </c>
+      <c r="N32">
+        <v>444</v>
+      </c>
+      <c r="O32">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1394,8 +1994,26 @@
       <c r="I33">
         <v>1465</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>7926</v>
+      </c>
+      <c r="K33">
+        <v>272</v>
+      </c>
+      <c r="L33">
+        <v>1977</v>
+      </c>
+      <c r="M33">
+        <v>6968</v>
+      </c>
+      <c r="N33">
+        <v>327</v>
+      </c>
+      <c r="O33">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1423,8 +2041,26 @@
       <c r="I34">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>8607</v>
+      </c>
+      <c r="K34">
+        <v>149</v>
+      </c>
+      <c r="L34">
+        <v>594</v>
+      </c>
+      <c r="M34">
+        <v>8593</v>
+      </c>
+      <c r="N34">
+        <v>153</v>
+      </c>
+      <c r="O34">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1452,8 +2088,26 @@
       <c r="I35">
         <v>1564</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>8076</v>
+      </c>
+      <c r="K35">
+        <v>285</v>
+      </c>
+      <c r="L35">
+        <v>1868</v>
+      </c>
+      <c r="M35">
+        <v>7022</v>
+      </c>
+      <c r="N35">
+        <v>374</v>
+      </c>
+      <c r="O35">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1481,8 +2135,26 @@
       <c r="I36">
         <v>2001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>7358</v>
+      </c>
+      <c r="K36">
+        <v>260</v>
+      </c>
+      <c r="L36">
+        <v>1743</v>
+      </c>
+      <c r="M36">
+        <v>6624</v>
+      </c>
+      <c r="N36">
+        <v>329</v>
+      </c>
+      <c r="O36">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1510,8 +2182,26 @@
       <c r="I37">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>6061</v>
+      </c>
+      <c r="K37">
+        <v>347</v>
+      </c>
+      <c r="L37">
+        <v>1594</v>
+      </c>
+      <c r="M37">
+        <v>6624</v>
+      </c>
+      <c r="N37">
+        <v>329</v>
+      </c>
+      <c r="O37">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1539,8 +2229,26 @@
       <c r="I38">
         <v>924</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>8369</v>
+      </c>
+      <c r="K38">
+        <v>178</v>
+      </c>
+      <c r="L38">
+        <v>910</v>
+      </c>
+      <c r="M38">
+        <v>8059</v>
+      </c>
+      <c r="N38">
+        <v>203</v>
+      </c>
+      <c r="O38">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1568,8 +2276,26 @@
       <c r="I39">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>6126</v>
+      </c>
+      <c r="K39">
+        <v>409</v>
+      </c>
+      <c r="L39">
+        <v>671</v>
+      </c>
+      <c r="M39">
+        <v>6968</v>
+      </c>
+      <c r="N39">
+        <v>327</v>
+      </c>
+      <c r="O39">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1597,8 +2323,26 @@
       <c r="I40">
         <v>960</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>7227</v>
+      </c>
+      <c r="K40">
+        <v>288</v>
+      </c>
+      <c r="L40">
+        <v>1641</v>
+      </c>
+      <c r="M40">
+        <v>6731</v>
+      </c>
+      <c r="N40">
+        <v>326</v>
+      </c>
+      <c r="O40">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1626,8 +2370,26 @@
       <c r="I41">
         <v>1115</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>6707</v>
+      </c>
+      <c r="K41">
+        <v>323</v>
+      </c>
+      <c r="L41">
+        <v>1654</v>
+      </c>
+      <c r="M41">
+        <v>6968</v>
+      </c>
+      <c r="N41">
+        <v>327</v>
+      </c>
+      <c r="O41">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1655,8 +2417,26 @@
       <c r="I42">
         <v>1144</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>6346</v>
+      </c>
+      <c r="K42">
+        <v>398</v>
+      </c>
+      <c r="L42">
+        <v>994</v>
+      </c>
+      <c r="M42">
+        <v>6336</v>
+      </c>
+      <c r="N42">
+        <v>375</v>
+      </c>
+      <c r="O42">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1684,8 +2464,26 @@
       <c r="I43">
         <v>266</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>6013</v>
+      </c>
+      <c r="K43">
+        <v>303</v>
+      </c>
+      <c r="L43">
+        <v>623</v>
+      </c>
+      <c r="M43">
+        <v>6027</v>
+      </c>
+      <c r="N43">
+        <v>270</v>
+      </c>
+      <c r="O43">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1713,8 +2511,26 @@
       <c r="I44">
         <v>1842</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>7423</v>
+      </c>
+      <c r="K44">
+        <v>283</v>
+      </c>
+      <c r="L44">
+        <v>1718</v>
+      </c>
+      <c r="M44">
+        <v>7148</v>
+      </c>
+      <c r="N44">
+        <v>308</v>
+      </c>
+      <c r="O44">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1742,8 +2558,26 @@
       <c r="I45">
         <v>1358</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>6167</v>
+      </c>
+      <c r="K45">
+        <v>342</v>
+      </c>
+      <c r="L45">
+        <v>1290</v>
+      </c>
+      <c r="M45">
+        <v>6298</v>
+      </c>
+      <c r="N45">
+        <v>310</v>
+      </c>
+      <c r="O45">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1771,8 +2605,26 @@
       <c r="I46">
         <v>202</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>6132</v>
+      </c>
+      <c r="K46">
+        <v>302</v>
+      </c>
+      <c r="L46">
+        <v>933</v>
+      </c>
+      <c r="M46">
+        <v>6689</v>
+      </c>
+      <c r="N46">
+        <v>311</v>
+      </c>
+      <c r="O46">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1800,8 +2652,26 @@
       <c r="I47">
         <v>424</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>6311</v>
+      </c>
+      <c r="K47">
+        <v>302</v>
+      </c>
+      <c r="L47">
+        <v>1134</v>
+      </c>
+      <c r="M47">
+        <v>6170</v>
+      </c>
+      <c r="N47">
+        <v>293</v>
+      </c>
+      <c r="O47">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -1829,8 +2699,26 @@
       <c r="I48">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>5763</v>
+      </c>
+      <c r="K48">
+        <v>350</v>
+      </c>
+      <c r="L48">
+        <v>671</v>
+      </c>
+      <c r="M48">
+        <v>5785</v>
+      </c>
+      <c r="N48">
+        <v>322</v>
+      </c>
+      <c r="O48">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1858,8 +2746,26 @@
       <c r="I49">
         <v>167</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>5657</v>
+      </c>
+      <c r="K49">
+        <v>284</v>
+      </c>
+      <c r="L49">
+        <v>276</v>
+      </c>
+      <c r="M49">
+        <v>6315</v>
+      </c>
+      <c r="N49">
+        <v>266</v>
+      </c>
+      <c r="O49">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -1887,8 +2793,26 @@
       <c r="I50">
         <v>1334</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>6813</v>
+      </c>
+      <c r="K50">
+        <v>279</v>
+      </c>
+      <c r="L50">
+        <v>1086</v>
+      </c>
+      <c r="M50">
+        <v>6580</v>
+      </c>
+      <c r="N50">
+        <v>284</v>
+      </c>
+      <c r="O50">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1916,8 +2840,26 @@
       <c r="I51">
         <v>1375</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>7214</v>
+      </c>
+      <c r="K51">
+        <v>313</v>
+      </c>
+      <c r="L51">
+        <v>1328</v>
+      </c>
+      <c r="M51">
+        <v>7100</v>
+      </c>
+      <c r="N51">
+        <v>291</v>
+      </c>
+      <c r="O51">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -1945,8 +2887,26 @@
       <c r="I52">
         <v>1673</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>6786</v>
+      </c>
+      <c r="K52">
+        <v>283</v>
+      </c>
+      <c r="L52">
+        <v>1433</v>
+      </c>
+      <c r="M52">
+        <v>6403</v>
+      </c>
+      <c r="N52">
+        <v>354</v>
+      </c>
+      <c r="O52">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1974,8 +2934,26 @@
       <c r="I53">
         <v>576</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>5732</v>
+      </c>
+      <c r="K53">
+        <v>297</v>
+      </c>
+      <c r="L53">
+        <v>440</v>
+      </c>
+      <c r="M53">
+        <v>6350</v>
+      </c>
+      <c r="N53">
+        <v>265</v>
+      </c>
+      <c r="O53">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2003,8 +2981,26 @@
       <c r="I54">
         <v>1102</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>7409</v>
+      </c>
+      <c r="K54">
+        <v>450</v>
+      </c>
+      <c r="L54">
+        <v>1129</v>
+      </c>
+      <c r="M54">
+        <v>6528</v>
+      </c>
+      <c r="N54">
+        <v>496</v>
+      </c>
+      <c r="O54">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2032,8 +3028,26 @@
       <c r="I55">
         <v>964</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>7324</v>
+      </c>
+      <c r="K55">
+        <v>313</v>
+      </c>
+      <c r="L55">
+        <v>1268</v>
+      </c>
+      <c r="M55">
+        <v>7326</v>
+      </c>
+      <c r="N55">
+        <v>299</v>
+      </c>
+      <c r="O55">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2061,8 +3075,26 @@
       <c r="I56">
         <v>1379</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>7618</v>
+      </c>
+      <c r="K56">
+        <v>251</v>
+      </c>
+      <c r="L56">
+        <v>1609</v>
+      </c>
+      <c r="M56">
+        <v>6815</v>
+      </c>
+      <c r="N56">
+        <v>475</v>
+      </c>
+      <c r="O56">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2090,8 +3122,26 @@
       <c r="I57">
         <v>192</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>7892</v>
+      </c>
+      <c r="K57">
+        <v>274</v>
+      </c>
+      <c r="L57">
+        <v>2436</v>
+      </c>
+      <c r="M57">
+        <v>7930</v>
+      </c>
+      <c r="N57">
+        <v>254</v>
+      </c>
+      <c r="O57">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2119,8 +3169,26 @@
       <c r="I58">
         <v>917</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>6835</v>
+      </c>
+      <c r="K58">
+        <v>330</v>
+      </c>
+      <c r="L58">
+        <v>846</v>
+      </c>
+      <c r="M58">
+        <v>6861</v>
+      </c>
+      <c r="N58">
+        <v>318</v>
+      </c>
+      <c r="O58">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2148,8 +3216,26 @@
       <c r="I59">
         <v>1115</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>6661</v>
+      </c>
+      <c r="K59">
+        <v>684</v>
+      </c>
+      <c r="L59">
+        <v>1165</v>
+      </c>
+      <c r="M59">
+        <v>6428</v>
+      </c>
+      <c r="N59">
+        <v>845</v>
+      </c>
+      <c r="O59">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2177,8 +3263,26 @@
       <c r="I60">
         <v>417</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>7098</v>
+      </c>
+      <c r="K60">
+        <v>292</v>
+      </c>
+      <c r="L60">
+        <v>1567</v>
+      </c>
+      <c r="M60">
+        <v>6861</v>
+      </c>
+      <c r="N60">
+        <v>318</v>
+      </c>
+      <c r="O60">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2206,8 +3310,26 @@
       <c r="I61">
         <v>609</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>7122</v>
+      </c>
+      <c r="K61">
+        <v>536</v>
+      </c>
+      <c r="L61">
+        <v>1440</v>
+      </c>
+      <c r="M61">
+        <v>7389</v>
+      </c>
+      <c r="N61">
+        <v>377</v>
+      </c>
+      <c r="O61">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2235,8 +3357,26 @@
       <c r="I62">
         <v>649</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>6141</v>
+      </c>
+      <c r="K62">
+        <v>759</v>
+      </c>
+      <c r="L62">
+        <v>863</v>
+      </c>
+      <c r="M62">
+        <v>6467</v>
+      </c>
+      <c r="N62">
+        <v>644</v>
+      </c>
+      <c r="O62">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2264,8 +3404,26 @@
       <c r="I63">
         <v>899</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>6726</v>
+      </c>
+      <c r="K63">
+        <v>271</v>
+      </c>
+      <c r="L63">
+        <v>1032</v>
+      </c>
+      <c r="M63">
+        <v>6433</v>
+      </c>
+      <c r="N63">
+        <v>305</v>
+      </c>
+      <c r="O63">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2293,8 +3451,26 @@
       <c r="I64">
         <v>1331</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>6860</v>
+      </c>
+      <c r="K64">
+        <v>638</v>
+      </c>
+      <c r="L64">
+        <v>1484</v>
+      </c>
+      <c r="M64">
+        <v>6566</v>
+      </c>
+      <c r="N64">
+        <v>499</v>
+      </c>
+      <c r="O64">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2322,8 +3498,26 @@
       <c r="I65">
         <v>975</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>7142</v>
+      </c>
+      <c r="K65">
+        <v>278</v>
+      </c>
+      <c r="L65">
+        <v>1168</v>
+      </c>
+      <c r="M65">
+        <v>7326</v>
+      </c>
+      <c r="N65">
+        <v>299</v>
+      </c>
+      <c r="O65">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2351,8 +3545,26 @@
       <c r="I66">
         <v>993</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>7115</v>
+      </c>
+      <c r="K66">
+        <v>283</v>
+      </c>
+      <c r="L66">
+        <v>1692</v>
+      </c>
+      <c r="M66">
+        <v>7169</v>
+      </c>
+      <c r="N66">
+        <v>295</v>
+      </c>
+      <c r="O66">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -2380,8 +3592,26 @@
       <c r="I67">
         <v>1672</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>7372</v>
+      </c>
+      <c r="K67">
+        <v>302</v>
+      </c>
+      <c r="L67">
+        <v>1457</v>
+      </c>
+      <c r="M67">
+        <v>7169</v>
+      </c>
+      <c r="N67">
+        <v>295</v>
+      </c>
+      <c r="O67">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2409,8 +3639,26 @@
       <c r="I68">
         <v>637</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>7467</v>
+      </c>
+      <c r="K68">
+        <v>266</v>
+      </c>
+      <c r="L68">
+        <v>854</v>
+      </c>
+      <c r="M68">
+        <v>7664</v>
+      </c>
+      <c r="N68">
+        <v>250</v>
+      </c>
+      <c r="O68">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -2438,8 +3686,26 @@
       <c r="I69">
         <v>1109</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>6761</v>
+      </c>
+      <c r="K69">
+        <v>333</v>
+      </c>
+      <c r="L69">
+        <v>1729</v>
+      </c>
+      <c r="M69">
+        <v>6603</v>
+      </c>
+      <c r="N69">
+        <v>322</v>
+      </c>
+      <c r="O69">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2467,8 +3733,26 @@
       <c r="I70">
         <v>1391</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>7642</v>
+      </c>
+      <c r="K70">
+        <v>244</v>
+      </c>
+      <c r="L70">
+        <v>899</v>
+      </c>
+      <c r="M70">
+        <v>7913</v>
+      </c>
+      <c r="N70">
+        <v>242</v>
+      </c>
+      <c r="O70">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -2496,8 +3780,26 @@
       <c r="I71">
         <v>1654</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>7807</v>
+      </c>
+      <c r="K71">
+        <v>231</v>
+      </c>
+      <c r="L71">
+        <v>1573</v>
+      </c>
+      <c r="M71">
+        <v>7678</v>
+      </c>
+      <c r="N71">
+        <v>260</v>
+      </c>
+      <c r="O71">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2525,8 +3827,26 @@
       <c r="I72">
         <v>539</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>7426</v>
+      </c>
+      <c r="K72">
+        <v>363</v>
+      </c>
+      <c r="L72">
+        <v>1862</v>
+      </c>
+      <c r="M72">
+        <v>7343</v>
+      </c>
+      <c r="N72">
+        <v>374</v>
+      </c>
+      <c r="O72">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -2554,8 +3874,26 @@
       <c r="I73">
         <v>1611</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>6592</v>
+      </c>
+      <c r="K73">
+        <v>407</v>
+      </c>
+      <c r="L73">
+        <v>1564</v>
+      </c>
+      <c r="M73">
+        <v>6603</v>
+      </c>
+      <c r="N73">
+        <v>322</v>
+      </c>
+      <c r="O73">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2583,8 +3921,26 @@
       <c r="I74">
         <v>1588</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>6901</v>
+      </c>
+      <c r="K74">
+        <v>334</v>
+      </c>
+      <c r="L74">
+        <v>1527</v>
+      </c>
+      <c r="M74">
+        <v>7343</v>
+      </c>
+      <c r="N74">
+        <v>374</v>
+      </c>
+      <c r="O74">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -2612,8 +3968,26 @@
       <c r="I75">
         <v>1379</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>7821</v>
+      </c>
+      <c r="K75">
+        <v>320</v>
+      </c>
+      <c r="L75">
+        <v>1433</v>
+      </c>
+      <c r="M75">
+        <v>7359</v>
+      </c>
+      <c r="N75">
+        <v>397</v>
+      </c>
+      <c r="O75">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2641,8 +4015,26 @@
       <c r="I76">
         <v>1104</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>7305</v>
+      </c>
+      <c r="K76">
+        <v>315</v>
+      </c>
+      <c r="L76">
+        <v>1313</v>
+      </c>
+      <c r="M76">
+        <v>7284</v>
+      </c>
+      <c r="N76">
+        <v>356</v>
+      </c>
+      <c r="O76">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -2670,8 +4062,26 @@
       <c r="I77">
         <v>1595</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>6563</v>
+      </c>
+      <c r="K77">
+        <v>311</v>
+      </c>
+      <c r="L77">
+        <v>1485</v>
+      </c>
+      <c r="M77">
+        <v>7343</v>
+      </c>
+      <c r="N77">
+        <v>374</v>
+      </c>
+      <c r="O77">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2699,8 +4109,26 @@
       <c r="I78">
         <v>1904</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>7653</v>
+      </c>
+      <c r="K78">
+        <v>305</v>
+      </c>
+      <c r="L78">
+        <v>2118</v>
+      </c>
+      <c r="M78">
+        <v>7201</v>
+      </c>
+      <c r="N78">
+        <v>478</v>
+      </c>
+      <c r="O78">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -2728,8 +4156,26 @@
       <c r="I79">
         <v>1753</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79">
+        <v>8258</v>
+      </c>
+      <c r="K79">
+        <v>240</v>
+      </c>
+      <c r="L79">
+        <v>681</v>
+      </c>
+      <c r="M79">
+        <v>8307</v>
+      </c>
+      <c r="N79">
+        <v>255</v>
+      </c>
+      <c r="O79">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -2757,8 +4203,26 @@
       <c r="I80">
         <v>295</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J80">
+        <v>7048</v>
+      </c>
+      <c r="K80">
+        <v>530</v>
+      </c>
+      <c r="L80">
+        <v>1973</v>
+      </c>
+      <c r="M80">
+        <v>7020</v>
+      </c>
+      <c r="N80">
+        <v>594</v>
+      </c>
+      <c r="O80">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -2786,8 +4250,26 @@
       <c r="I81">
         <v>631</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81">
+        <v>7117</v>
+      </c>
+      <c r="K81">
+        <v>652</v>
+      </c>
+      <c r="L81">
+        <v>2266</v>
+      </c>
+      <c r="M81">
+        <v>7020</v>
+      </c>
+      <c r="N81">
+        <v>594</v>
+      </c>
+      <c r="O81">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -2815,8 +4297,26 @@
       <c r="I82">
         <v>233</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J82">
+        <v>8640</v>
+      </c>
+      <c r="K82">
+        <v>232</v>
+      </c>
+      <c r="L82">
+        <v>221</v>
+      </c>
+      <c r="M82">
+        <v>8581</v>
+      </c>
+      <c r="N82">
+        <v>217</v>
+      </c>
+      <c r="O82">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -2844,8 +4344,26 @@
       <c r="I83">
         <v>1931</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83">
+        <v>7371</v>
+      </c>
+      <c r="K83">
+        <v>389</v>
+      </c>
+      <c r="L83">
+        <v>2245</v>
+      </c>
+      <c r="M83">
+        <v>7678</v>
+      </c>
+      <c r="N83">
+        <v>400</v>
+      </c>
+      <c r="O83">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -2873,8 +4391,26 @@
       <c r="I84">
         <v>368</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84">
+        <v>8470</v>
+      </c>
+      <c r="K84">
+        <v>253</v>
+      </c>
+      <c r="L84">
+        <v>804</v>
+      </c>
+      <c r="M84">
+        <v>8531</v>
+      </c>
+      <c r="N84">
+        <v>238</v>
+      </c>
+      <c r="O84">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -2902,8 +4438,26 @@
       <c r="I85">
         <v>398</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85">
+        <v>7631</v>
+      </c>
+      <c r="K85">
+        <v>439</v>
+      </c>
+      <c r="L85">
+        <v>1923</v>
+      </c>
+      <c r="M85">
+        <v>7296</v>
+      </c>
+      <c r="N85">
+        <v>599</v>
+      </c>
+      <c r="O85">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -2931,8 +4485,26 @@
       <c r="I86">
         <v>411</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86">
+        <v>8587</v>
+      </c>
+      <c r="K86">
+        <v>218</v>
+      </c>
+      <c r="L86">
+        <v>710</v>
+      </c>
+      <c r="M86">
+        <v>8626</v>
+      </c>
+      <c r="N86">
+        <v>191</v>
+      </c>
+      <c r="O86">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -2960,8 +4532,26 @@
       <c r="I87">
         <v>2041</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87">
+        <v>7392</v>
+      </c>
+      <c r="K87">
+        <v>476</v>
+      </c>
+      <c r="L87">
+        <v>2152</v>
+      </c>
+      <c r="M87">
+        <v>7022</v>
+      </c>
+      <c r="N87">
+        <v>640</v>
+      </c>
+      <c r="O87">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -2989,8 +4579,26 @@
       <c r="I88">
         <v>626</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88">
+        <v>7530</v>
+      </c>
+      <c r="K88">
+        <v>512</v>
+      </c>
+      <c r="L88">
+        <v>1926</v>
+      </c>
+      <c r="M88">
+        <v>8626</v>
+      </c>
+      <c r="N88">
+        <v>191</v>
+      </c>
+      <c r="O88">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3018,8 +4626,26 @@
       <c r="I89">
         <v>2197</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J89">
+        <v>8296</v>
+      </c>
+      <c r="K89">
+        <v>253</v>
+      </c>
+      <c r="L89">
+        <v>1105</v>
+      </c>
+      <c r="M89">
+        <v>7678</v>
+      </c>
+      <c r="N89">
+        <v>400</v>
+      </c>
+      <c r="O89">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3047,8 +4673,26 @@
       <c r="I90">
         <v>966</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J90">
+        <v>8215</v>
+      </c>
+      <c r="K90">
+        <v>275</v>
+      </c>
+      <c r="L90">
+        <v>1797</v>
+      </c>
+      <c r="M90">
+        <v>7893</v>
+      </c>
+      <c r="N90">
+        <v>350</v>
+      </c>
+      <c r="O90">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3076,8 +4720,26 @@
       <c r="I91">
         <v>1107</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91">
+        <v>7326</v>
+      </c>
+      <c r="K91">
+        <v>545</v>
+      </c>
+      <c r="L91">
+        <v>1730</v>
+      </c>
+      <c r="M91">
+        <v>7016</v>
+      </c>
+      <c r="N91">
+        <v>678</v>
+      </c>
+      <c r="O91">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3105,8 +4767,26 @@
       <c r="I92">
         <v>1608</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92">
+        <v>6602</v>
+      </c>
+      <c r="K92">
+        <v>461</v>
+      </c>
+      <c r="L92">
+        <v>1587</v>
+      </c>
+      <c r="M92">
+        <v>7332</v>
+      </c>
+      <c r="N92">
+        <v>319</v>
+      </c>
+      <c r="O92">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3134,8 +4814,26 @@
       <c r="I93">
         <v>797</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93">
+        <v>8091</v>
+      </c>
+      <c r="K93">
+        <v>310</v>
+      </c>
+      <c r="L93">
+        <v>1716</v>
+      </c>
+      <c r="M93">
+        <v>7893</v>
+      </c>
+      <c r="N93">
+        <v>350</v>
+      </c>
+      <c r="O93">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3163,8 +4861,26 @@
       <c r="I94">
         <v>1041</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94">
+        <v>7100</v>
+      </c>
+      <c r="K94">
+        <v>333</v>
+      </c>
+      <c r="L94">
+        <v>1751</v>
+      </c>
+      <c r="M94">
+        <v>6927</v>
+      </c>
+      <c r="N94">
+        <v>344</v>
+      </c>
+      <c r="O94">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3192,8 +4908,26 @@
       <c r="I95">
         <v>815</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95">
+        <v>6072</v>
+      </c>
+      <c r="K95">
+        <v>560</v>
+      </c>
+      <c r="L95">
+        <v>938</v>
+      </c>
+      <c r="M95">
+        <v>6830</v>
+      </c>
+      <c r="N95">
+        <v>444</v>
+      </c>
+      <c r="O95">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3221,8 +4955,26 @@
       <c r="I96">
         <v>1676</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96">
+        <v>6816</v>
+      </c>
+      <c r="K96">
+        <v>337</v>
+      </c>
+      <c r="L96">
+        <v>1725</v>
+      </c>
+      <c r="M96">
+        <v>7317</v>
+      </c>
+      <c r="N96">
+        <v>266</v>
+      </c>
+      <c r="O96">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3250,8 +5002,26 @@
       <c r="I97">
         <v>578</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J97">
+        <v>6572</v>
+      </c>
+      <c r="K97">
+        <v>484</v>
+      </c>
+      <c r="L97">
+        <v>1473</v>
+      </c>
+      <c r="M97">
+        <v>6605</v>
+      </c>
+      <c r="N97">
+        <v>439</v>
+      </c>
+      <c r="O97">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3279,8 +5049,26 @@
       <c r="I98">
         <v>822</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J98">
+        <v>7205</v>
+      </c>
+      <c r="K98">
+        <v>286</v>
+      </c>
+      <c r="L98">
+        <v>1799</v>
+      </c>
+      <c r="M98">
+        <v>7105</v>
+      </c>
+      <c r="N98">
+        <v>345</v>
+      </c>
+      <c r="O98">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3308,8 +5096,26 @@
       <c r="I99">
         <v>627</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J99">
+        <v>5513</v>
+      </c>
+      <c r="K99">
+        <v>708</v>
+      </c>
+      <c r="L99">
+        <v>983</v>
+      </c>
+      <c r="M99">
+        <v>5992</v>
+      </c>
+      <c r="N99">
+        <v>697</v>
+      </c>
+      <c r="O99">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3337,8 +5143,26 @@
       <c r="I100">
         <v>1200</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J100">
+        <v>6651</v>
+      </c>
+      <c r="K100">
+        <v>375</v>
+      </c>
+      <c r="L100">
+        <v>1493</v>
+      </c>
+      <c r="M100">
+        <v>7061</v>
+      </c>
+      <c r="N100">
+        <v>347</v>
+      </c>
+      <c r="O100">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3366,8 +5190,26 @@
       <c r="I101">
         <v>1599</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J101">
+        <v>6921</v>
+      </c>
+      <c r="K101">
+        <v>316</v>
+      </c>
+      <c r="L101">
+        <v>1680</v>
+      </c>
+      <c r="M101">
+        <v>7120</v>
+      </c>
+      <c r="N101">
+        <v>300</v>
+      </c>
+      <c r="O101">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3395,8 +5237,26 @@
       <c r="I102">
         <v>1209</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102">
+        <v>5781</v>
+      </c>
+      <c r="K102">
+        <v>365</v>
+      </c>
+      <c r="L102">
+        <v>976</v>
+      </c>
+      <c r="M102">
+        <v>5969</v>
+      </c>
+      <c r="N102">
+        <v>358</v>
+      </c>
+      <c r="O102">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3424,8 +5284,26 @@
       <c r="I103">
         <v>762</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J103">
+        <v>7143</v>
+      </c>
+      <c r="K103">
+        <v>377</v>
+      </c>
+      <c r="L103">
+        <v>1733</v>
+      </c>
+      <c r="M103">
+        <v>7276</v>
+      </c>
+      <c r="N103">
+        <v>324</v>
+      </c>
+      <c r="O103">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3453,8 +5331,26 @@
       <c r="I104">
         <v>865</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104">
+        <v>5470</v>
+      </c>
+      <c r="K104">
+        <v>442</v>
+      </c>
+      <c r="L104">
+        <v>1130</v>
+      </c>
+      <c r="M104">
+        <v>6596</v>
+      </c>
+      <c r="N104">
+        <v>391</v>
+      </c>
+      <c r="O104">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3482,8 +5378,26 @@
       <c r="I105">
         <v>1384</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105">
+        <v>6084</v>
+      </c>
+      <c r="K105">
+        <v>559</v>
+      </c>
+      <c r="L105">
+        <v>2478</v>
+      </c>
+      <c r="M105">
+        <v>6213</v>
+      </c>
+      <c r="N105">
+        <v>511</v>
+      </c>
+      <c r="O105">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -3511,8 +5425,26 @@
       <c r="I106">
         <v>1755</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J106">
+        <v>6271</v>
+      </c>
+      <c r="K106">
+        <v>786</v>
+      </c>
+      <c r="L106">
+        <v>1787</v>
+      </c>
+      <c r="M106">
+        <v>6650</v>
+      </c>
+      <c r="N106">
+        <v>664</v>
+      </c>
+      <c r="O106">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -3540,8 +5472,26 @@
       <c r="I107">
         <v>330</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107">
+        <v>7420</v>
+      </c>
+      <c r="K107">
+        <v>328</v>
+      </c>
+      <c r="L107">
+        <v>1786</v>
+      </c>
+      <c r="M107">
+        <v>7240</v>
+      </c>
+      <c r="N107">
+        <v>420</v>
+      </c>
+      <c r="O107">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -3569,8 +5519,26 @@
       <c r="I108">
         <v>2570</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J108">
+        <v>6215</v>
+      </c>
+      <c r="K108">
+        <v>731</v>
+      </c>
+      <c r="L108">
+        <v>2343</v>
+      </c>
+      <c r="M108">
+        <v>5766</v>
+      </c>
+      <c r="N108">
+        <v>800</v>
+      </c>
+      <c r="O108">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -3598,8 +5566,26 @@
       <c r="I109">
         <v>2120</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109">
+        <v>5945</v>
+      </c>
+      <c r="K109">
+        <v>500</v>
+      </c>
+      <c r="L109">
+        <v>2725</v>
+      </c>
+      <c r="M109">
+        <v>5582</v>
+      </c>
+      <c r="N109">
+        <v>537</v>
+      </c>
+      <c r="O109">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -3627,8 +5613,26 @@
       <c r="I110">
         <v>1463</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J110">
+        <v>7119</v>
+      </c>
+      <c r="K110">
+        <v>295</v>
+      </c>
+      <c r="L110">
+        <v>1567</v>
+      </c>
+      <c r="M110">
+        <v>7590</v>
+      </c>
+      <c r="N110">
+        <v>262</v>
+      </c>
+      <c r="O110">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -3656,8 +5660,26 @@
       <c r="I111">
         <v>421</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111">
+        <v>6272</v>
+      </c>
+      <c r="K111">
+        <v>987</v>
+      </c>
+      <c r="L111">
+        <v>750</v>
+      </c>
+      <c r="M111">
+        <v>6362</v>
+      </c>
+      <c r="N111">
+        <v>913</v>
+      </c>
+      <c r="O111">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -3685,8 +5707,26 @@
       <c r="I112">
         <v>2038</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J112">
+        <v>6944</v>
+      </c>
+      <c r="K112">
+        <v>511</v>
+      </c>
+      <c r="L112">
+        <v>2101</v>
+      </c>
+      <c r="M112">
+        <v>6352</v>
+      </c>
+      <c r="N112">
+        <v>822</v>
+      </c>
+      <c r="O112">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -3714,8 +5754,26 @@
       <c r="I113">
         <v>1550</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113">
+        <v>6309</v>
+      </c>
+      <c r="K113">
+        <v>615</v>
+      </c>
+      <c r="L113">
+        <v>2062</v>
+      </c>
+      <c r="M113">
+        <v>6149</v>
+      </c>
+      <c r="N113">
+        <v>793</v>
+      </c>
+      <c r="O113">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -3743,8 +5801,26 @@
       <c r="I114">
         <v>992</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114">
+        <v>5866</v>
+      </c>
+      <c r="K114">
+        <v>1080</v>
+      </c>
+      <c r="L114">
+        <v>1202</v>
+      </c>
+      <c r="M114">
+        <v>6242</v>
+      </c>
+      <c r="N114">
+        <v>936</v>
+      </c>
+      <c r="O114">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -3772,8 +5848,26 @@
       <c r="I115">
         <v>568</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115">
+        <v>7001</v>
+      </c>
+      <c r="K115">
+        <v>341</v>
+      </c>
+      <c r="L115">
+        <v>1623</v>
+      </c>
+      <c r="M115">
+        <v>7281</v>
+      </c>
+      <c r="N115">
+        <v>282</v>
+      </c>
+      <c r="O115">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -3801,8 +5895,26 @@
       <c r="I116">
         <v>426</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116">
+        <v>5632</v>
+      </c>
+      <c r="K116">
+        <v>1031</v>
+      </c>
+      <c r="L116">
+        <v>848</v>
+      </c>
+      <c r="M116">
+        <v>5658</v>
+      </c>
+      <c r="N116">
+        <v>983</v>
+      </c>
+      <c r="O116">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -3830,8 +5942,26 @@
       <c r="I117">
         <v>361</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J117">
+        <v>6099</v>
+      </c>
+      <c r="K117">
+        <v>607</v>
+      </c>
+      <c r="L117">
+        <v>920</v>
+      </c>
+      <c r="M117">
+        <v>6221</v>
+      </c>
+      <c r="N117">
+        <v>449</v>
+      </c>
+      <c r="O117">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -3859,8 +5989,26 @@
       <c r="I118">
         <v>453</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J118">
+        <v>8461</v>
+      </c>
+      <c r="K118">
+        <v>186</v>
+      </c>
+      <c r="L118">
+        <v>383</v>
+      </c>
+      <c r="M118">
+        <v>8127</v>
+      </c>
+      <c r="N118">
+        <v>229</v>
+      </c>
+      <c r="O118">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -3888,8 +6036,26 @@
       <c r="I119">
         <v>672</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J119">
+        <v>6697</v>
+      </c>
+      <c r="K119">
+        <v>336</v>
+      </c>
+      <c r="L119">
+        <v>958</v>
+      </c>
+      <c r="M119">
+        <v>7097</v>
+      </c>
+      <c r="N119">
+        <v>327</v>
+      </c>
+      <c r="O119">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -3917,8 +6083,26 @@
       <c r="I120">
         <v>617</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J120">
+        <v>8225</v>
+      </c>
+      <c r="K120">
+        <v>181</v>
+      </c>
+      <c r="L120">
+        <v>623</v>
+      </c>
+      <c r="M120">
+        <v>7818</v>
+      </c>
+      <c r="N120">
+        <v>227</v>
+      </c>
+      <c r="O120">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -3946,8 +6130,26 @@
       <c r="I121">
         <v>753</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121">
+        <v>7214</v>
+      </c>
+      <c r="K121">
+        <v>334</v>
+      </c>
+      <c r="L121">
+        <v>1238</v>
+      </c>
+      <c r="M121">
+        <v>7345</v>
+      </c>
+      <c r="N121">
+        <v>343</v>
+      </c>
+      <c r="O121">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -3975,8 +6177,26 @@
       <c r="I122">
         <v>1355</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122">
+        <v>6966</v>
+      </c>
+      <c r="K122">
+        <v>258</v>
+      </c>
+      <c r="L122">
+        <v>1481</v>
+      </c>
+      <c r="M122">
+        <v>7032</v>
+      </c>
+      <c r="N122">
+        <v>290</v>
+      </c>
+      <c r="O122">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -4004,8 +6224,26 @@
       <c r="I123">
         <v>800</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123">
+        <v>6767</v>
+      </c>
+      <c r="K123">
+        <v>319</v>
+      </c>
+      <c r="L123">
+        <v>1326</v>
+      </c>
+      <c r="M123">
+        <v>6542</v>
+      </c>
+      <c r="N123">
+        <v>306</v>
+      </c>
+      <c r="O123">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -4033,8 +6271,26 @@
       <c r="I124">
         <v>476</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J124">
+        <v>7471</v>
+      </c>
+      <c r="K124">
+        <v>295</v>
+      </c>
+      <c r="L124">
+        <v>959</v>
+      </c>
+      <c r="M124">
+        <v>6979</v>
+      </c>
+      <c r="N124">
+        <v>357</v>
+      </c>
+      <c r="O124">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -4062,8 +6318,26 @@
       <c r="I125">
         <v>796</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J125">
+        <v>7159</v>
+      </c>
+      <c r="K125">
+        <v>313</v>
+      </c>
+      <c r="L125">
+        <v>940</v>
+      </c>
+      <c r="M125">
+        <v>7156</v>
+      </c>
+      <c r="N125">
+        <v>282</v>
+      </c>
+      <c r="O125">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -4091,8 +6365,26 @@
       <c r="I126">
         <v>528</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J126">
+        <v>7155</v>
+      </c>
+      <c r="K126">
+        <v>327</v>
+      </c>
+      <c r="L126">
+        <v>1246</v>
+      </c>
+      <c r="M126">
+        <v>7491</v>
+      </c>
+      <c r="N126">
+        <v>295</v>
+      </c>
+      <c r="O126">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -4120,8 +6412,26 @@
       <c r="I127">
         <v>1161</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J127">
+        <v>7440</v>
+      </c>
+      <c r="K127">
+        <v>318</v>
+      </c>
+      <c r="L127">
+        <v>1401</v>
+      </c>
+      <c r="M127">
+        <v>7257</v>
+      </c>
+      <c r="N127">
+        <v>304</v>
+      </c>
+      <c r="O127">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -4149,8 +6459,26 @@
       <c r="I128">
         <v>641</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J128">
+        <v>8104</v>
+      </c>
+      <c r="K128">
+        <v>223</v>
+      </c>
+      <c r="L128">
+        <v>685</v>
+      </c>
+      <c r="M128">
+        <v>7570</v>
+      </c>
+      <c r="N128">
+        <v>261</v>
+      </c>
+      <c r="O128">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -4178,8 +6506,26 @@
       <c r="I129">
         <v>673</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J129">
+        <v>7212</v>
+      </c>
+      <c r="K129">
+        <v>300</v>
+      </c>
+      <c r="L129">
+        <v>1108</v>
+      </c>
+      <c r="M129">
+        <v>7732</v>
+      </c>
+      <c r="N129">
+        <v>271</v>
+      </c>
+      <c r="O129">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -4207,8 +6553,26 @@
       <c r="I130">
         <v>1264</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J130">
+        <v>7988</v>
+      </c>
+      <c r="K130">
+        <v>271</v>
+      </c>
+      <c r="L130">
+        <v>780</v>
+      </c>
+      <c r="M130">
+        <v>7985</v>
+      </c>
+      <c r="N130">
+        <v>255</v>
+      </c>
+      <c r="O130">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -4236,8 +6600,26 @@
       <c r="I131">
         <v>1193</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131">
+        <v>7535</v>
+      </c>
+      <c r="K131">
+        <v>252</v>
+      </c>
+      <c r="L131">
+        <v>1520</v>
+      </c>
+      <c r="M131">
+        <v>7755</v>
+      </c>
+      <c r="N131">
+        <v>271</v>
+      </c>
+      <c r="O131">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -4265,8 +6647,26 @@
       <c r="I132">
         <v>1292</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132">
+        <v>8145</v>
+      </c>
+      <c r="K132">
+        <v>212</v>
+      </c>
+      <c r="L132">
+        <v>954</v>
+      </c>
+      <c r="M132">
+        <v>8179</v>
+      </c>
+      <c r="N132">
+        <v>224</v>
+      </c>
+      <c r="O132">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -4294,8 +6694,26 @@
       <c r="I133">
         <v>1178</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133">
+        <v>7530</v>
+      </c>
+      <c r="K133">
+        <v>381</v>
+      </c>
+      <c r="L133">
+        <v>1552</v>
+      </c>
+      <c r="M133">
+        <v>7959</v>
+      </c>
+      <c r="N133">
+        <v>290</v>
+      </c>
+      <c r="O133">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -4323,8 +6741,26 @@
       <c r="I134">
         <v>932</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134">
+        <v>7061</v>
+      </c>
+      <c r="K134">
+        <v>402</v>
+      </c>
+      <c r="L134">
+        <v>1030</v>
+      </c>
+      <c r="M134">
+        <v>6984</v>
+      </c>
+      <c r="N134">
+        <v>415</v>
+      </c>
+      <c r="O134">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -4352,8 +6788,26 @@
       <c r="I135">
         <v>870</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J135">
+        <v>7142</v>
+      </c>
+      <c r="K135">
+        <v>461</v>
+      </c>
+      <c r="L135">
+        <v>1545</v>
+      </c>
+      <c r="M135">
+        <v>7181</v>
+      </c>
+      <c r="N135">
+        <v>418</v>
+      </c>
+      <c r="O135">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -4381,8 +6835,26 @@
       <c r="I136">
         <v>678</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J136">
+        <v>6850</v>
+      </c>
+      <c r="K136">
+        <v>328</v>
+      </c>
+      <c r="L136">
+        <v>1138</v>
+      </c>
+      <c r="M136">
+        <v>7214</v>
+      </c>
+      <c r="N136">
+        <v>321</v>
+      </c>
+      <c r="O136">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -4410,8 +6882,26 @@
       <c r="I137">
         <v>661</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J137">
+        <v>7666</v>
+      </c>
+      <c r="K137">
+        <v>328</v>
+      </c>
+      <c r="L137">
+        <v>1246</v>
+      </c>
+      <c r="M137">
+        <v>7801</v>
+      </c>
+      <c r="N137">
+        <v>283</v>
+      </c>
+      <c r="O137">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -4439,8 +6929,26 @@
       <c r="I138">
         <v>424</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J138">
+        <v>8197</v>
+      </c>
+      <c r="K138">
+        <v>244</v>
+      </c>
+      <c r="L138">
+        <v>1131</v>
+      </c>
+      <c r="M138">
+        <v>7452</v>
+      </c>
+      <c r="N138">
+        <v>332</v>
+      </c>
+      <c r="O138">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -4468,8 +6976,26 @@
       <c r="I139">
         <v>643</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J139">
+        <v>6798</v>
+      </c>
+      <c r="K139">
+        <v>452</v>
+      </c>
+      <c r="L139">
+        <v>1469</v>
+      </c>
+      <c r="M139">
+        <v>6706</v>
+      </c>
+      <c r="N139">
+        <v>406</v>
+      </c>
+      <c r="O139">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -4497,8 +7023,26 @@
       <c r="I140">
         <v>698</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J140">
+        <v>7924</v>
+      </c>
+      <c r="K140">
+        <v>278</v>
+      </c>
+      <c r="L140">
+        <v>907</v>
+      </c>
+      <c r="M140">
+        <v>8212</v>
+      </c>
+      <c r="N140">
+        <v>252</v>
+      </c>
+      <c r="O140">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -4526,8 +7070,26 @@
       <c r="I141">
         <v>1264</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J141">
+        <v>7795</v>
+      </c>
+      <c r="K141">
+        <v>308</v>
+      </c>
+      <c r="L141">
+        <v>1230</v>
+      </c>
+      <c r="M141">
+        <v>7776</v>
+      </c>
+      <c r="N141">
+        <v>306</v>
+      </c>
+      <c r="O141">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -4555,8 +7117,26 @@
       <c r="I142">
         <v>899</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J142">
+        <v>7438</v>
+      </c>
+      <c r="K142">
+        <v>344</v>
+      </c>
+      <c r="L142">
+        <v>1598</v>
+      </c>
+      <c r="M142">
+        <v>7391</v>
+      </c>
+      <c r="N142">
+        <v>340</v>
+      </c>
+      <c r="O142">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -4584,8 +7164,26 @@
       <c r="I143">
         <v>687</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J143">
+        <v>7350</v>
+      </c>
+      <c r="K143">
+        <v>291</v>
+      </c>
+      <c r="L143">
+        <v>1375</v>
+      </c>
+      <c r="M143">
+        <v>7476</v>
+      </c>
+      <c r="N143">
+        <v>293</v>
+      </c>
+      <c r="O143">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -4613,8 +7211,26 @@
       <c r="I144">
         <v>587</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J144">
+        <v>7885</v>
+      </c>
+      <c r="K144">
+        <v>308</v>
+      </c>
+      <c r="L144">
+        <v>1083</v>
+      </c>
+      <c r="M144">
+        <v>8008</v>
+      </c>
+      <c r="N144">
+        <v>310</v>
+      </c>
+      <c r="O144">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -4642,8 +7258,26 @@
       <c r="I145">
         <v>476</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J145">
+        <v>8098</v>
+      </c>
+      <c r="K145">
+        <v>215</v>
+      </c>
+      <c r="L145">
+        <v>786</v>
+      </c>
+      <c r="M145">
+        <v>8137</v>
+      </c>
+      <c r="N145">
+        <v>211</v>
+      </c>
+      <c r="O145">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -4671,8 +7305,26 @@
       <c r="I146">
         <v>634</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J146">
+        <v>7972</v>
+      </c>
+      <c r="K146">
+        <v>283</v>
+      </c>
+      <c r="L146">
+        <v>770</v>
+      </c>
+      <c r="M146">
+        <v>7886</v>
+      </c>
+      <c r="N146">
+        <v>259</v>
+      </c>
+      <c r="O146">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -4700,8 +7352,26 @@
       <c r="I147">
         <v>1467</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J147">
+        <v>8092</v>
+      </c>
+      <c r="K147">
+        <v>307</v>
+      </c>
+      <c r="L147">
+        <v>474</v>
+      </c>
+      <c r="M147">
+        <v>8073</v>
+      </c>
+      <c r="N147">
+        <v>297</v>
+      </c>
+      <c r="O147">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -4729,8 +7399,26 @@
       <c r="I148">
         <v>826</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J148">
+        <v>7939</v>
+      </c>
+      <c r="K148">
+        <v>257</v>
+      </c>
+      <c r="L148">
+        <v>811</v>
+      </c>
+      <c r="M148">
+        <v>7886</v>
+      </c>
+      <c r="N148">
+        <v>259</v>
+      </c>
+      <c r="O148">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -4758,8 +7446,26 @@
       <c r="I149">
         <v>322</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J149">
+        <v>8101</v>
+      </c>
+      <c r="K149">
+        <v>303</v>
+      </c>
+      <c r="L149">
+        <v>646</v>
+      </c>
+      <c r="M149">
+        <v>8118</v>
+      </c>
+      <c r="N149">
+        <v>305</v>
+      </c>
+      <c r="O149">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -4787,8 +7493,26 @@
       <c r="I150">
         <v>494</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J150">
+        <v>8269</v>
+      </c>
+      <c r="K150">
+        <v>292</v>
+      </c>
+      <c r="L150">
+        <v>653</v>
+      </c>
+      <c r="M150">
+        <v>8273</v>
+      </c>
+      <c r="N150">
+        <v>295</v>
+      </c>
+      <c r="O150">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -4816,8 +7540,26 @@
       <c r="I151">
         <v>434</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J151">
+        <v>8318</v>
+      </c>
+      <c r="K151">
+        <v>242</v>
+      </c>
+      <c r="L151">
+        <v>567</v>
+      </c>
+      <c r="M151">
+        <v>8297</v>
+      </c>
+      <c r="N151">
+        <v>252</v>
+      </c>
+      <c r="O151">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -4845,8 +7587,26 @@
       <c r="I152">
         <v>819</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J152">
+        <v>7686</v>
+      </c>
+      <c r="K152">
+        <v>280</v>
+      </c>
+      <c r="L152">
+        <v>787</v>
+      </c>
+      <c r="M152">
+        <v>7689</v>
+      </c>
+      <c r="N152">
+        <v>302</v>
+      </c>
+      <c r="O152">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -4874,8 +7634,26 @@
       <c r="I153">
         <v>951</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J153">
+        <v>7926</v>
+      </c>
+      <c r="K153">
+        <v>317</v>
+      </c>
+      <c r="L153">
+        <v>1375</v>
+      </c>
+      <c r="M153">
+        <v>7894</v>
+      </c>
+      <c r="N153">
+        <v>312</v>
+      </c>
+      <c r="O153">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -4903,8 +7681,26 @@
       <c r="I154">
         <v>876</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J154">
+        <v>7972</v>
+      </c>
+      <c r="K154">
+        <v>283</v>
+      </c>
+      <c r="L154">
+        <v>770</v>
+      </c>
+      <c r="M154">
+        <v>7886</v>
+      </c>
+      <c r="N154">
+        <v>259</v>
+      </c>
+      <c r="O154">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -4932,8 +7728,26 @@
       <c r="I155">
         <v>1146</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J155">
+        <v>7635</v>
+      </c>
+      <c r="K155">
+        <v>321</v>
+      </c>
+      <c r="L155">
+        <v>1189</v>
+      </c>
+      <c r="M155">
+        <v>7680</v>
+      </c>
+      <c r="N155">
+        <v>316</v>
+      </c>
+      <c r="O155">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -4961,8 +7775,26 @@
       <c r="I156">
         <v>1420</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J156">
+        <v>7100</v>
+      </c>
+      <c r="K156">
+        <v>458</v>
+      </c>
+      <c r="L156">
+        <v>1836</v>
+      </c>
+      <c r="M156">
+        <v>7665</v>
+      </c>
+      <c r="N156">
+        <v>320</v>
+      </c>
+      <c r="O156">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -4990,8 +7822,26 @@
       <c r="I157">
         <v>1115</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J157">
+        <v>8100</v>
+      </c>
+      <c r="K157">
+        <v>232</v>
+      </c>
+      <c r="L157">
+        <v>1096</v>
+      </c>
+      <c r="M157">
+        <v>7565</v>
+      </c>
+      <c r="N157">
+        <v>292</v>
+      </c>
+      <c r="O157">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -5019,8 +7869,26 @@
       <c r="I158">
         <v>1322</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J158">
+        <v>7789</v>
+      </c>
+      <c r="K158">
+        <v>313</v>
+      </c>
+      <c r="L158">
+        <v>1663</v>
+      </c>
+      <c r="M158">
+        <v>7861</v>
+      </c>
+      <c r="N158">
+        <v>289</v>
+      </c>
+      <c r="O158">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -5048,8 +7916,26 @@
       <c r="I159">
         <v>883</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J159">
+        <v>7253</v>
+      </c>
+      <c r="K159">
+        <v>300</v>
+      </c>
+      <c r="L159">
+        <v>1018</v>
+      </c>
+      <c r="M159">
+        <v>6952</v>
+      </c>
+      <c r="N159">
+        <v>315</v>
+      </c>
+      <c r="O159">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -5077,8 +7963,26 @@
       <c r="I160">
         <v>1286</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J160">
+        <v>6998</v>
+      </c>
+      <c r="K160">
+        <v>359</v>
+      </c>
+      <c r="L160">
+        <v>1217</v>
+      </c>
+      <c r="M160">
+        <v>7969</v>
+      </c>
+      <c r="N160">
+        <v>271</v>
+      </c>
+      <c r="O160">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -5106,8 +8010,26 @@
       <c r="I161">
         <v>1612</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J161">
+        <v>7478</v>
+      </c>
+      <c r="K161">
+        <v>342</v>
+      </c>
+      <c r="L161">
+        <v>1475</v>
+      </c>
+      <c r="M161">
+        <v>7812</v>
+      </c>
+      <c r="N161">
+        <v>287</v>
+      </c>
+      <c r="O161">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -5135,8 +8057,26 @@
       <c r="I162">
         <v>841</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J162">
+        <v>7893</v>
+      </c>
+      <c r="K162">
+        <v>212</v>
+      </c>
+      <c r="L162">
+        <v>1057</v>
+      </c>
+      <c r="M162">
+        <v>7638</v>
+      </c>
+      <c r="N162">
+        <v>276</v>
+      </c>
+      <c r="O162">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -5164,8 +8104,26 @@
       <c r="I163">
         <v>856</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J163">
+        <v>7185</v>
+      </c>
+      <c r="K163">
+        <v>367</v>
+      </c>
+      <c r="L163">
+        <v>1345</v>
+      </c>
+      <c r="M163">
+        <v>7664</v>
+      </c>
+      <c r="N163">
+        <v>314</v>
+      </c>
+      <c r="O163">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -5193,8 +8151,26 @@
       <c r="I164">
         <v>1065</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J164">
+        <v>6912</v>
+      </c>
+      <c r="K164">
+        <v>353</v>
+      </c>
+      <c r="L164">
+        <v>1378</v>
+      </c>
+      <c r="M164">
+        <v>7167</v>
+      </c>
+      <c r="N164">
+        <v>349</v>
+      </c>
+      <c r="O164">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -5222,8 +8198,26 @@
       <c r="I165">
         <v>512</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J165">
+        <v>7420</v>
+      </c>
+      <c r="K165">
+        <v>343</v>
+      </c>
+      <c r="L165">
+        <v>1313</v>
+      </c>
+      <c r="M165">
+        <v>7209</v>
+      </c>
+      <c r="N165">
+        <v>368</v>
+      </c>
+      <c r="O165">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -5251,8 +8245,26 @@
       <c r="I166">
         <v>737</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J166">
+        <v>7879</v>
+      </c>
+      <c r="K166">
+        <v>302</v>
+      </c>
+      <c r="L166">
+        <v>741</v>
+      </c>
+      <c r="M166">
+        <v>7828</v>
+      </c>
+      <c r="N166">
+        <v>285</v>
+      </c>
+      <c r="O166">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -5280,8 +8292,26 @@
       <c r="I167">
         <v>974</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J167">
+        <v>7823</v>
+      </c>
+      <c r="K167">
+        <v>258</v>
+      </c>
+      <c r="L167">
+        <v>1181</v>
+      </c>
+      <c r="M167">
+        <v>8242</v>
+      </c>
+      <c r="N167">
+        <v>239</v>
+      </c>
+      <c r="O167">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -5309,8 +8339,26 @@
       <c r="I168">
         <v>488</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J168">
+        <v>8436</v>
+      </c>
+      <c r="K168">
+        <v>185</v>
+      </c>
+      <c r="L168">
+        <v>762</v>
+      </c>
+      <c r="M168">
+        <v>8207</v>
+      </c>
+      <c r="N168">
+        <v>241</v>
+      </c>
+      <c r="O168">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -5338,8 +8386,26 @@
       <c r="I169">
         <v>601</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J169">
+        <v>7786</v>
+      </c>
+      <c r="K169">
+        <v>282</v>
+      </c>
+      <c r="L169">
+        <v>844</v>
+      </c>
+      <c r="M169">
+        <v>7806</v>
+      </c>
+      <c r="N169">
+        <v>289</v>
+      </c>
+      <c r="O169">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -5367,8 +8433,26 @@
       <c r="I170">
         <v>541</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J170">
+        <v>8485</v>
+      </c>
+      <c r="K170">
+        <v>207</v>
+      </c>
+      <c r="L170">
+        <v>676</v>
+      </c>
+      <c r="M170">
+        <v>8392</v>
+      </c>
+      <c r="N170">
+        <v>230</v>
+      </c>
+      <c r="O170">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -5396,8 +8480,26 @@
       <c r="I171">
         <v>758</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J171">
+        <v>7248</v>
+      </c>
+      <c r="K171">
+        <v>288</v>
+      </c>
+      <c r="L171">
+        <v>1157</v>
+      </c>
+      <c r="M171">
+        <v>6676</v>
+      </c>
+      <c r="N171">
+        <v>290</v>
+      </c>
+      <c r="O171">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -5425,8 +8527,26 @@
       <c r="I172">
         <v>317</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J172">
+        <v>8514</v>
+      </c>
+      <c r="K172">
+        <v>178</v>
+      </c>
+      <c r="L172">
+        <v>552</v>
+      </c>
+      <c r="M172">
+        <v>8512</v>
+      </c>
+      <c r="N172">
+        <v>179</v>
+      </c>
+      <c r="O172">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -5454,8 +8574,26 @@
       <c r="I173">
         <v>262</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J173">
+        <v>8320</v>
+      </c>
+      <c r="K173">
+        <v>244</v>
+      </c>
+      <c r="L173">
+        <v>701</v>
+      </c>
+      <c r="M173">
+        <v>8368</v>
+      </c>
+      <c r="N173">
+        <v>213</v>
+      </c>
+      <c r="O173">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -5483,8 +8621,26 @@
       <c r="I174">
         <v>687</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J174">
+        <v>8625</v>
+      </c>
+      <c r="K174">
+        <v>174</v>
+      </c>
+      <c r="L174">
+        <v>556</v>
+      </c>
+      <c r="M174">
+        <v>8562</v>
+      </c>
+      <c r="N174">
+        <v>176</v>
+      </c>
+      <c r="O174">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -5512,8 +8668,26 @@
       <c r="I175">
         <v>888</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J175">
+        <v>7733</v>
+      </c>
+      <c r="K175">
+        <v>272</v>
+      </c>
+      <c r="L175">
+        <v>1042</v>
+      </c>
+      <c r="M175">
+        <v>7781</v>
+      </c>
+      <c r="N175">
+        <v>260</v>
+      </c>
+      <c r="O175">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -5541,8 +8715,26 @@
       <c r="I176">
         <v>536</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J176">
+        <v>6921</v>
+      </c>
+      <c r="K176">
+        <v>351</v>
+      </c>
+      <c r="L176">
+        <v>1357</v>
+      </c>
+      <c r="M176">
+        <v>7568</v>
+      </c>
+      <c r="N176">
+        <v>315</v>
+      </c>
+      <c r="O176">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -5570,8 +8762,26 @@
       <c r="I177">
         <v>1975</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J177">
+        <v>6268</v>
+      </c>
+      <c r="K177">
+        <v>381</v>
+      </c>
+      <c r="L177">
+        <v>2008</v>
+      </c>
+      <c r="M177">
+        <v>7468</v>
+      </c>
+      <c r="N177">
+        <v>321</v>
+      </c>
+      <c r="O177">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -5599,8 +8809,26 @@
       <c r="I178">
         <v>165</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J178">
+        <v>8180</v>
+      </c>
+      <c r="K178">
+        <v>229</v>
+      </c>
+      <c r="L178">
+        <v>392</v>
+      </c>
+      <c r="M178">
+        <v>8132</v>
+      </c>
+      <c r="N178">
+        <v>234</v>
+      </c>
+      <c r="O178">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -5628,8 +8856,26 @@
       <c r="I179">
         <v>1011</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J179">
+        <v>7006</v>
+      </c>
+      <c r="K179">
+        <v>366</v>
+      </c>
+      <c r="L179">
+        <v>1405</v>
+      </c>
+      <c r="M179">
+        <v>7238</v>
+      </c>
+      <c r="N179">
+        <v>331</v>
+      </c>
+      <c r="O179">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -5657,8 +8903,26 @@
       <c r="I180">
         <v>980</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J180">
+        <v>6892</v>
+      </c>
+      <c r="K180">
+        <v>354</v>
+      </c>
+      <c r="L180">
+        <v>1346</v>
+      </c>
+      <c r="M180">
+        <v>7163</v>
+      </c>
+      <c r="N180">
+        <v>357</v>
+      </c>
+      <c r="O180">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -5686,8 +8950,26 @@
       <c r="I181">
         <v>1383</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J181">
+        <v>7244</v>
+      </c>
+      <c r="K181">
+        <v>350</v>
+      </c>
+      <c r="L181">
+        <v>1513</v>
+      </c>
+      <c r="M181">
+        <v>6245</v>
+      </c>
+      <c r="N181">
+        <v>411</v>
+      </c>
+      <c r="O181">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -5715,8 +8997,26 @@
       <c r="I182">
         <v>454</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J182">
+        <v>5499</v>
+      </c>
+      <c r="K182">
+        <v>344</v>
+      </c>
+      <c r="L182">
+        <v>1194</v>
+      </c>
+      <c r="M182">
+        <v>5542</v>
+      </c>
+      <c r="N182">
+        <v>379</v>
+      </c>
+      <c r="O182">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -5744,8 +9044,26 @@
       <c r="I183">
         <v>600</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J183">
+        <v>7565</v>
+      </c>
+      <c r="K183">
+        <v>336</v>
+      </c>
+      <c r="L183">
+        <v>1164</v>
+      </c>
+      <c r="M183">
+        <v>7525</v>
+      </c>
+      <c r="N183">
+        <v>322</v>
+      </c>
+      <c r="O183">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -5773,8 +9091,26 @@
       <c r="I184">
         <v>945</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J184">
+        <v>6905</v>
+      </c>
+      <c r="K184">
+        <v>387</v>
+      </c>
+      <c r="L184">
+        <v>1062</v>
+      </c>
+      <c r="M184">
+        <v>6691</v>
+      </c>
+      <c r="N184">
+        <v>395</v>
+      </c>
+      <c r="O184">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -5802,8 +9138,26 @@
       <c r="I185">
         <v>892</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J185">
+        <v>6499</v>
+      </c>
+      <c r="K185">
+        <v>404</v>
+      </c>
+      <c r="L185">
+        <v>1740</v>
+      </c>
+      <c r="M185">
+        <v>5861</v>
+      </c>
+      <c r="N185">
+        <v>363</v>
+      </c>
+      <c r="O185">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -5831,8 +9185,26 @@
       <c r="I186">
         <v>540</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J186">
+        <v>6423</v>
+      </c>
+      <c r="K186">
+        <v>299</v>
+      </c>
+      <c r="L186">
+        <v>855</v>
+      </c>
+      <c r="M186">
+        <v>6267</v>
+      </c>
+      <c r="N186">
+        <v>330</v>
+      </c>
+      <c r="O186">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -5860,8 +9232,26 @@
       <c r="I187">
         <v>541</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J187">
+        <v>6313</v>
+      </c>
+      <c r="K187">
+        <v>323</v>
+      </c>
+      <c r="L187">
+        <v>813</v>
+      </c>
+      <c r="M187">
+        <v>6407</v>
+      </c>
+      <c r="N187">
+        <v>340</v>
+      </c>
+      <c r="O187">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -5889,8 +9279,26 @@
       <c r="I188">
         <v>1023</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J188">
+        <v>6418</v>
+      </c>
+      <c r="K188">
+        <v>311</v>
+      </c>
+      <c r="L188">
+        <v>1329</v>
+      </c>
+      <c r="M188">
+        <v>6522</v>
+      </c>
+      <c r="N188">
+        <v>309</v>
+      </c>
+      <c r="O188">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -5918,8 +9326,26 @@
       <c r="I189">
         <v>1364</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J189">
+        <v>6420</v>
+      </c>
+      <c r="K189">
+        <v>381</v>
+      </c>
+      <c r="L189">
+        <v>1696</v>
+      </c>
+      <c r="M189">
+        <v>6588</v>
+      </c>
+      <c r="N189">
+        <v>353</v>
+      </c>
+      <c r="O189">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>8</v>
       </c>
@@ -5946,6 +9372,24 @@
       </c>
       <c r="I190">
         <v>1026</v>
+      </c>
+      <c r="J190">
+        <v>7148</v>
+      </c>
+      <c r="K190">
+        <v>335</v>
+      </c>
+      <c r="L190">
+        <v>1386</v>
+      </c>
+      <c r="M190">
+        <v>6034</v>
+      </c>
+      <c r="N190">
+        <v>341</v>
+      </c>
+      <c r="O190">
+        <v>1462</v>
       </c>
     </row>
   </sheetData>

--- a/data input/Station_data.xlsx
+++ b/data input/Station_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="27">
   <si>
     <t>Days</t>
   </si>
@@ -91,14 +91,30 @@
   <si>
     <t>Struc_1250</t>
   </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Dist_water</t>
+  </si>
+  <si>
+    <t>Dist_SBNP</t>
+  </si>
+  <si>
+    <t>Dist_infra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -166,6 +182,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,23 +463,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="9"/>
-    <col min="2" max="2" width="10.90625" style="2"/>
-    <col min="3" max="3" width="9.54296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9"/>
+    <col min="2" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="9.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -508,8 +529,23 @@
       <c r="O1" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -555,8 +591,23 @@
       <c r="O2">
         <v>1965</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="13">
+        <v>4.8543399999999997</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>376</v>
+      </c>
+      <c r="R2" s="14">
+        <v>348.45722996561301</v>
+      </c>
+      <c r="S2" s="14">
+        <v>46535.230868816798</v>
+      </c>
+      <c r="T2" s="14">
+        <v>1988.8402670938599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -602,8 +653,23 @@
       <c r="O3">
         <v>1173</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="13">
+        <v>4.7555100000000001</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>383</v>
+      </c>
+      <c r="R3" s="14">
+        <v>893.36438951241803</v>
+      </c>
+      <c r="S3" s="14">
+        <v>48606.041265149499</v>
+      </c>
+      <c r="T3" s="14">
+        <v>366.94533553980602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -649,8 +715,23 @@
       <c r="O4">
         <v>1697</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="13">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>370</v>
+      </c>
+      <c r="R4" s="14">
+        <v>444.94487514790802</v>
+      </c>
+      <c r="S4" s="14">
+        <v>50534.738684984703</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1160.3800016007899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -696,8 +777,23 @@
       <c r="O5">
         <v>944</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="13">
+        <v>3.54528</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>373</v>
+      </c>
+      <c r="R5" s="14">
+        <v>269.96724583326898</v>
+      </c>
+      <c r="S5" s="14">
+        <v>48587.595450262801</v>
+      </c>
+      <c r="T5" s="14">
+        <v>525.68339239598299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -743,8 +839,23 @@
       <c r="O6">
         <v>722</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="13">
+        <v>2.7802899999999999</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>382</v>
+      </c>
+      <c r="R6" s="14">
+        <v>552.50678674704795</v>
+      </c>
+      <c r="S6" s="14">
+        <v>47077.881372065604</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1163.85182494326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -790,8 +901,23 @@
       <c r="O7">
         <v>943</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="13">
+        <v>3.2383000000000002</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>326</v>
+      </c>
+      <c r="R7" s="14">
+        <v>18.692095159548199</v>
+      </c>
+      <c r="S7" s="14">
+        <v>44473.096411267397</v>
+      </c>
+      <c r="T7" s="14">
+        <v>3770.4698479287199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -837,8 +963,23 @@
       <c r="O8">
         <v>943</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="13">
+        <v>2.8585500000000001</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>338</v>
+      </c>
+      <c r="R8" s="14">
+        <v>176.974945022182</v>
+      </c>
+      <c r="S8" s="14">
+        <v>45413.213134425503</v>
+      </c>
+      <c r="T8" s="14">
+        <v>2896.05420591136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -884,8 +1025,23 @@
       <c r="O9">
         <v>942</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="13">
+        <v>3.24098</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>381</v>
+      </c>
+      <c r="R9" s="14">
+        <v>738.96237377330203</v>
+      </c>
+      <c r="S9" s="14">
+        <v>46846.427593420602</v>
+      </c>
+      <c r="T9" s="14">
+        <v>2038.3359938881399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -931,8 +1087,23 @@
       <c r="O10">
         <v>647</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="13">
+        <v>1.90408</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>362</v>
+      </c>
+      <c r="R10" s="14">
+        <v>440.853884852183</v>
+      </c>
+      <c r="S10" s="14">
+        <v>45726.706737108601</v>
+      </c>
+      <c r="T10" s="14">
+        <v>3718.8697574090402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -978,8 +1149,23 @@
       <c r="O11">
         <v>1175</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="13">
+        <v>1.6918</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>368</v>
+      </c>
+      <c r="R11" s="14">
+        <v>482.86294516388898</v>
+      </c>
+      <c r="S11" s="14">
+        <v>46606.132312730602</v>
+      </c>
+      <c r="T11" s="14">
+        <v>3509.10651818836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1025,8 +1211,23 @@
       <c r="O12">
         <v>931</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="13">
+        <v>3.3936000000000002</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>355</v>
+      </c>
+      <c r="R12" s="14">
+        <v>864.51901508939</v>
+      </c>
+      <c r="S12" s="14">
+        <v>46878.4647314088</v>
+      </c>
+      <c r="T12" s="14">
+        <v>3862.7195993626601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1072,8 +1273,23 @@
       <c r="O13">
         <v>545</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="13">
+        <v>3.23706</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>329</v>
+      </c>
+      <c r="R13" s="14">
+        <v>762.99136210108804</v>
+      </c>
+      <c r="S13" s="14">
+        <v>48690.081894394898</v>
+      </c>
+      <c r="T13" s="14">
+        <v>3221.2699464915499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1119,8 +1335,23 @@
       <c r="O14">
         <v>886</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="13">
+        <v>4.6867099999999997</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>338</v>
+      </c>
+      <c r="R14" s="14">
+        <v>329.65686483678599</v>
+      </c>
+      <c r="S14" s="14">
+        <v>48586.743955615697</v>
+      </c>
+      <c r="T14" s="14">
+        <v>1877.0987798329099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1166,8 +1397,23 @@
       <c r="O15">
         <v>546</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="13">
+        <v>1.6920200000000001</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>372</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1323.4917626967001</v>
+      </c>
+      <c r="S15" s="14">
+        <v>50043.810850383103</v>
+      </c>
+      <c r="T15" s="14">
+        <v>1657.1810131306099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1213,8 +1459,23 @@
       <c r="O16">
         <v>1808</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="13">
+        <v>1.1414299999999999</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>375</v>
+      </c>
+      <c r="R16" s="14">
+        <v>886.27859115533795</v>
+      </c>
+      <c r="S16" s="14">
+        <v>50195.6201921639</v>
+      </c>
+      <c r="T16" s="14">
+        <v>106.474066739387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1260,8 +1521,23 @@
       <c r="O17">
         <v>987</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="13">
+        <v>2.5223300000000002</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>361</v>
+      </c>
+      <c r="R17" s="14">
+        <v>855.56517699975404</v>
+      </c>
+      <c r="S17" s="14">
+        <v>22556.321517534001</v>
+      </c>
+      <c r="T17" s="14">
+        <v>7708.8140356973199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1307,8 +1583,23 @@
       <c r="O18">
         <v>414</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="13">
+        <v>2.7271200000000002</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>358</v>
+      </c>
+      <c r="R18" s="14">
+        <v>1299.74083681041</v>
+      </c>
+      <c r="S18" s="14">
+        <v>24416.505983352901</v>
+      </c>
+      <c r="T18" s="14">
+        <v>9107.7285837572108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1354,8 +1645,23 @@
       <c r="O19">
         <v>917</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" s="13">
+        <v>3.0741800000000001</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>332</v>
+      </c>
+      <c r="R19" s="14">
+        <v>279.911770338081</v>
+      </c>
+      <c r="S19" s="14">
+        <v>27022.971439093501</v>
+      </c>
+      <c r="T19" s="14">
+        <v>11548.2105332958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1401,8 +1707,23 @@
       <c r="O20">
         <v>1140</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="13">
+        <v>1.6210500000000001</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>340</v>
+      </c>
+      <c r="R20" s="14">
+        <v>279.13460923252899</v>
+      </c>
+      <c r="S20" s="14">
+        <v>22351.8214880788</v>
+      </c>
+      <c r="T20" s="14">
+        <v>8138.5901402419204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1448,8 +1769,23 @@
       <c r="O21">
         <v>1270</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="13">
+        <v>5.4181699999999999</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>309</v>
+      </c>
+      <c r="R21" s="14">
+        <v>310.18319445980097</v>
+      </c>
+      <c r="S21" s="14">
+        <v>24264.7517358593</v>
+      </c>
+      <c r="T21" s="14">
+        <v>9554.6654841977506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1495,8 +1831,23 @@
       <c r="O22">
         <v>899</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="13">
+        <v>3.8438400000000001</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>309</v>
+      </c>
+      <c r="R22" s="14">
+        <v>758.66484493589303</v>
+      </c>
+      <c r="S22" s="14">
+        <v>25917.556644046701</v>
+      </c>
+      <c r="T22" s="14">
+        <v>10950.1446243481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1542,8 +1893,23 @@
       <c r="O23">
         <v>868</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="13">
+        <v>4.33277</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>324</v>
+      </c>
+      <c r="R23" s="14">
+        <v>216.425131156584</v>
+      </c>
+      <c r="S23" s="14">
+        <v>26514.680657214001</v>
+      </c>
+      <c r="T23" s="14">
+        <v>11100.556102996999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1589,8 +1955,23 @@
       <c r="O24">
         <v>1323</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="13">
+        <v>4.4863900000000001</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>342</v>
+      </c>
+      <c r="R24" s="14">
+        <v>44.9096828831576</v>
+      </c>
+      <c r="S24" s="14">
+        <v>22378.926775973399</v>
+      </c>
+      <c r="T24" s="14">
+        <v>7032.4926008119301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1636,8 +2017,23 @@
       <c r="O25">
         <v>1100</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="13">
+        <v>4.3705800000000004</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>321</v>
+      </c>
+      <c r="R25" s="14">
+        <v>181.548170312895</v>
+      </c>
+      <c r="S25" s="14">
+        <v>23898.333058100299</v>
+      </c>
+      <c r="T25" s="14">
+        <v>8396.4495497960106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1683,8 +2079,23 @@
       <c r="O26">
         <v>1100</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="13">
+        <v>3.7043699999999999</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>290</v>
+      </c>
+      <c r="R26" s="14">
+        <v>263.32309496388302</v>
+      </c>
+      <c r="S26" s="14">
+        <v>25051.0670177797</v>
+      </c>
+      <c r="T26" s="14">
+        <v>9551.1961623657298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1730,8 +2141,23 @@
       <c r="O27">
         <v>921</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" s="13">
+        <v>2.4717699999999998</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>307</v>
+      </c>
+      <c r="R27" s="14">
+        <v>574.75162345092201</v>
+      </c>
+      <c r="S27" s="14">
+        <v>26579.023010057699</v>
+      </c>
+      <c r="T27" s="14">
+        <v>10488.2821348327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1777,8 +2203,23 @@
       <c r="O28">
         <v>1270</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="13">
+        <v>1.0442899999999999</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>295</v>
+      </c>
+      <c r="R28" s="14">
+        <v>57.310029398860898</v>
+      </c>
+      <c r="S28" s="14">
+        <v>24668.1981247779</v>
+      </c>
+      <c r="T28" s="14">
+        <v>10100.671613782801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1824,8 +2265,23 @@
       <c r="O29">
         <v>1420</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="13">
+        <v>5.6036700000000002</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>322</v>
+      </c>
+      <c r="R29" s="14">
+        <v>593.88783590799096</v>
+      </c>
+      <c r="S29" s="14">
+        <v>23980.525288159399</v>
+      </c>
+      <c r="T29" s="14">
+        <v>7483.0220657159198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1871,8 +2327,23 @@
       <c r="O30">
         <v>1332</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="13">
+        <v>0.99741999999999997</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>283</v>
+      </c>
+      <c r="R30" s="14">
+        <v>151.79561876757899</v>
+      </c>
+      <c r="S30" s="14">
+        <v>25745.194841994798</v>
+      </c>
+      <c r="T30" s="14">
+        <v>9611.9973332561403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1918,8 +2389,23 @@
       <c r="O31">
         <v>1580</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" s="13">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>345</v>
+      </c>
+      <c r="R31" s="14">
+        <v>818.01250291944802</v>
+      </c>
+      <c r="S31" s="14">
+        <v>23367.784880056599</v>
+      </c>
+      <c r="T31" s="14">
+        <v>6553.8838223419598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1965,8 +2451,23 @@
       <c r="O32">
         <v>810</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" s="13">
+        <v>1.58782</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>301</v>
+      </c>
+      <c r="R32" s="14">
+        <v>2446.0309022685201</v>
+      </c>
+      <c r="S32" s="14">
+        <v>24876.2740576453</v>
+      </c>
+      <c r="T32" s="14">
+        <v>2735.28420689931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2012,8 +2513,23 @@
       <c r="O33">
         <v>1489</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" s="13">
+        <v>1.83853</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>258</v>
+      </c>
+      <c r="R33" s="14">
+        <v>1162.23247717348</v>
+      </c>
+      <c r="S33" s="14">
+        <v>23932.605479658101</v>
+      </c>
+      <c r="T33" s="14">
+        <v>2198.49982984086</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2059,8 +2575,23 @@
       <c r="O34">
         <v>539</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="13">
+        <v>1.5807</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>257</v>
+      </c>
+      <c r="R34" s="14">
+        <v>265.13679252907798</v>
+      </c>
+      <c r="S34" s="14">
+        <v>24417.858736063899</v>
+      </c>
+      <c r="T34" s="14">
+        <v>2667.7050596731201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2106,8 +2637,23 @@
       <c r="O35">
         <v>1831</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35" s="13">
+        <v>2.5205700000000002</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>281</v>
+      </c>
+      <c r="R35" s="14">
+        <v>1175.8395351019699</v>
+      </c>
+      <c r="S35" s="14">
+        <v>25163.875100961301</v>
+      </c>
+      <c r="T35" s="14">
+        <v>3413.9576175791399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2153,8 +2699,23 @@
       <c r="O36">
         <v>1679</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36" s="13">
+        <v>2.1047400000000001</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>271</v>
+      </c>
+      <c r="R36" s="14">
+        <v>1044.99762400176</v>
+      </c>
+      <c r="S36" s="14">
+        <v>25889.804411302299</v>
+      </c>
+      <c r="T36" s="14">
+        <v>4149.0636576449797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2200,8 +2761,23 @@
       <c r="O37">
         <v>1679</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37" s="13">
+        <v>1.5877699999999999</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>278</v>
+      </c>
+      <c r="R37" s="14">
+        <v>1404.1678388228099</v>
+      </c>
+      <c r="S37" s="14">
+        <v>26168.045442634299</v>
+      </c>
+      <c r="T37" s="14">
+        <v>3956.06604991626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2247,8 +2823,23 @@
       <c r="O38">
         <v>1292</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38" s="13">
+        <v>3.2315399999999999</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>256</v>
+      </c>
+      <c r="R38" s="14">
+        <v>232.56791571541601</v>
+      </c>
+      <c r="S38" s="14">
+        <v>25701.363701203401</v>
+      </c>
+      <c r="T38" s="14">
+        <v>3652.5684490161598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2294,8 +2885,23 @@
       <c r="O39">
         <v>1489</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P39" s="13">
+        <v>2.3811900000000001</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>272</v>
+      </c>
+      <c r="R39" s="14">
+        <v>1905.5290584909101</v>
+      </c>
+      <c r="S39" s="14">
+        <v>24066.16575113</v>
+      </c>
+      <c r="T39" s="14">
+        <v>2356.2699736396198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2341,8 +2947,23 @@
       <c r="O40">
         <v>1793</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40" s="13">
+        <v>2.4939300000000002</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>237</v>
+      </c>
+      <c r="R40" s="14">
+        <v>187.05187308533999</v>
+      </c>
+      <c r="S40" s="14">
+        <v>29686.882901130401</v>
+      </c>
+      <c r="T40" s="14">
+        <v>5432.1627764856403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2388,8 +3009,23 @@
       <c r="O41">
         <v>1489</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" s="13">
+        <v>4.0125500000000001</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>283</v>
+      </c>
+      <c r="R41" s="14">
+        <v>1089.66239043321</v>
+      </c>
+      <c r="S41" s="14">
+        <v>22901.328157018699</v>
+      </c>
+      <c r="T41" s="14">
+        <v>1169.7874895898999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2435,8 +3071,23 @@
       <c r="O42">
         <v>1310</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42" s="13">
+        <v>0.66424000000000005</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>255</v>
+      </c>
+      <c r="R42" s="14">
+        <v>79.0308231989342</v>
+      </c>
+      <c r="S42" s="14">
+        <v>22568.3015071933</v>
+      </c>
+      <c r="T42" s="14">
+        <v>946.67104714236302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2482,8 +3133,23 @@
       <c r="O43">
         <v>1026</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43" s="13">
+        <v>1.8998699999999999</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>302</v>
+      </c>
+      <c r="R43" s="14">
+        <v>589.03938388709798</v>
+      </c>
+      <c r="S43" s="14">
+        <v>26584.016527658699</v>
+      </c>
+      <c r="T43" s="14">
+        <v>6343.4184073921597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2529,8 +3195,23 @@
       <c r="O44">
         <v>1666</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44" s="13">
+        <v>2.7231200000000002</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>287</v>
+      </c>
+      <c r="R44" s="14">
+        <v>196.53762319291201</v>
+      </c>
+      <c r="S44" s="14">
+        <v>28114.075683679599</v>
+      </c>
+      <c r="T44" s="14">
+        <v>5556.5909775151404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2576,8 +3257,23 @@
       <c r="O45">
         <v>1518</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45" s="13">
+        <v>1.1402300000000001</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>239</v>
+      </c>
+      <c r="R45" s="14">
+        <v>4.0663722793432697</v>
+      </c>
+      <c r="S45" s="14">
+        <v>31564.657303210501</v>
+      </c>
+      <c r="T45" s="14">
+        <v>3240.6503572986198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2623,8 +3319,23 @@
       <c r="O46">
         <v>1562</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46" s="13">
+        <v>2.7229700000000001</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>292</v>
+      </c>
+      <c r="R46" s="14">
+        <v>915.66559375275006</v>
+      </c>
+      <c r="S46" s="14">
+        <v>27292.373325771001</v>
+      </c>
+      <c r="T46" s="14">
+        <v>4983.5781980745396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2670,8 +3381,23 @@
       <c r="O47">
         <v>526</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47" s="13">
+        <v>1.7696400000000001</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>325</v>
+      </c>
+      <c r="R47" s="14">
+        <v>260.61966382882599</v>
+      </c>
+      <c r="S47" s="14">
+        <v>25705.684178448599</v>
+      </c>
+      <c r="T47" s="14">
+        <v>5713.2761321175703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2717,8 +3443,23 @@
       <c r="O48">
         <v>663</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48" s="13">
+        <v>0.45344000000000001</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>280</v>
+      </c>
+      <c r="R48" s="14">
+        <v>451.81678086240299</v>
+      </c>
+      <c r="S48" s="14">
+        <v>31717.693959566899</v>
+      </c>
+      <c r="T48" s="14">
+        <v>1740.9448785137399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2764,8 +3505,23 @@
       <c r="O49">
         <v>1394</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49" s="13">
+        <v>1.5869</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>279</v>
+      </c>
+      <c r="R49" s="14">
+        <v>701.20121774051404</v>
+      </c>
+      <c r="S49" s="14">
+        <v>30580.197171774002</v>
+      </c>
+      <c r="T49" s="14">
+        <v>1467.0167338455799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2811,8 +3567,23 @@
       <c r="O50">
         <v>1003</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50" s="13">
+        <v>2.72444</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>292</v>
+      </c>
+      <c r="R50" s="14">
+        <v>122.116921046656</v>
+      </c>
+      <c r="S50" s="14">
+        <v>26511.739437923301</v>
+      </c>
+      <c r="T50" s="14">
+        <v>2597.584633469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2858,8 +3629,23 @@
       <c r="O51">
         <v>1280</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P51" s="13">
+        <v>3.12263</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>263</v>
+      </c>
+      <c r="R51" s="14">
+        <v>211.16940251058799</v>
+      </c>
+      <c r="S51" s="14">
+        <v>29740.404113216198</v>
+      </c>
+      <c r="T51" s="14">
+        <v>24.634610972862301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2905,8 +3691,23 @@
       <c r="O52">
         <v>1205</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P52" s="13">
+        <v>1.81304</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>282</v>
+      </c>
+      <c r="R52" s="14">
+        <v>86.009090448161103</v>
+      </c>
+      <c r="S52" s="14">
+        <v>27037.069841421198</v>
+      </c>
+      <c r="T52" s="14">
+        <v>1634.9359629099799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2952,8 +3753,23 @@
       <c r="O53">
         <v>1423</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53" s="13">
+        <v>2.65259</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>274</v>
+      </c>
+      <c r="R53" s="14">
+        <v>1281.580631645</v>
+      </c>
+      <c r="S53" s="14">
+        <v>29949.668223502402</v>
+      </c>
+      <c r="T53" s="14">
+        <v>6890.8129431380703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2999,8 +3815,23 @@
       <c r="O54">
         <v>1261</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54" s="13">
+        <v>4.67333</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>343</v>
+      </c>
+      <c r="R54" s="14">
+        <v>1975.80010033026</v>
+      </c>
+      <c r="S54" s="14">
+        <v>9128.4618133314998</v>
+      </c>
+      <c r="T54" s="14">
+        <v>8240.9726497351003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3046,8 +3877,23 @@
       <c r="O55">
         <v>1324</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P55" s="13">
+        <v>2.7211500000000002</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>357</v>
+      </c>
+      <c r="R55" s="14">
+        <v>1130.06673250261</v>
+      </c>
+      <c r="S55" s="14">
+        <v>10709.034618195899</v>
+      </c>
+      <c r="T55" s="14">
+        <v>2437.0729478837302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3093,8 +3939,23 @@
       <c r="O56">
         <v>1405</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P56" s="13">
+        <v>11.329980000000001</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>331</v>
+      </c>
+      <c r="R56" s="14">
+        <v>320.71831498956902</v>
+      </c>
+      <c r="S56" s="14">
+        <v>9616.6378356924106</v>
+      </c>
+      <c r="T56" s="14">
+        <v>7043.6765533875496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3140,8 +4001,23 @@
       <c r="O57">
         <v>2215</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P57" s="13">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>333</v>
+      </c>
+      <c r="R57" s="14">
+        <v>269.488564305132</v>
+      </c>
+      <c r="S57" s="14">
+        <v>8449.7107690100092</v>
+      </c>
+      <c r="T57" s="14">
+        <v>6733.2045447810797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3187,8 +4063,23 @@
       <c r="O58">
         <v>1191</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P58" s="13">
+        <v>1.2364599999999999</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>307</v>
+      </c>
+      <c r="R58" s="14">
+        <v>250.26588785151</v>
+      </c>
+      <c r="S58" s="14">
+        <v>13368.0099541292</v>
+      </c>
+      <c r="T58" s="14">
+        <v>2942.8328723560498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3234,8 +4125,23 @@
       <c r="O59">
         <v>1259</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59" s="13">
+        <v>8.8962000000000003</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>345</v>
+      </c>
+      <c r="R59" s="14">
+        <v>888.07136122009399</v>
+      </c>
+      <c r="S59" s="14">
+        <v>10207.6375275421</v>
+      </c>
+      <c r="T59" s="14">
+        <v>5247.4922455933402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3281,8 +4187,23 @@
       <c r="O60">
         <v>1191</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60" s="13">
+        <v>4.4001000000000001</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>313</v>
+      </c>
+      <c r="R60" s="14">
+        <v>1295.4912148184501</v>
+      </c>
+      <c r="S60" s="14">
+        <v>12373.840677726501</v>
+      </c>
+      <c r="T60" s="14">
+        <v>3306.64214979588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3328,8 +4249,23 @@
       <c r="O61">
         <v>1711</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61" s="13">
+        <v>8.7949699999999993</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>343</v>
+      </c>
+      <c r="R61" s="14">
+        <v>636.40978472431595</v>
+      </c>
+      <c r="S61" s="14">
+        <v>8413.9616721275797</v>
+      </c>
+      <c r="T61" s="14">
+        <v>5538.87885315737</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3375,8 +4311,23 @@
       <c r="O62">
         <v>1155</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P62" s="13">
+        <v>4.3392400000000002</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>355</v>
+      </c>
+      <c r="R62" s="14">
+        <v>2233.42725192751</v>
+      </c>
+      <c r="S62" s="14">
+        <v>10677.716468869001</v>
+      </c>
+      <c r="T62" s="14">
+        <v>3485.0425005857001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3422,8 +4373,23 @@
       <c r="O63">
         <v>1014</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63" s="13">
+        <v>1.2364599999999999</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>306</v>
+      </c>
+      <c r="R63" s="14">
+        <v>1337.6660160645999</v>
+      </c>
+      <c r="S63" s="14">
+        <v>12924.797747684999</v>
+      </c>
+      <c r="T63" s="14">
+        <v>1753.44881712544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3469,8 +4435,23 @@
       <c r="O64">
         <v>1332</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P64" s="13">
+        <v>6.4581999999999997</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>364</v>
+      </c>
+      <c r="R64" s="14">
+        <v>1859.37416550175</v>
+      </c>
+      <c r="S64" s="14">
+        <v>8914.2951827958095</v>
+      </c>
+      <c r="T64" s="14">
+        <v>3901.3776733896502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3516,8 +4497,23 @@
       <c r="O65">
         <v>1324</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65" s="13">
+        <v>6.9881099999999998</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>341</v>
+      </c>
+      <c r="R65" s="14">
+        <v>483.16727354359801</v>
+      </c>
+      <c r="S65" s="14">
+        <v>11404.2817818443</v>
+      </c>
+      <c r="T65" s="14">
+        <v>1591.00012108999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3563,8 +4559,23 @@
       <c r="O66">
         <v>1838</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66" s="13">
+        <v>2.8066599999999999</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>544</v>
+      </c>
+      <c r="R66" s="14">
+        <v>1017.361666675</v>
+      </c>
+      <c r="S66" s="14">
+        <v>221.10302585673301</v>
+      </c>
+      <c r="T66" s="14">
+        <v>5996.7028535213403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3610,8 +4621,23 @@
       <c r="O67">
         <v>1838</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P67" s="13">
+        <v>5.9108299999999998</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>537</v>
+      </c>
+      <c r="R67" s="14">
+        <v>155.14689688172601</v>
+      </c>
+      <c r="S67" s="14">
+        <v>0</v>
+      </c>
+      <c r="T67" s="14">
+        <v>6520.3385729060201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3657,8 +4683,23 @@
       <c r="O68">
         <v>896</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P68" s="13">
+        <v>2.80409</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>505</v>
+      </c>
+      <c r="R68" s="14">
+        <v>119.17870141273001</v>
+      </c>
+      <c r="S68" s="14">
+        <v>0</v>
+      </c>
+      <c r="T68" s="14">
+        <v>9570.2415086912497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3704,8 +4745,23 @@
       <c r="O69">
         <v>1587</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P69" s="13">
+        <v>6.2796500000000002</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>562</v>
+      </c>
+      <c r="R69" s="14">
+        <v>1811.7357405227599</v>
+      </c>
+      <c r="S69" s="14">
+        <v>39.4405699303882</v>
+      </c>
+      <c r="T69" s="14">
+        <v>7331.27855877007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3751,8 +4807,23 @@
       <c r="O70">
         <v>721</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P70" s="13">
+        <v>6.0015200000000002</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>514</v>
+      </c>
+      <c r="R70" s="14">
+        <v>221.409262497751</v>
+      </c>
+      <c r="S70" s="14">
+        <v>0</v>
+      </c>
+      <c r="T70" s="14">
+        <v>7252.3181091626802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3798,8 +4869,23 @@
       <c r="O71">
         <v>1580</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P71" s="13">
+        <v>3.8595700000000002</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>571</v>
+      </c>
+      <c r="R71" s="14">
+        <v>817.99027889393597</v>
+      </c>
+      <c r="S71" s="14">
+        <v>0</v>
+      </c>
+      <c r="T71" s="14">
+        <v>7699.7834722807702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3845,8 +4931,23 @@
       <c r="O72">
         <v>1827</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P72" s="13">
+        <v>8.7482299999999995</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>583</v>
+      </c>
+      <c r="R72" s="14">
+        <v>1068.9730959804201</v>
+      </c>
+      <c r="S72" s="14">
+        <v>548.36409906132803</v>
+      </c>
+      <c r="T72" s="14">
+        <v>5078.5771193384498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3892,8 +4993,23 @@
       <c r="O73">
         <v>1587</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P73" s="13">
+        <v>3.3557399999999999</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>558</v>
+      </c>
+      <c r="R73" s="14">
+        <v>2384.1906162177102</v>
+      </c>
+      <c r="S73" s="14">
+        <v>412.75733106242097</v>
+      </c>
+      <c r="T73" s="14">
+        <v>6917.3735530896702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3939,8 +5055,23 @@
       <c r="O74">
         <v>1827</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P74" s="13">
+        <v>2.2649699999999999</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>530</v>
+      </c>
+      <c r="R74" s="14">
+        <v>313.97510650539698</v>
+      </c>
+      <c r="S74" s="14">
+        <v>19.915435467203601</v>
+      </c>
+      <c r="T74" s="14">
+        <v>5491.1510489144403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3986,8 +5117,23 @@
       <c r="O75">
         <v>1518</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P75" s="13">
+        <v>5.0325499999999996</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>568</v>
+      </c>
+      <c r="R75" s="14">
+        <v>909.99282273182496</v>
+      </c>
+      <c r="S75" s="14">
+        <v>1533.4663657240999</v>
+      </c>
+      <c r="T75" s="14">
+        <v>4090.8973419683998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -4033,8 +5179,23 @@
       <c r="O76">
         <v>1317</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P76" s="13">
+        <v>2.6637</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>607</v>
+      </c>
+      <c r="R76" s="14">
+        <v>2985.8300664334902</v>
+      </c>
+      <c r="S76" s="14">
+        <v>280.62587189635798</v>
+      </c>
+      <c r="T76" s="14">
+        <v>4395.2163756268801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -4080,8 +5241,23 @@
       <c r="O77">
         <v>1827</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P77" s="13">
+        <v>0.98482000000000003</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>529</v>
+      </c>
+      <c r="R77" s="14">
+        <v>102.721828059958</v>
+      </c>
+      <c r="S77" s="14">
+        <v>647.27694967631703</v>
+      </c>
+      <c r="T77" s="14">
+        <v>4777.8607604299996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -4127,8 +5303,23 @@
       <c r="O78">
         <v>2200</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P78" s="13">
+        <v>5.6169900000000004</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>381</v>
+      </c>
+      <c r="R78" s="14">
+        <v>96.922099888329399</v>
+      </c>
+      <c r="S78" s="14">
+        <v>0</v>
+      </c>
+      <c r="T78" s="14">
+        <v>8818.0601405458692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -4174,8 +5365,23 @@
       <c r="O79">
         <v>1585</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P79" s="13">
+        <v>11.89822</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>407</v>
+      </c>
+      <c r="R79" s="14">
+        <v>788.81422369528798</v>
+      </c>
+      <c r="S79" s="14">
+        <v>647.67678315719297</v>
+      </c>
+      <c r="T79" s="14">
+        <v>7928.94058029597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -4221,8 +5427,23 @@
       <c r="O80">
         <v>2061</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P80" s="13">
+        <v>9.8289399999999993</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>422</v>
+      </c>
+      <c r="R80" s="14">
+        <v>1003.39949694374</v>
+      </c>
+      <c r="S80" s="14">
+        <v>1255.44579680436</v>
+      </c>
+      <c r="T80" s="14">
+        <v>8741.0332899704608</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -4268,8 +5489,23 @@
       <c r="O81">
         <v>2061</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P81" s="13">
+        <v>1.32582</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>362</v>
+      </c>
+      <c r="R81" s="14">
+        <v>530.15207903981502</v>
+      </c>
+      <c r="S81" s="14">
+        <v>1751.19821293522</v>
+      </c>
+      <c r="T81" s="14">
+        <v>9089.63654677454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4315,8 +5551,23 @@
       <c r="O82">
         <v>737</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P82" s="13">
+        <v>3.6800299999999999</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>402</v>
+      </c>
+      <c r="R82" s="14">
+        <v>113.121342452429</v>
+      </c>
+      <c r="S82" s="14">
+        <v>0</v>
+      </c>
+      <c r="T82" s="14">
+        <v>7110.22146626638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4362,8 +5613,23 @@
       <c r="O83">
         <v>2303</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P83" s="13">
+        <v>2.7211500000000002</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>376</v>
+      </c>
+      <c r="R83" s="14">
+        <v>207.915452806698</v>
+      </c>
+      <c r="S83" s="14">
+        <v>886.86741866347097</v>
+      </c>
+      <c r="T83" s="14">
+        <v>9644.8132075861995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4409,8 +5675,23 @@
       <c r="O84">
         <v>760</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P84" s="13">
+        <v>27.529309999999999</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>486</v>
+      </c>
+      <c r="R84" s="14">
+        <v>62.381424468467003</v>
+      </c>
+      <c r="S84" s="14">
+        <v>0</v>
+      </c>
+      <c r="T84" s="14">
+        <v>7107.0647886690904</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4456,8 +5737,23 @@
       <c r="O85">
         <v>2113</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P85" s="13">
+        <v>7.8994299999999997</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>555</v>
+      </c>
+      <c r="R85" s="14">
+        <v>1839.2811423265</v>
+      </c>
+      <c r="S85" s="14">
+        <v>2031.5164969289499</v>
+      </c>
+      <c r="T85" s="14">
+        <v>4792.3455258481099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4503,8 +5799,23 @@
       <c r="O86">
         <v>693</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P86" s="13">
+        <v>18.261299999999999</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>454</v>
+      </c>
+      <c r="R86" s="14">
+        <v>27.726754156750701</v>
+      </c>
+      <c r="S86" s="14">
+        <v>19.8392843354127</v>
+      </c>
+      <c r="T86" s="14">
+        <v>6980.3002134025201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4550,8 +5861,23 @@
       <c r="O87">
         <v>1653</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P87" s="13">
+        <v>1.6571899999999999</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>369</v>
+      </c>
+      <c r="R87" s="14">
+        <v>216.19420459592101</v>
+      </c>
+      <c r="S87" s="14">
+        <v>2996.1558134235001</v>
+      </c>
+      <c r="T87" s="14">
+        <v>8843.6893770056504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4597,8 +5923,23 @@
       <c r="O88">
         <v>693</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P88" s="13">
+        <v>8.6976099999999992</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>575</v>
+      </c>
+      <c r="R88" s="14">
+        <v>844.20424070747003</v>
+      </c>
+      <c r="S88" s="14">
+        <v>629.74288202694402</v>
+      </c>
+      <c r="T88" s="14">
+        <v>6060.7376327781203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4644,8 +5985,23 @@
       <c r="O89">
         <v>2303</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P89" s="13">
+        <v>3.6933699999999998</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>380</v>
+      </c>
+      <c r="R89" s="14">
+        <v>107.919327922966</v>
+      </c>
+      <c r="S89" s="14">
+        <v>235.24465737825</v>
+      </c>
+      <c r="T89" s="14">
+        <v>9440.7099133735901</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -4691,8 +6047,23 @@
       <c r="O90">
         <v>2006</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P90" s="13">
+        <v>2.7802899999999999</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>588</v>
+      </c>
+      <c r="R90" s="14">
+        <v>1464.7221895974301</v>
+      </c>
+      <c r="S90" s="14">
+        <v>1782.9493625103601</v>
+      </c>
+      <c r="T90" s="14">
+        <v>4902.3616594568002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -4738,8 +6109,23 @@
       <c r="O91">
         <v>1987</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P91" s="13">
+        <v>9.2009899999999991</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>508</v>
+      </c>
+      <c r="R91" s="14">
+        <v>1476.3764609436701</v>
+      </c>
+      <c r="S91" s="14">
+        <v>3021.1439249843902</v>
+      </c>
+      <c r="T91" s="14">
+        <v>3668.4116131734199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -4785,8 +6171,23 @@
       <c r="O92">
         <v>1983</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P92" s="13">
+        <v>7.7945900000000004</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>439</v>
+      </c>
+      <c r="R92" s="14">
+        <v>625.0238523063</v>
+      </c>
+      <c r="S92" s="14">
+        <v>4299.88151917912</v>
+      </c>
+      <c r="T92" s="14">
+        <v>2385.30482424612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -4832,8 +6233,23 @@
       <c r="O93">
         <v>2006</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P93" s="13">
+        <v>6.85025</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>526</v>
+      </c>
+      <c r="R93" s="14">
+        <v>1820.65742763908</v>
+      </c>
+      <c r="S93" s="14">
+        <v>2748.2902239796199</v>
+      </c>
+      <c r="T93" s="14">
+        <v>3926.60761409526</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -4879,8 +6295,23 @@
       <c r="O94">
         <v>1777</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P94" s="13">
+        <v>8.0343599999999995</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>527</v>
+      </c>
+      <c r="R94" s="14">
+        <v>1359.83917740945</v>
+      </c>
+      <c r="S94" s="14">
+        <v>6460.47610214826</v>
+      </c>
+      <c r="T94" s="14">
+        <v>274.77446317364797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -4926,8 +6357,23 @@
       <c r="O95">
         <v>1925</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P95" s="13">
+        <v>2.0352100000000002</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>624</v>
+      </c>
+      <c r="R95" s="14">
+        <v>375.14138065762</v>
+      </c>
+      <c r="S95" s="14">
+        <v>2821.6794314707399</v>
+      </c>
+      <c r="T95" s="14">
+        <v>4262.6113762565701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -4973,8 +6419,23 @@
       <c r="O96">
         <v>1883</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P96" s="13">
+        <v>6.5969699999999998</v>
+      </c>
+      <c r="Q96" s="13">
+        <v>509</v>
+      </c>
+      <c r="R96" s="14">
+        <v>1281.4937003503501</v>
+      </c>
+      <c r="S96" s="14">
+        <v>7034.9548004964499</v>
+      </c>
+      <c r="T96" s="14">
+        <v>463.45470184469002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -5020,8 +6481,23 @@
       <c r="O97">
         <v>2105</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P97" s="13">
+        <v>1.68438</v>
+      </c>
+      <c r="Q97" s="13">
+        <v>585</v>
+      </c>
+      <c r="R97" s="14">
+        <v>1386.36495912436</v>
+      </c>
+      <c r="S97" s="14">
+        <v>4469.4537724416396</v>
+      </c>
+      <c r="T97" s="14">
+        <v>2166.5428572566998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -5067,8 +6543,23 @@
       <c r="O98">
         <v>1893</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P98" s="13">
+        <v>11.030239999999999</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>540</v>
+      </c>
+      <c r="R98" s="14">
+        <v>1265.8622958788601</v>
+      </c>
+      <c r="S98" s="14">
+        <v>7377.0329175551697</v>
+      </c>
+      <c r="T98" s="14">
+        <v>228.961969887164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -5114,8 +6605,23 @@
       <c r="O99">
         <v>2181</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P99" s="13">
+        <v>2.33948</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>621</v>
+      </c>
+      <c r="R99" s="14">
+        <v>1666.1707592416701</v>
+      </c>
+      <c r="S99" s="14">
+        <v>3677.06690545432</v>
+      </c>
+      <c r="T99" s="14">
+        <v>2247.5609201616599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -5161,8 +6667,23 @@
       <c r="O100">
         <v>1872</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P100" s="13">
+        <v>3.7542900000000001</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>532</v>
+      </c>
+      <c r="R100" s="14">
+        <v>960.24885633382701</v>
+      </c>
+      <c r="S100" s="14">
+        <v>5529.91915358407</v>
+      </c>
+      <c r="T100" s="14">
+        <v>735.13553101644595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -5208,8 +6729,23 @@
       <c r="O101">
         <v>1864</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P101" s="13">
+        <v>3.1695500000000001</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>562</v>
+      </c>
+      <c r="R101" s="14">
+        <v>1388.5693258628701</v>
+      </c>
+      <c r="S101" s="14">
+        <v>8129.3342712071399</v>
+      </c>
+      <c r="T101" s="14">
+        <v>1521.03967484383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -5255,8 +6791,23 @@
       <c r="O102">
         <v>1296</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P102" s="13">
+        <v>4.6269099999999996</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>638</v>
+      </c>
+      <c r="R102" s="14">
+        <v>909.80550435059001</v>
+      </c>
+      <c r="S102" s="14">
+        <v>2730.85501611685</v>
+      </c>
+      <c r="T102" s="14">
+        <v>1070.18516542671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -5302,8 +6853,23 @@
       <c r="O103">
         <v>1721</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P103" s="13">
+        <v>8.3913799999999998</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>526</v>
+      </c>
+      <c r="R103" s="14">
+        <v>401.72501946935103</v>
+      </c>
+      <c r="S103" s="14">
+        <v>7167.5889830932501</v>
+      </c>
+      <c r="T103" s="14">
+        <v>908.84986667390399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -5349,8 +6915,23 @@
       <c r="O104">
         <v>1489</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P104" s="13">
+        <v>6.6270699999999998</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>630</v>
+      </c>
+      <c r="R104" s="14">
+        <v>555.11151277023305</v>
+      </c>
+      <c r="S104" s="14">
+        <v>2624.5095885672799</v>
+      </c>
+      <c r="T104" s="14">
+        <v>5121.9282281305796</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -5396,8 +6977,23 @@
       <c r="O105">
         <v>2442</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P105" s="13">
+        <v>6.2979700000000003</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>506</v>
+      </c>
+      <c r="R105" s="14">
+        <v>103.436299425163</v>
+      </c>
+      <c r="S105" s="14">
+        <v>9939.0275482802699</v>
+      </c>
+      <c r="T105" s="14">
+        <v>3255.1395217223499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -5443,8 +7039,23 @@
       <c r="O106">
         <v>2076</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P106" s="13">
+        <v>2.3797299999999999</v>
+      </c>
+      <c r="Q106" s="13">
+        <v>485</v>
+      </c>
+      <c r="R106" s="14">
+        <v>32.885410913213903</v>
+      </c>
+      <c r="S106" s="14">
+        <v>11061.8853000778</v>
+      </c>
+      <c r="T106" s="14">
+        <v>1803.6825970447501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -5490,8 +7101,23 @@
       <c r="O107">
         <v>1869</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P107" s="13">
+        <v>7.7451100000000004</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>548</v>
+      </c>
+      <c r="R107" s="14">
+        <v>294.16976560331199</v>
+      </c>
+      <c r="S107" s="14">
+        <v>7684.7009916720799</v>
+      </c>
+      <c r="T107" s="14">
+        <v>5479.8407150676203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -5537,8 +7163,23 @@
       <c r="O108">
         <v>2158</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P108" s="13">
+        <v>0.45291999999999999</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>496</v>
+      </c>
+      <c r="R108" s="14">
+        <v>135.86457589924299</v>
+      </c>
+      <c r="S108" s="14">
+        <v>10179.838188854899</v>
+      </c>
+      <c r="T108" s="14">
+        <v>2415.1870688484801</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -5584,8 +7225,23 @@
       <c r="O109">
         <v>2400</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P109" s="13">
+        <v>4.0717999999999996</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>558</v>
+      </c>
+      <c r="R109" s="14">
+        <v>25.093294821215</v>
+      </c>
+      <c r="S109" s="14">
+        <v>6162.4191818684603</v>
+      </c>
+      <c r="T109" s="14">
+        <v>6181.0822227293102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -5631,8 +7287,23 @@
       <c r="O110">
         <v>1589</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P110" s="13">
+        <v>1.1393500000000001</v>
+      </c>
+      <c r="Q110" s="13">
+        <v>451</v>
+      </c>
+      <c r="R110" s="14">
+        <v>142.12337342221701</v>
+      </c>
+      <c r="S110" s="14">
+        <v>12319.5525479546</v>
+      </c>
+      <c r="T110" s="14">
+        <v>288.64847998248598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -5678,8 +7349,23 @@
       <c r="O111">
         <v>1318</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P111" s="13">
+        <v>2.96522</v>
+      </c>
+      <c r="Q111" s="13">
+        <v>511</v>
+      </c>
+      <c r="R111" s="14">
+        <v>1736.4675183883801</v>
+      </c>
+      <c r="S111" s="14">
+        <v>11030.159712393001</v>
+      </c>
+      <c r="T111" s="14">
+        <v>1355.9193779938601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -5725,8 +7411,23 @@
       <c r="O112">
         <v>1683</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P112" s="13">
+        <v>2.37968</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>493</v>
+      </c>
+      <c r="R112" s="14">
+        <v>959.61395785619504</v>
+      </c>
+      <c r="S112" s="14">
+        <v>11710.701046231099</v>
+      </c>
+      <c r="T112" s="14">
+        <v>703.86874332043806</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -5772,8 +7473,23 @@
       <c r="O113">
         <v>1544</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P113" s="13">
+        <v>1.96878</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>540</v>
+      </c>
+      <c r="R113" s="14">
+        <v>547.55843746758296</v>
+      </c>
+      <c r="S113" s="14">
+        <v>7736.6408119725302</v>
+      </c>
+      <c r="T113" s="14">
+        <v>4677.3040464102296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -5819,8 +7535,23 @@
       <c r="O114">
         <v>1374</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P114" s="13">
+        <v>3.94875</v>
+      </c>
+      <c r="Q114" s="13">
+        <v>560</v>
+      </c>
+      <c r="R114" s="14">
+        <v>2423.0524944420199</v>
+      </c>
+      <c r="S114" s="14">
+        <v>10053.8257202067</v>
+      </c>
+      <c r="T114" s="14">
+        <v>2176.4521540589899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -5866,8 +7597,23 @@
       <c r="O115">
         <v>1540</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P115" s="13">
+        <v>1.03972</v>
+      </c>
+      <c r="Q115" s="13">
+        <v>480</v>
+      </c>
+      <c r="R115" s="14">
+        <v>512.87962865665895</v>
+      </c>
+      <c r="S115" s="14">
+        <v>12989.3249774047</v>
+      </c>
+      <c r="T115" s="14">
+        <v>611.07150995915197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -5913,8 +7659,23 @@
       <c r="O116">
         <v>1060</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P116" s="13">
+        <v>1.03969</v>
+      </c>
+      <c r="Q116" s="13">
+        <v>536</v>
+      </c>
+      <c r="R116" s="14">
+        <v>702.309607495617</v>
+      </c>
+      <c r="S116" s="14">
+        <v>7995.63918800998</v>
+      </c>
+      <c r="T116" s="14">
+        <v>3748.4653369305902</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -5960,8 +7721,23 @@
       <c r="O117">
         <v>893</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P117" s="13">
+        <v>4.4736799999999999</v>
+      </c>
+      <c r="Q117" s="13">
+        <v>536</v>
+      </c>
+      <c r="R117" s="14">
+        <v>1523.10763603332</v>
+      </c>
+      <c r="S117" s="14">
+        <v>11550.5779677011</v>
+      </c>
+      <c r="T117" s="14">
+        <v>368.85452095728999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -6007,8 +7783,23 @@
       <c r="O118">
         <v>870</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P118" s="13">
+        <v>3.1151399999999998</v>
+      </c>
+      <c r="Q118" s="13">
+        <v>407</v>
+      </c>
+      <c r="R118" s="14">
+        <v>1107.6808032757301</v>
+      </c>
+      <c r="S118" s="14">
+        <v>32489.970483099201</v>
+      </c>
+      <c r="T118" s="14">
+        <v>4215.3016054625796</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -6054,8 +7845,23 @@
       <c r="O119">
         <v>1294</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P119" s="13">
+        <v>6.4360799999999996</v>
+      </c>
+      <c r="Q119" s="13">
+        <v>386</v>
+      </c>
+      <c r="R119" s="14">
+        <v>1162.1853041021</v>
+      </c>
+      <c r="S119" s="14">
+        <v>28533.217538700701</v>
+      </c>
+      <c r="T119" s="14">
+        <v>6136.7812673675298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -6101,8 +7907,23 @@
       <c r="O120">
         <v>1143</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P120" s="13">
+        <v>6.5243000000000002</v>
+      </c>
+      <c r="Q120" s="13">
+        <v>391</v>
+      </c>
+      <c r="R120" s="14">
+        <v>1355.5876488729</v>
+      </c>
+      <c r="S120" s="14">
+        <v>31175.000746318499</v>
+      </c>
+      <c r="T120" s="14">
+        <v>3757.7136172453302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -6148,8 +7969,23 @@
       <c r="O121">
         <v>1335</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P121" s="13">
+        <v>4.1500700000000004</v>
+      </c>
+      <c r="Q121" s="13">
+        <v>258</v>
+      </c>
+      <c r="R121" s="14">
+        <v>770.04475943632201</v>
+      </c>
+      <c r="S121" s="14">
+        <v>27062.2843208259</v>
+      </c>
+      <c r="T121" s="14">
+        <v>6598.9058567617503</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -6195,8 +8031,23 @@
       <c r="O122">
         <v>1262</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P122" s="13">
+        <v>1.76501</v>
+      </c>
+      <c r="Q122" s="13">
+        <v>359</v>
+      </c>
+      <c r="R122" s="14">
+        <v>110.744839597169</v>
+      </c>
+      <c r="S122" s="14">
+        <v>29441.9515098843</v>
+      </c>
+      <c r="T122" s="14">
+        <v>4249.8152940985901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -6242,8 +8093,23 @@
       <c r="O123">
         <v>1183</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P123" s="13">
+        <v>2.9336600000000002</v>
+      </c>
+      <c r="Q123" s="13">
+        <v>446</v>
+      </c>
+      <c r="R123" s="14">
+        <v>540.96656737038097</v>
+      </c>
+      <c r="S123" s="14">
+        <v>31825.462423507699</v>
+      </c>
+      <c r="T123" s="14">
+        <v>2006.14713466083</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -6289,8 +8155,23 @@
       <c r="O124">
         <v>1279</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P124" s="13">
+        <v>18.628740000000001</v>
+      </c>
+      <c r="Q124" s="13">
+        <v>347</v>
+      </c>
+      <c r="R124" s="14">
+        <v>1292.71284483612</v>
+      </c>
+      <c r="S124" s="14">
+        <v>27776.288571810099</v>
+      </c>
+      <c r="T124" s="14">
+        <v>5044.3202405485999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -6336,8 +8217,23 @@
       <c r="O125">
         <v>1084</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P125" s="13">
+        <v>6.5233100000000004</v>
+      </c>
+      <c r="Q125" s="13">
+        <v>426</v>
+      </c>
+      <c r="R125" s="14">
+        <v>227.2679476985</v>
+      </c>
+      <c r="S125" s="14">
+        <v>30389.8180376624</v>
+      </c>
+      <c r="T125" s="14">
+        <v>2257.8897379172399</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -6383,8 +8279,23 @@
       <c r="O126">
         <v>1085</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P126" s="13">
+        <v>4.8352899999999996</v>
+      </c>
+      <c r="Q126" s="13">
+        <v>235</v>
+      </c>
+      <c r="R126" s="14">
+        <v>272.744372636977</v>
+      </c>
+      <c r="S126" s="14">
+        <v>26179.505281801001</v>
+      </c>
+      <c r="T126" s="14">
+        <v>6116.0795916163997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -6430,8 +8341,23 @@
       <c r="O127">
         <v>1464</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P127" s="13">
+        <v>3.1657199999999999</v>
+      </c>
+      <c r="Q127" s="13">
+        <v>421</v>
+      </c>
+      <c r="R127" s="14">
+        <v>941.18211442762504</v>
+      </c>
+      <c r="S127" s="14">
+        <v>32558.718278093402</v>
+      </c>
+      <c r="T127" s="14">
+        <v>111.255175488662</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -6477,8 +8403,23 @@
       <c r="O128">
         <v>1025</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P128" s="13">
+        <v>3.5026199999999998</v>
+      </c>
+      <c r="Q128" s="13">
+        <v>330</v>
+      </c>
+      <c r="R128" s="14">
+        <v>857.91443616234699</v>
+      </c>
+      <c r="S128" s="14">
+        <v>28249.024809786999</v>
+      </c>
+      <c r="T128" s="14">
+        <v>3797.7618826441699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -6524,8 +8465,23 @@
       <c r="O129">
         <v>1193</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P129" s="13">
+        <v>12.22579</v>
+      </c>
+      <c r="Q129" s="13">
+        <v>390</v>
+      </c>
+      <c r="R129" s="14">
+        <v>84.2159592560986</v>
+      </c>
+      <c r="S129" s="14">
+        <v>31062.249374222301</v>
+      </c>
+      <c r="T129" s="14">
+        <v>975.46544156222296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -6571,8 +8527,23 @@
       <c r="O130">
         <v>1056</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P130" s="13">
+        <v>1.8361099999999999</v>
+      </c>
+      <c r="Q130" s="13">
+        <v>299</v>
+      </c>
+      <c r="R130" s="14">
+        <v>161.570066054591</v>
+      </c>
+      <c r="S130" s="14">
+        <v>29584.424486139</v>
+      </c>
+      <c r="T130" s="14">
+        <v>2209.3273169901099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -6618,8 +8589,23 @@
       <c r="O131">
         <v>1569</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P131" s="13">
+        <v>7.6344399999999997</v>
+      </c>
+      <c r="Q131" s="13">
+        <v>331</v>
+      </c>
+      <c r="R131" s="14">
+        <v>203.66050322646501</v>
+      </c>
+      <c r="S131" s="14">
+        <v>30417.439862783802</v>
+      </c>
+      <c r="T131" s="14">
+        <v>5559.7188379459903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -6665,8 +8651,23 @@
       <c r="O132">
         <v>874</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P132" s="13">
+        <v>24.238859999999999</v>
+      </c>
+      <c r="Q132" s="13">
+        <v>249</v>
+      </c>
+      <c r="R132" s="14">
+        <v>181.95657435169699</v>
+      </c>
+      <c r="S132" s="14">
+        <v>341.71615924344002</v>
+      </c>
+      <c r="T132" s="14">
+        <v>8404.2943081379908</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -6712,8 +8713,23 @@
       <c r="O133">
         <v>930</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P133" s="13">
+        <v>24.969090000000001</v>
+      </c>
+      <c r="Q133" s="13">
+        <v>443</v>
+      </c>
+      <c r="R133" s="14">
+        <v>423.39834238193299</v>
+      </c>
+      <c r="S133" s="14">
+        <v>1806.8100703039499</v>
+      </c>
+      <c r="T133" s="14">
+        <v>10267.303791821099</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -6759,8 +8775,23 @@
       <c r="O134">
         <v>1006</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P134" s="13">
+        <v>3.4127900000000002</v>
+      </c>
+      <c r="Q134" s="13">
+        <v>456</v>
+      </c>
+      <c r="R134" s="14">
+        <v>237.98148971881301</v>
+      </c>
+      <c r="S134" s="14">
+        <v>2455.5765082574699</v>
+      </c>
+      <c r="T134" s="14">
+        <v>8002.3086284596502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -6806,8 +8837,23 @@
       <c r="O135">
         <v>1436</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P135" s="13">
+        <v>3.1652499999999999</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>365</v>
+      </c>
+      <c r="R135" s="14">
+        <v>73.493983901770704</v>
+      </c>
+      <c r="S135" s="14">
+        <v>2795.2613934269302</v>
+      </c>
+      <c r="T135" s="14">
+        <v>9719.3216143843201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -6853,8 +8899,23 @@
       <c r="O136">
         <v>1264</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P136" s="13">
+        <v>6.3236100000000004</v>
+      </c>
+      <c r="Q136" s="13">
+        <v>329</v>
+      </c>
+      <c r="R136" s="14">
+        <v>262.31909478714499</v>
+      </c>
+      <c r="S136" s="14">
+        <v>1169.2262043861101</v>
+      </c>
+      <c r="T136" s="14">
+        <v>8378.4118726939996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -6900,8 +8961,23 @@
       <c r="O137">
         <v>1169</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P137" s="13">
+        <v>3.6682199999999998</v>
+      </c>
+      <c r="Q137" s="13">
+        <v>386</v>
+      </c>
+      <c r="R137" s="14">
+        <v>30.906254782107101</v>
+      </c>
+      <c r="S137" s="14">
+        <v>4432.4661949801603</v>
+      </c>
+      <c r="T137" s="14">
+        <v>7666.4533335140804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -6947,8 +9023,23 @@
       <c r="O138">
         <v>1597</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P138" s="13">
+        <v>9.22743</v>
+      </c>
+      <c r="Q138" s="13">
+        <v>182</v>
+      </c>
+      <c r="R138" s="14">
+        <v>161.65981477172701</v>
+      </c>
+      <c r="S138" s="14">
+        <v>2734.5323136983102</v>
+      </c>
+      <c r="T138" s="14">
+        <v>10946.8333279822</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -6994,8 +9085,23 @@
       <c r="O139">
         <v>1431</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P139" s="13">
+        <v>3.2433299999999998</v>
+      </c>
+      <c r="Q139" s="13">
+        <v>315</v>
+      </c>
+      <c r="R139" s="14">
+        <v>687.57198350558201</v>
+      </c>
+      <c r="S139" s="14">
+        <v>3131.1136122887601</v>
+      </c>
+      <c r="T139" s="14">
+        <v>10336.0635439753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -7041,8 +9147,23 @@
       <c r="O140">
         <v>956</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P140" s="13">
+        <v>8.6532900000000001</v>
+      </c>
+      <c r="Q140" s="13">
+        <v>171</v>
+      </c>
+      <c r="R140" s="14">
+        <v>34.981642223093203</v>
+      </c>
+      <c r="S140" s="14">
+        <v>4515.6522887375404</v>
+      </c>
+      <c r="T140" s="14">
+        <v>10842.192716286199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -7088,8 +9209,23 @@
       <c r="O141">
         <v>1226</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P141" s="13">
+        <v>8.9367699999999992</v>
+      </c>
+      <c r="Q141" s="13">
+        <v>334</v>
+      </c>
+      <c r="R141" s="14">
+        <v>660.03993957611306</v>
+      </c>
+      <c r="S141" s="14">
+        <v>3711.33970491228</v>
+      </c>
+      <c r="T141" s="14">
+        <v>11624.2309724352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -7135,8 +9271,23 @@
       <c r="O142">
         <v>1599</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P142" s="13">
+        <v>1.45923</v>
+      </c>
+      <c r="Q142" s="13">
+        <v>333</v>
+      </c>
+      <c r="R142" s="14">
+        <v>303.62873774322901</v>
+      </c>
+      <c r="S142" s="14">
+        <v>5931.2992885388903</v>
+      </c>
+      <c r="T142" s="14">
+        <v>9753.1933155180996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -7182,8 +9333,23 @@
       <c r="O143">
         <v>1247</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P143" s="13">
+        <v>5.5887099999999998</v>
+      </c>
+      <c r="Q143" s="13">
+        <v>436</v>
+      </c>
+      <c r="R143" s="14">
+        <v>186.06261549850399</v>
+      </c>
+      <c r="S143" s="14">
+        <v>539.21173786629299</v>
+      </c>
+      <c r="T143" s="14">
+        <v>9894.0974420599705</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -7229,8 +9395,23 @@
       <c r="O144">
         <v>842</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P144" s="13">
+        <v>0.45261000000000001</v>
+      </c>
+      <c r="Q144" s="13">
+        <v>500</v>
+      </c>
+      <c r="R144" s="14">
+        <v>226.46305000056799</v>
+      </c>
+      <c r="S144" s="14">
+        <v>558.61437760955005</v>
+      </c>
+      <c r="T144" s="14">
+        <v>3500.2401824763601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -7276,8 +9457,23 @@
       <c r="O145">
         <v>722</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P145" s="13">
+        <v>0.70111999999999997</v>
+      </c>
+      <c r="Q145" s="13">
+        <v>566</v>
+      </c>
+      <c r="R145" s="14">
+        <v>91.918403183267699</v>
+      </c>
+      <c r="S145" s="14">
+        <v>0</v>
+      </c>
+      <c r="T145" s="14">
+        <v>5441.7435728562396</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -7323,8 +9519,23 @@
       <c r="O146">
         <v>797</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P146" s="13">
+        <v>27.318490000000001</v>
+      </c>
+      <c r="Q146" s="13">
+        <v>429</v>
+      </c>
+      <c r="R146" s="14">
+        <v>34.6646989582866</v>
+      </c>
+      <c r="S146" s="14">
+        <v>838.51973129162502</v>
+      </c>
+      <c r="T146" s="14">
+        <v>7240.2872066526897</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -7370,8 +9581,23 @@
       <c r="O147">
         <v>907</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P147" s="13">
+        <v>9.2667699999999993</v>
+      </c>
+      <c r="Q147" s="13">
+        <v>506</v>
+      </c>
+      <c r="R147" s="14">
+        <v>394.28179728710103</v>
+      </c>
+      <c r="S147" s="14">
+        <v>1044.56267884</v>
+      </c>
+      <c r="T147" s="14">
+        <v>3037.7831486425598</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -7417,8 +9643,23 @@
       <c r="O148">
         <v>797</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P148" s="13">
+        <v>11.50015</v>
+      </c>
+      <c r="Q148" s="13">
+        <v>571</v>
+      </c>
+      <c r="R148" s="14">
+        <v>402.21216703941701</v>
+      </c>
+      <c r="S148" s="14">
+        <v>553.23309159607697</v>
+      </c>
+      <c r="T148" s="14">
+        <v>6778.7426950407998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -7464,8 +9705,23 @@
       <c r="O149">
         <v>753</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P149" s="13">
+        <v>11.658770000000001</v>
+      </c>
+      <c r="Q149" s="13">
+        <v>523</v>
+      </c>
+      <c r="R149" s="14">
+        <v>44.089265018154499</v>
+      </c>
+      <c r="S149" s="14">
+        <v>0</v>
+      </c>
+      <c r="T149" s="14">
+        <v>5585.8796039640802</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -7511,8 +9767,23 @@
       <c r="O150">
         <v>827</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P150" s="13">
+        <v>8.1142500000000002</v>
+      </c>
+      <c r="Q150" s="13">
+        <v>482</v>
+      </c>
+      <c r="R150" s="14">
+        <v>39.446495953143</v>
+      </c>
+      <c r="S150" s="14">
+        <v>0</v>
+      </c>
+      <c r="T150" s="14">
+        <v>6071.2956562276304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -7558,8 +9829,23 @@
       <c r="O151">
         <v>617</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P151" s="13">
+        <v>6.1159600000000003</v>
+      </c>
+      <c r="Q151" s="13">
+        <v>606</v>
+      </c>
+      <c r="R151" s="14">
+        <v>1087.30734193597</v>
+      </c>
+      <c r="S151" s="14">
+        <v>0</v>
+      </c>
+      <c r="T151" s="14">
+        <v>6782.2271162633597</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -7605,8 +9891,23 @@
       <c r="O152">
         <v>1103</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P152" s="13">
+        <v>4.86761</v>
+      </c>
+      <c r="Q152" s="13">
+        <v>328</v>
+      </c>
+      <c r="R152" s="14">
+        <v>42.804062283761397</v>
+      </c>
+      <c r="S152" s="14">
+        <v>1401.96093984</v>
+      </c>
+      <c r="T152" s="14">
+        <v>7763.8999635948903</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -7652,8 +9953,23 @@
       <c r="O153">
         <v>1219</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P153" s="13">
+        <v>14.509790000000001</v>
+      </c>
+      <c r="Q153" s="13">
+        <v>493</v>
+      </c>
+      <c r="R153" s="14">
+        <v>221.01401169713901</v>
+      </c>
+      <c r="S153" s="14">
+        <v>0</v>
+      </c>
+      <c r="T153" s="14">
+        <v>4957.2995274676496</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -7699,8 +10015,23 @@
       <c r="O154">
         <v>797</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P154" s="13">
+        <v>4.7999799999999997</v>
+      </c>
+      <c r="Q154" s="13">
+        <v>457</v>
+      </c>
+      <c r="R154" s="14">
+        <v>249.60450473437899</v>
+      </c>
+      <c r="S154" s="14">
+        <v>306.829393435996</v>
+      </c>
+      <c r="T154" s="14">
+        <v>6751.7567158172797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -7746,8 +10077,23 @@
       <c r="O155">
         <v>1200</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P155" s="13">
+        <v>26.047029999999999</v>
+      </c>
+      <c r="Q155" s="13">
+        <v>361</v>
+      </c>
+      <c r="R155" s="14">
+        <v>143.769858004794</v>
+      </c>
+      <c r="S155" s="14">
+        <v>1377.4960960922199</v>
+      </c>
+      <c r="T155" s="14">
+        <v>8829.8789562561105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -7793,8 +10139,23 @@
       <c r="O156">
         <v>1497</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P156" s="13">
+        <v>12.67216</v>
+      </c>
+      <c r="Q156" s="13">
+        <v>191</v>
+      </c>
+      <c r="R156" s="14">
+        <v>728.57949008796095</v>
+      </c>
+      <c r="S156" s="14">
+        <v>3023.3396685133098</v>
+      </c>
+      <c r="T156" s="14">
+        <v>4801.9945073864401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -7840,8 +10201,23 @@
       <c r="O157">
         <v>1210</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P157" s="13">
+        <v>6.7540399999999998</v>
+      </c>
+      <c r="Q157" s="13">
+        <v>372</v>
+      </c>
+      <c r="R157" s="14">
+        <v>1297.5529602193999</v>
+      </c>
+      <c r="S157" s="14">
+        <v>6699.7861250082196</v>
+      </c>
+      <c r="T157" s="14">
+        <v>3420.8656488479401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -7887,8 +10263,23 @@
       <c r="O158">
         <v>1712</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P158" s="13">
+        <v>11.80359</v>
+      </c>
+      <c r="Q158" s="13">
+        <v>147</v>
+      </c>
+      <c r="R158" s="14">
+        <v>109.99283674624</v>
+      </c>
+      <c r="S158" s="14">
+        <v>2179.4989600464901</v>
+      </c>
+      <c r="T158" s="14">
+        <v>4984.7690864819797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -7934,8 +10325,23 @@
       <c r="O159">
         <v>1329</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P159" s="13">
+        <v>1.3567899999999999</v>
+      </c>
+      <c r="Q159" s="13">
+        <v>305</v>
+      </c>
+      <c r="R159" s="14">
+        <v>827.47995685493004</v>
+      </c>
+      <c r="S159" s="14">
+        <v>8006.7041333300904</v>
+      </c>
+      <c r="T159" s="14">
+        <v>1985.49758259808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -7981,8 +10387,23 @@
       <c r="O160">
         <v>1016</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P160" s="13">
+        <v>13.02675</v>
+      </c>
+      <c r="Q160" s="13">
+        <v>208</v>
+      </c>
+      <c r="R160" s="14">
+        <v>586.93993914630698</v>
+      </c>
+      <c r="S160" s="14">
+        <v>5543.5184632596001</v>
+      </c>
+      <c r="T160" s="14">
+        <v>2405.9059161556202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -8028,8 +10449,23 @@
       <c r="O161">
         <v>1173</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P161" s="13">
+        <v>26.674700000000001</v>
+      </c>
+      <c r="Q161" s="13">
+        <v>226</v>
+      </c>
+      <c r="R161" s="14">
+        <v>749.85668564023501</v>
+      </c>
+      <c r="S161" s="14">
+        <v>3744.4521054715001</v>
+      </c>
+      <c r="T161" s="14">
+        <v>3433.5936824867399</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -8075,8 +10511,23 @@
       <c r="O162">
         <v>1175</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P162" s="13">
+        <v>4.2979200000000004</v>
+      </c>
+      <c r="Q162" s="13">
+        <v>293</v>
+      </c>
+      <c r="R162" s="14">
+        <v>701.12868126035301</v>
+      </c>
+      <c r="S162" s="14">
+        <v>8549.9658705841994</v>
+      </c>
+      <c r="T162" s="14">
+        <v>155.26607220751501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -8122,8 +10573,23 @@
       <c r="O163">
         <v>1224</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P163" s="13">
+        <v>20.492940000000001</v>
+      </c>
+      <c r="Q163" s="13">
+        <v>192</v>
+      </c>
+      <c r="R163" s="14">
+        <v>1217.69757021757</v>
+      </c>
+      <c r="S163" s="14">
+        <v>4634.5085971975304</v>
+      </c>
+      <c r="T163" s="14">
+        <v>2796.6883966129399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -8169,8 +10635,23 @@
       <c r="O164">
         <v>1374</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P164" s="13">
+        <v>7.6857199999999999</v>
+      </c>
+      <c r="Q164" s="13">
+        <v>197</v>
+      </c>
+      <c r="R164" s="14">
+        <v>944.44226894098199</v>
+      </c>
+      <c r="S164" s="14">
+        <v>7188.9300072659298</v>
+      </c>
+      <c r="T164" s="14">
+        <v>38.717556536466297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -8216,8 +10697,23 @@
       <c r="O165">
         <v>1839</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P165" s="13">
+        <v>11.470079999999999</v>
+      </c>
+      <c r="Q165" s="13">
+        <v>152</v>
+      </c>
+      <c r="R165" s="14">
+        <v>414.12005611253801</v>
+      </c>
+      <c r="S165" s="14">
+        <v>2995.9897120417199</v>
+      </c>
+      <c r="T165" s="14">
+        <v>6757.4615058332702</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -8263,8 +10759,23 @@
       <c r="O166">
         <v>959</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P166" s="13">
+        <v>18.14293</v>
+      </c>
+      <c r="Q166" s="13">
+        <v>436</v>
+      </c>
+      <c r="R166" s="14">
+        <v>38.043678267725802</v>
+      </c>
+      <c r="S166" s="14">
+        <v>9712.7637492276808</v>
+      </c>
+      <c r="T166" s="14">
+        <v>86.544001323470994</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -8310,8 +10821,23 @@
       <c r="O167">
         <v>892</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P167" s="13">
+        <v>7.9367400000000004</v>
+      </c>
+      <c r="Q167" s="13">
+        <v>443</v>
+      </c>
+      <c r="R167" s="14">
+        <v>326.36116221764098</v>
+      </c>
+      <c r="S167" s="14">
+        <v>8598.2481211481099</v>
+      </c>
+      <c r="T167" s="14">
+        <v>1799.93710372233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -8357,8 +10883,23 @@
       <c r="O168">
         <v>916</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P168" s="13">
+        <v>1.4577</v>
+      </c>
+      <c r="Q168" s="13">
+        <v>394</v>
+      </c>
+      <c r="R168" s="14">
+        <v>233.70163417940699</v>
+      </c>
+      <c r="S168" s="14">
+        <v>7778.0223908878397</v>
+      </c>
+      <c r="T168" s="14">
+        <v>2266.9136577357199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -8404,8 +10945,23 @@
       <c r="O169">
         <v>974</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P169" s="13">
+        <v>16.331160000000001</v>
+      </c>
+      <c r="Q169" s="13">
+        <v>379</v>
+      </c>
+      <c r="R169" s="14">
+        <v>173.26456004582101</v>
+      </c>
+      <c r="S169" s="14">
+        <v>10085.9288354085</v>
+      </c>
+      <c r="T169" s="14">
+        <v>110.815163355857</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -8451,8 +11007,23 @@
       <c r="O170">
         <v>793</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P170" s="13">
+        <v>29.925080000000001</v>
+      </c>
+      <c r="Q170" s="13">
+        <v>264</v>
+      </c>
+      <c r="R170" s="14">
+        <v>33.720356899613599</v>
+      </c>
+      <c r="S170" s="14">
+        <v>9994.3511328263194</v>
+      </c>
+      <c r="T170" s="14">
+        <v>61.388495400187303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -8498,8 +11069,23 @@
       <c r="O171">
         <v>1029</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P171" s="13">
+        <v>7.4348400000000003</v>
+      </c>
+      <c r="Q171" s="13">
+        <v>505</v>
+      </c>
+      <c r="R171" s="14">
+        <v>325.62463916340198</v>
+      </c>
+      <c r="S171" s="14">
+        <v>8661.25367446985</v>
+      </c>
+      <c r="T171" s="14">
+        <v>299.738400555081</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -8545,8 +11131,23 @@
       <c r="O172">
         <v>639</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P172" s="13">
+        <v>14.017910000000001</v>
+      </c>
+      <c r="Q172" s="13">
+        <v>180</v>
+      </c>
+      <c r="R172" s="14">
+        <v>2.94556193622671</v>
+      </c>
+      <c r="S172" s="14">
+        <v>9272.5461554518497</v>
+      </c>
+      <c r="T172" s="14">
+        <v>62.4869305213983</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -8592,8 +11193,23 @@
       <c r="O173">
         <v>832</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P173" s="13">
+        <v>2.2600500000000001</v>
+      </c>
+      <c r="Q173" s="13">
+        <v>241</v>
+      </c>
+      <c r="R173" s="14">
+        <v>116.196101591603</v>
+      </c>
+      <c r="S173" s="14">
+        <v>10400.8540105843</v>
+      </c>
+      <c r="T173" s="14">
+        <v>59.076582119129199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -8639,8 +11255,23 @@
       <c r="O174">
         <v>832</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P174" s="13">
+        <v>6.7070100000000004</v>
+      </c>
+      <c r="Q174" s="13">
+        <v>200</v>
+      </c>
+      <c r="R174" s="14">
+        <v>94.583668391547405</v>
+      </c>
+      <c r="S174" s="14">
+        <v>9987.5380134521092</v>
+      </c>
+      <c r="T174" s="14">
+        <v>58.389443278538202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -8686,8 +11317,23 @@
       <c r="O175">
         <v>1041</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P175" s="13">
+        <v>19.87134</v>
+      </c>
+      <c r="Q175" s="13">
+        <v>468</v>
+      </c>
+      <c r="R175" s="14">
+        <v>30.483127886565399</v>
+      </c>
+      <c r="S175" s="14">
+        <v>7729.13989004616</v>
+      </c>
+      <c r="T175" s="14">
+        <v>2159.8736182950302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -8733,8 +11379,23 @@
       <c r="O176">
         <v>1314</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P176" s="13">
+        <v>2.0739000000000001</v>
+      </c>
+      <c r="Q176" s="13">
+        <v>282</v>
+      </c>
+      <c r="R176" s="14">
+        <v>1230.8634036764099</v>
+      </c>
+      <c r="S176" s="14">
+        <v>18299.987885235001</v>
+      </c>
+      <c r="T176" s="14">
+        <v>2569.2797574485999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -8780,8 +11441,23 @@
       <c r="O177">
         <v>1573</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P177" s="13">
+        <v>3.9408099999999999</v>
+      </c>
+      <c r="Q177" s="13">
+        <v>196</v>
+      </c>
+      <c r="R177" s="14">
+        <v>477.50527322588403</v>
+      </c>
+      <c r="S177" s="14">
+        <v>20372.0589621566</v>
+      </c>
+      <c r="T177" s="14">
+        <v>5535.1657691731198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -8827,8 +11503,23 @@
       <c r="O178">
         <v>882</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P178" s="13">
+        <v>1.3203800000000001</v>
+      </c>
+      <c r="Q178" s="13">
+        <v>224</v>
+      </c>
+      <c r="R178" s="14">
+        <v>818.68650866102803</v>
+      </c>
+      <c r="S178" s="14">
+        <v>18885.815668917599</v>
+      </c>
+      <c r="T178" s="14">
+        <v>4601.6184604536802</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -8874,8 +11565,23 @@
       <c r="O179">
         <v>1435</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P179" s="13">
+        <v>2.3786399999999999</v>
+      </c>
+      <c r="Q179" s="13">
+        <v>242</v>
+      </c>
+      <c r="R179" s="14">
+        <v>703.47415232777303</v>
+      </c>
+      <c r="S179" s="14">
+        <v>17655.065275744601</v>
+      </c>
+      <c r="T179" s="14">
+        <v>2942.9143759710601</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -8921,8 +11627,23 @@
       <c r="O180">
         <v>1277</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P180" s="13">
+        <v>1.67876</v>
+      </c>
+      <c r="Q180" s="13">
+        <v>227</v>
+      </c>
+      <c r="R180" s="14">
+        <v>550.58732737831394</v>
+      </c>
+      <c r="S180" s="14">
+        <v>19208.365180429399</v>
+      </c>
+      <c r="T180" s="14">
+        <v>3709.6545739902299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -8968,8 +11689,23 @@
       <c r="O181">
         <v>1247</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P181" s="13">
+        <v>3.0572900000000001</v>
+      </c>
+      <c r="Q181" s="13">
+        <v>205</v>
+      </c>
+      <c r="R181" s="14">
+        <v>27.4210474666144</v>
+      </c>
+      <c r="S181" s="14">
+        <v>20333.4836189372</v>
+      </c>
+      <c r="T181" s="14">
+        <v>5052.3668480922897</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -9015,8 +11751,23 @@
       <c r="O182">
         <v>1305</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P182" s="13">
+        <v>1.85433</v>
+      </c>
+      <c r="Q182" s="13">
+        <v>182</v>
+      </c>
+      <c r="R182" s="14">
+        <v>702.94016628818599</v>
+      </c>
+      <c r="S182" s="14">
+        <v>21529.606060279599</v>
+      </c>
+      <c r="T182" s="14">
+        <v>5486.8346991693697</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -9062,8 +11813,23 @@
       <c r="O183">
         <v>1169</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P183" s="13">
+        <v>1.88344</v>
+      </c>
+      <c r="Q183" s="13">
+        <v>211</v>
+      </c>
+      <c r="R183" s="14">
+        <v>231.490626731698</v>
+      </c>
+      <c r="S183" s="14">
+        <v>19751.026400070699</v>
+      </c>
+      <c r="T183" s="14">
+        <v>1146.8728047423999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -9109,8 +11875,23 @@
       <c r="O184">
         <v>1016</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P184" s="13">
+        <v>1.16727</v>
+      </c>
+      <c r="Q184" s="13">
+        <v>201</v>
+      </c>
+      <c r="R184" s="14">
+        <v>84.876046985414106</v>
+      </c>
+      <c r="S184" s="14">
+        <v>20336.088776844699</v>
+      </c>
+      <c r="T184" s="14">
+        <v>2218.0312390781601</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -9156,8 +11937,23 @@
       <c r="O185">
         <v>783</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P185" s="13">
+        <v>1.5838699999999999</v>
+      </c>
+      <c r="Q185" s="13">
+        <v>177</v>
+      </c>
+      <c r="R185" s="14">
+        <v>167.07709114177899</v>
+      </c>
+      <c r="S185" s="14">
+        <v>21799.316087281299</v>
+      </c>
+      <c r="T185" s="14">
+        <v>2697.2985295051599</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -9203,8 +11999,23 @@
       <c r="O186">
         <v>780</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P186" s="13">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="Q186" s="13">
+        <v>165</v>
+      </c>
+      <c r="R186" s="14">
+        <v>663.28662560423902</v>
+      </c>
+      <c r="S186" s="14">
+        <v>22617.127463274799</v>
+      </c>
+      <c r="T186" s="14">
+        <v>4470.7495188147996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -9250,8 +12061,23 @@
       <c r="O187">
         <v>829</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P187" s="13">
+        <v>2.0033799999999999</v>
+      </c>
+      <c r="Q187" s="13">
+        <v>204</v>
+      </c>
+      <c r="R187" s="14">
+        <v>432.940497029737</v>
+      </c>
+      <c r="S187" s="14">
+        <v>21054.496935735198</v>
+      </c>
+      <c r="T187" s="14">
+        <v>2.62812556125512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -9297,8 +12123,23 @@
       <c r="O188">
         <v>1309</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P188" s="13">
+        <v>1.35565</v>
+      </c>
+      <c r="Q188" s="13">
+        <v>187</v>
+      </c>
+      <c r="R188" s="14">
+        <v>138.579139733235</v>
+      </c>
+      <c r="S188" s="14">
+        <v>22245.379835544602</v>
+      </c>
+      <c r="T188" s="14">
+        <v>630.21317430846705</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -9344,8 +12185,23 @@
       <c r="O189">
         <v>1822</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P189" s="13">
+        <v>1.89239</v>
+      </c>
+      <c r="Q189" s="13">
+        <v>185</v>
+      </c>
+      <c r="R189" s="14">
+        <v>640.59372860746805</v>
+      </c>
+      <c r="S189" s="14">
+        <v>22670.782501677</v>
+      </c>
+      <c r="T189" s="14">
+        <v>1271.6239576037799</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>8</v>
       </c>
@@ -9390,6 +12246,21 @@
       </c>
       <c r="O190">
         <v>1462</v>
+      </c>
+      <c r="P190" s="13">
+        <v>3.6399300000000001</v>
+      </c>
+      <c r="Q190" s="13">
+        <v>176</v>
+      </c>
+      <c r="R190" s="14">
+        <v>96.279418370443693</v>
+      </c>
+      <c r="S190" s="14">
+        <v>23140.050200366299</v>
+      </c>
+      <c r="T190" s="14">
+        <v>2237.6432797264401</v>
       </c>
     </row>
   </sheetData>
